--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="145">
   <si>
     <t>46622</t>
   </si>
@@ -183,14 +183,284 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción v del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 26 de octubre del año en curso.</t>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_septiembre_2020/17.estadoanaliticopresupuestoegresos-obj-gto-cap%C2%A1tulo.pdf</t>
+  </si>
+  <si>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Recalendarización del Presupuesto</t>
+  </si>
+  <si>
+    <t>Honorarios asimilables a salarios</t>
+  </si>
+  <si>
+    <t>Prima Vacacional y dominical</t>
+  </si>
+  <si>
+    <t>Gratificación Anual</t>
+  </si>
+  <si>
+    <t>Aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al Seguro de Cesantía en Edad Avanzada y Vejez</t>
+  </si>
+  <si>
+    <t>Aportaciones a FOVISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al SAR</t>
+  </si>
+  <si>
+    <t>Material de Oficina</t>
+  </si>
+  <si>
+    <t>Gastos de Oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de impresión y reproducción</t>
+  </si>
+  <si>
+    <t>Materiales y útiles consumibles para el procesamiento en equipos y bienes informáticos</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Material didáctico</t>
+  </si>
+  <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Utensilios para el servicio de administración</t>
+  </si>
+  <si>
+    <t>Productos agrícolas</t>
+  </si>
+  <si>
+    <t>Productos químicos, farmacéuticos y de laboratorio</t>
+  </si>
+  <si>
+    <t>Productos minerales no metálicos</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Vidrio y productos de vidrio</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Material Electrónico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Materiales complementarios</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicinas y Productos Farmacéuticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Materiales y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Prendas de protección</t>
+  </si>
+  <si>
+    <t>Artículos deportivos</t>
+  </si>
+  <si>
+    <t>Productos textiles</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de mobiliario y equipo de administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores otros bienes muebles</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicios de Conducción de Señales</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de edificios</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Servicios de arquitectuta, ingeniería y actividades relacionadas</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería y fumigación</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Difusión por radio,, televisión y otros medios de mensajes comerciales para promover la venta de bienes y servicios</t>
+  </si>
+  <si>
+    <t>Pasajes aéreos</t>
+  </si>
+  <si>
+    <t>Pasajes terrestres</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de Ceremonial</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Congresos y convenciones</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Bienes informáticos</t>
+  </si>
+  <si>
+    <t>Equipo médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Otros equipos</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Licencias informáticas e intelectuales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,13 +473,19 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -230,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,11 +529,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -271,7 +561,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,11 +584,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="O74" workbookViewId="0">
+      <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,8 +891,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="75.140625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -602,38 +900,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -754,27 +1052,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -835,7 +1133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
@@ -845,30 +1143,5068 @@
       <c r="C8" s="3">
         <v>44104</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>113001</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2">
+        <v>22259844.859999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>18759599.969999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>18759599.969999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>18759599.969999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>18759599.969999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18759599.969999999</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="P8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="R8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q8" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R8" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="2">
+        <v>121001</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2">
+        <v>758206.17999999993</v>
+      </c>
+      <c r="I9" s="2">
+        <v>992298.97</v>
+      </c>
+      <c r="J9" s="2">
+        <v>992298.97</v>
+      </c>
+      <c r="K9" s="2">
+        <v>992298.97</v>
+      </c>
+      <c r="L9" s="2">
+        <v>992298.97</v>
+      </c>
+      <c r="M9" s="2">
+        <v>992298.97</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R9" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="2">
+        <v>132001</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3153981</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2945891.21</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2945891.21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2945891.21</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2945891.21</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2945891.21</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R10" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="2">
+        <v>132002</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4037896.04</v>
+      </c>
+      <c r="I11" s="2">
+        <v>324850.44</v>
+      </c>
+      <c r="J11" s="2">
+        <v>324850.44</v>
+      </c>
+      <c r="K11" s="2">
+        <v>324850.44</v>
+      </c>
+      <c r="L11" s="2">
+        <v>324850.44</v>
+      </c>
+      <c r="M11" s="2">
+        <v>324850.44</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R11" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="2">
+        <v>141001</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1956920.2400000002</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1853384.46</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1853384.46</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1853384.46</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1853384.46</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1853384.46</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R12" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="2">
+        <v>141004</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2">
+        <v>623190.26</v>
+      </c>
+      <c r="I13" s="2">
+        <v>580556.42000000004</v>
+      </c>
+      <c r="J13" s="2">
+        <v>580556.42000000004</v>
+      </c>
+      <c r="K13" s="2">
+        <v>580556.42000000004</v>
+      </c>
+      <c r="L13" s="2">
+        <v>580556.42000000004</v>
+      </c>
+      <c r="M13" s="2">
+        <v>580556.42000000004</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R13" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="2">
+        <v>142001</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2">
+        <v>981405.36</v>
+      </c>
+      <c r="I14" s="2">
+        <v>914262.07000000007</v>
+      </c>
+      <c r="J14" s="2">
+        <v>914262.07000000007</v>
+      </c>
+      <c r="K14" s="2">
+        <v>914262.07000000007</v>
+      </c>
+      <c r="L14" s="2">
+        <v>914262.07000000007</v>
+      </c>
+      <c r="M14" s="2">
+        <v>914262.07000000007</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R14" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="2">
+        <v>143001</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="2">
+        <v>392564.06</v>
+      </c>
+      <c r="I15" s="2">
+        <v>365704.81999999995</v>
+      </c>
+      <c r="J15" s="2">
+        <v>365704.81999999995</v>
+      </c>
+      <c r="K15" s="2">
+        <v>365704.81999999995</v>
+      </c>
+      <c r="L15" s="2">
+        <v>365704.81999999995</v>
+      </c>
+      <c r="M15" s="2">
+        <v>365704.81999999995</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R15" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F16" s="2">
+        <v>211001</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2">
+        <v>412778</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R16" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>211002</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="2">
+        <v>35000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R17" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="2">
+        <v>212001</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9899.99</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9899.99</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9899.99</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9899.99</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9899.99</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R18" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F19" s="2">
+        <v>214001</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="2">
+        <v>429374</v>
+      </c>
+      <c r="I19" s="2">
+        <v>14578.88</v>
+      </c>
+      <c r="J19" s="2">
+        <v>14578.88</v>
+      </c>
+      <c r="K19" s="2">
+        <v>14578.88</v>
+      </c>
+      <c r="L19" s="2">
+        <v>14578.88</v>
+      </c>
+      <c r="M19" s="2">
+        <v>14578.88</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R19" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="2">
+        <v>216001</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2">
+        <v>29722</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2999.99</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2999.99</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2999.99</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2999.99</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2999.99</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R20" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F21" s="2">
+        <v>217001</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="2">
+        <v>413000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R21" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="2">
+        <v>222001</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>43053.75</v>
+      </c>
+      <c r="J22" s="2">
+        <v>43053.75</v>
+      </c>
+      <c r="K22" s="2">
+        <v>43053.75</v>
+      </c>
+      <c r="L22" s="2">
+        <v>43053.75</v>
+      </c>
+      <c r="M22" s="2">
+        <v>43053.75</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R22" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="2">
+        <v>223001</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R23" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="2">
+        <v>231001</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R24" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F25" s="2">
+        <v>235001</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="2">
+        <v>22000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R25" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="2">
+        <v>241001</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="2">
+        <v>9000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2999.7599999999998</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2999.7599999999998</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2999.7599999999998</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2999.7599999999998</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2999.7599999999998</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R26" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="2">
+        <v>242001</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5500</v>
+      </c>
+      <c r="I27" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="J27" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="K27" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="L27" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="M27" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R27" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F28" s="2">
+        <v>243001</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R28" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F29" s="2">
+        <v>244001</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R29" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F30" s="2">
+        <v>245001</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R30" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F31" s="2">
+        <v>246001</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="2">
+        <v>188486</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1484.8</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1484.8</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1484.8</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1484.8</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1484.8</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R31" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="2">
+        <v>246002</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="2">
+        <v>98840</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R32" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="2">
+        <v>247001</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="2">
+        <v>61500</v>
+      </c>
+      <c r="I33" s="2">
+        <v>12998.56</v>
+      </c>
+      <c r="J33" s="2">
+        <v>12998.56</v>
+      </c>
+      <c r="K33" s="2">
+        <v>12998.56</v>
+      </c>
+      <c r="L33" s="2">
+        <v>12998.56</v>
+      </c>
+      <c r="M33" s="2">
+        <v>12998.56</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R33" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F34" s="2">
+        <v>248001</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R34" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F35" s="2">
+        <v>249001</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="2">
+        <v>103100</v>
+      </c>
+      <c r="I35" s="2">
+        <v>31324.639999999999</v>
+      </c>
+      <c r="J35" s="2">
+        <v>31324.639999999999</v>
+      </c>
+      <c r="K35" s="2">
+        <v>31324.639999999999</v>
+      </c>
+      <c r="L35" s="2">
+        <v>31324.639999999999</v>
+      </c>
+      <c r="M35" s="2">
+        <v>31324.639999999999</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R35" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F36" s="2">
+        <v>251001</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="2">
+        <v>167382</v>
+      </c>
+      <c r="I36" s="2">
+        <v>130180.42</v>
+      </c>
+      <c r="J36" s="2">
+        <v>130180.42</v>
+      </c>
+      <c r="K36" s="2">
+        <v>130180.42</v>
+      </c>
+      <c r="L36" s="2">
+        <v>130180.42</v>
+      </c>
+      <c r="M36" s="2">
+        <v>132384.42000000001</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R36" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F37" s="2">
+        <v>252001</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R37" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F38" s="2">
+        <v>253001</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="2">
+        <v>58000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R38" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F39" s="2">
+        <v>254001</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="2">
+        <v>40204</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R39" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F40" s="2">
+        <v>255001</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="2">
+        <v>242842</v>
+      </c>
+      <c r="I40" s="2">
+        <v>64649.509999999995</v>
+      </c>
+      <c r="J40" s="2">
+        <v>64649.509999999995</v>
+      </c>
+      <c r="K40" s="2">
+        <v>64649.509999999995</v>
+      </c>
+      <c r="L40" s="2">
+        <v>64649.509999999995</v>
+      </c>
+      <c r="M40" s="2">
+        <v>64649.509999999995</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R40" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F41" s="2">
+        <v>256001</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="2">
+        <v>49500</v>
+      </c>
+      <c r="I41" s="2">
+        <v>39310.660000000003</v>
+      </c>
+      <c r="J41" s="2">
+        <v>39310.660000000003</v>
+      </c>
+      <c r="K41" s="2">
+        <v>39310.660000000003</v>
+      </c>
+      <c r="L41" s="2">
+        <v>39310.660000000003</v>
+      </c>
+      <c r="M41" s="2">
+        <v>39310.660000000003</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R41" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F42" s="2">
+        <v>259001</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R42" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2600</v>
+      </c>
+      <c r="F43" s="2">
+        <v>261001</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="2">
+        <v>225000</v>
+      </c>
+      <c r="I43" s="2">
+        <v>41344.199999999997</v>
+      </c>
+      <c r="J43" s="2">
+        <v>41344.199999999997</v>
+      </c>
+      <c r="K43" s="2">
+        <v>41344.199999999997</v>
+      </c>
+      <c r="L43" s="2">
+        <v>41344.199999999997</v>
+      </c>
+      <c r="M43" s="2">
+        <v>41344.199999999997</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R43" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F44" s="2">
+        <v>271001</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="2">
+        <v>15660</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R44" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="2">
+        <v>272001</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="2">
+        <v>15440</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R45" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F46" s="2">
+        <v>273001</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R46" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F47" s="2">
+        <v>274001</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="2">
+        <v>7180</v>
+      </c>
+      <c r="I47" s="2">
+        <v>7179.24</v>
+      </c>
+      <c r="J47" s="2">
+        <v>7179.24</v>
+      </c>
+      <c r="K47" s="2">
+        <v>7179.24</v>
+      </c>
+      <c r="L47" s="2">
+        <v>7179.24</v>
+      </c>
+      <c r="M47" s="2">
+        <v>7179.24</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R47" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="2">
+        <v>291001</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="2">
+        <v>70450</v>
+      </c>
+      <c r="I48" s="2">
+        <v>9000</v>
+      </c>
+      <c r="J48" s="2">
+        <v>9000</v>
+      </c>
+      <c r="K48" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L48" s="2">
+        <v>9000</v>
+      </c>
+      <c r="M48" s="2">
+        <v>9000</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R48" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S48" s="4"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="2">
+        <v>292001</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>5742</v>
+      </c>
+      <c r="J49" s="2">
+        <v>5742</v>
+      </c>
+      <c r="K49" s="2">
+        <v>5742</v>
+      </c>
+      <c r="L49" s="2">
+        <v>5742</v>
+      </c>
+      <c r="M49" s="2">
+        <v>5742</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R49" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F50" s="2">
+        <v>293001</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R50" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F51" s="2">
+        <v>294001</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="2">
+        <v>193716</v>
+      </c>
+      <c r="I51" s="2">
+        <v>107896.41</v>
+      </c>
+      <c r="J51" s="2">
+        <v>107896.41</v>
+      </c>
+      <c r="K51" s="2">
+        <v>107896.41</v>
+      </c>
+      <c r="L51" s="2">
+        <v>107896.41</v>
+      </c>
+      <c r="M51" s="2">
+        <v>107896.41</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R51" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="2">
+        <v>295001</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R52" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F53" s="2">
+        <v>296001</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="2">
+        <v>25000</v>
+      </c>
+      <c r="I53" s="2">
+        <v>7560.02</v>
+      </c>
+      <c r="J53" s="2">
+        <v>7560.02</v>
+      </c>
+      <c r="K53" s="2">
+        <v>7560.02</v>
+      </c>
+      <c r="L53" s="2">
+        <v>7560.02</v>
+      </c>
+      <c r="M53" s="2">
+        <v>7560.02</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R53" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S53" s="4"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F54" s="2">
+        <v>298001</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="2">
+        <v>8000</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R54" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F55" s="2">
+        <v>299001</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R55" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F56" s="2">
+        <v>311001</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="2">
+        <v>606300</v>
+      </c>
+      <c r="I56" s="2">
+        <v>326911</v>
+      </c>
+      <c r="J56" s="2">
+        <v>326911</v>
+      </c>
+      <c r="K56" s="2">
+        <v>326911</v>
+      </c>
+      <c r="L56" s="2">
+        <v>326911</v>
+      </c>
+      <c r="M56" s="2">
+        <v>326911</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R56" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="2">
+        <v>313001</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="2">
+        <v>42000</v>
+      </c>
+      <c r="I57" s="2">
+        <v>25889.72</v>
+      </c>
+      <c r="J57" s="2">
+        <v>25889.72</v>
+      </c>
+      <c r="K57" s="2">
+        <v>25889.72</v>
+      </c>
+      <c r="L57" s="2">
+        <v>25889.72</v>
+      </c>
+      <c r="M57" s="2">
+        <v>25889.72</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R57" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F58" s="2">
+        <v>314001</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" s="2">
+        <v>276000</v>
+      </c>
+      <c r="I58" s="2">
+        <v>242145.9</v>
+      </c>
+      <c r="J58" s="2">
+        <v>242145.9</v>
+      </c>
+      <c r="K58" s="2">
+        <v>242145.9</v>
+      </c>
+      <c r="L58" s="2">
+        <v>242145.9</v>
+      </c>
+      <c r="M58" s="2">
+        <v>242145.9</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R58" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="2">
+        <v>317001</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5800</v>
+      </c>
+      <c r="J59" s="2">
+        <v>5800</v>
+      </c>
+      <c r="K59" s="2">
+        <v>5800</v>
+      </c>
+      <c r="L59" s="2">
+        <v>5800</v>
+      </c>
+      <c r="M59" s="2">
+        <v>5800</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R59" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="2">
+        <v>318001</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2947.83</v>
+      </c>
+      <c r="J60" s="2">
+        <v>2947.83</v>
+      </c>
+      <c r="K60" s="2">
+        <v>2947.83</v>
+      </c>
+      <c r="L60" s="2">
+        <v>2947.83</v>
+      </c>
+      <c r="M60" s="2">
+        <v>2947.83</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R60" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F61" s="2">
+        <v>322001</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="2">
+        <v>83520</v>
+      </c>
+      <c r="I61" s="2">
+        <v>55680</v>
+      </c>
+      <c r="J61" s="2">
+        <v>55680</v>
+      </c>
+      <c r="K61" s="2">
+        <v>55680</v>
+      </c>
+      <c r="L61" s="2">
+        <v>55680</v>
+      </c>
+      <c r="M61" s="2">
+        <v>55680</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R61" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F62" s="2">
+        <v>323002</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="2">
+        <v>37500</v>
+      </c>
+      <c r="I62" s="2">
+        <v>5400</v>
+      </c>
+      <c r="J62" s="2">
+        <v>5400</v>
+      </c>
+      <c r="K62" s="2">
+        <v>5400</v>
+      </c>
+      <c r="L62" s="2">
+        <v>5400</v>
+      </c>
+      <c r="M62" s="2">
+        <v>5400</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R62" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F63" s="2">
+        <v>326001</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="2">
+        <v>73700</v>
+      </c>
+      <c r="I63" s="2">
+        <v>8999.2800000000007</v>
+      </c>
+      <c r="J63" s="2">
+        <v>8999.2800000000007</v>
+      </c>
+      <c r="K63" s="2">
+        <v>8999.2800000000007</v>
+      </c>
+      <c r="L63" s="2">
+        <v>8999.2800000000007</v>
+      </c>
+      <c r="M63" s="2">
+        <v>8999.2800000000007</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R63" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F64" s="2">
+        <v>331002</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="2">
+        <v>125000</v>
+      </c>
+      <c r="I64" s="2">
+        <v>69600</v>
+      </c>
+      <c r="J64" s="2">
+        <v>69600</v>
+      </c>
+      <c r="K64" s="2">
+        <v>69600</v>
+      </c>
+      <c r="L64" s="2">
+        <v>69600</v>
+      </c>
+      <c r="M64" s="2">
+        <v>69600</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R64" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F65" s="2">
+        <v>331003</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1350345</v>
+      </c>
+      <c r="I65" s="2">
+        <v>53771</v>
+      </c>
+      <c r="J65" s="2">
+        <v>53771</v>
+      </c>
+      <c r="K65" s="2">
+        <v>53771</v>
+      </c>
+      <c r="L65" s="2">
+        <v>53771</v>
+      </c>
+      <c r="M65" s="2">
+        <v>64570.99</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R65" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="2">
+        <v>332001</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R66" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S66" s="4"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F67" s="2">
+        <v>334001</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="2">
+        <v>89155</v>
+      </c>
+      <c r="I67" s="2">
+        <v>32702</v>
+      </c>
+      <c r="J67" s="2">
+        <v>32702</v>
+      </c>
+      <c r="K67" s="2">
+        <v>32702</v>
+      </c>
+      <c r="L67" s="2">
+        <v>32702</v>
+      </c>
+      <c r="M67" s="2">
+        <v>32702</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R67" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F68" s="2">
+        <v>336001</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" s="2">
+        <v>72000</v>
+      </c>
+      <c r="I68" s="2">
+        <v>122551.4</v>
+      </c>
+      <c r="J68" s="2">
+        <v>122551.4</v>
+      </c>
+      <c r="K68" s="2">
+        <v>122551.4</v>
+      </c>
+      <c r="L68" s="2">
+        <v>122551.4</v>
+      </c>
+      <c r="M68" s="2">
+        <v>122551.4</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R68" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F69" s="2">
+        <v>338001</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H69" s="2">
+        <v>442800</v>
+      </c>
+      <c r="I69" s="2">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="J69" s="2">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="K69" s="2">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="L69" s="2">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="M69" s="2">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R69" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F70" s="2">
+        <v>341001</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I70" s="2">
+        <v>4611</v>
+      </c>
+      <c r="J70" s="2">
+        <v>4611</v>
+      </c>
+      <c r="K70" s="2">
+        <v>4611</v>
+      </c>
+      <c r="L70" s="2">
+        <v>4611</v>
+      </c>
+      <c r="M70" s="2">
+        <v>4611</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R70" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S70" s="4"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F71" s="2">
+        <v>345001</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="2">
+        <v>360700</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R71" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S71" s="4"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F72" s="2">
+        <v>351001</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H72" s="2">
+        <v>66600</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R72" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S72" s="4"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F73" s="2">
+        <v>352001</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="2">
+        <v>34000</v>
+      </c>
+      <c r="I73" s="2">
+        <v>11878.4</v>
+      </c>
+      <c r="J73" s="2">
+        <v>11878.4</v>
+      </c>
+      <c r="K73" s="2">
+        <v>11878.4</v>
+      </c>
+      <c r="L73" s="2">
+        <v>11878.4</v>
+      </c>
+      <c r="M73" s="2">
+        <v>11878.4</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R73" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F74" s="2">
+        <v>353001</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R74" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C75" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F75" s="2">
+        <v>354001</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="2">
+        <v>22066</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R75" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C76" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F76" s="2">
+        <v>355001</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I76" s="2">
+        <v>37531.96</v>
+      </c>
+      <c r="J76" s="2">
+        <v>37531.96</v>
+      </c>
+      <c r="K76" s="2">
+        <v>37531.96</v>
+      </c>
+      <c r="L76" s="2">
+        <v>37531.96</v>
+      </c>
+      <c r="M76" s="2">
+        <v>37531.96</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R76" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C77" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F77" s="2">
+        <v>357001</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I77" s="2">
+        <v>2300</v>
+      </c>
+      <c r="J77" s="2">
+        <v>2300</v>
+      </c>
+      <c r="K77" s="2">
+        <v>2300</v>
+      </c>
+      <c r="L77" s="2">
+        <v>2300</v>
+      </c>
+      <c r="M77" s="2">
+        <v>2300</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R77" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C78" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F78" s="2">
+        <v>358001</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H78" s="2">
+        <v>867750</v>
+      </c>
+      <c r="I78" s="2">
+        <v>852992.22</v>
+      </c>
+      <c r="J78" s="2">
+        <v>852992.22</v>
+      </c>
+      <c r="K78" s="2">
+        <v>852992.22</v>
+      </c>
+      <c r="L78" s="2">
+        <v>852992.22</v>
+      </c>
+      <c r="M78" s="2">
+        <v>852992.22</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R78" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F79" s="2">
+        <v>359001</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I79" s="2">
+        <v>8950</v>
+      </c>
+      <c r="J79" s="2">
+        <v>8950</v>
+      </c>
+      <c r="K79" s="2">
+        <v>8950</v>
+      </c>
+      <c r="L79" s="2">
+        <v>8950</v>
+      </c>
+      <c r="M79" s="2">
+        <v>8950</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R79" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S79" s="4"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C80" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3600</v>
+      </c>
+      <c r="F80" s="2">
+        <v>361002</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" s="2">
+        <v>35000</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R80" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S80" s="4"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3600</v>
+      </c>
+      <c r="F81" s="2">
+        <v>362001</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H81" s="2">
+        <v>334900</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R81" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S81" s="4"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B82" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F82" s="2">
+        <v>371001</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R82" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S82" s="4"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B83" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F83" s="2">
+        <v>372001</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="2">
+        <v>35484</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R83" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C84" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F84" s="2">
+        <v>375001</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="2">
+        <v>53229</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2664.36</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2664.36</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2664.36</v>
+      </c>
+      <c r="L84" s="2">
+        <v>2664.36</v>
+      </c>
+      <c r="M84" s="2">
+        <v>2664.36</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R84" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S84" s="4"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B85" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C85" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F85" s="2">
+        <v>381001</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="2">
+        <v>285500</v>
+      </c>
+      <c r="I85" s="2">
+        <v>29324.799999999999</v>
+      </c>
+      <c r="J85" s="2">
+        <v>29324.799999999999</v>
+      </c>
+      <c r="K85" s="2">
+        <v>29324.799999999999</v>
+      </c>
+      <c r="L85" s="2">
+        <v>29324.799999999999</v>
+      </c>
+      <c r="M85" s="2">
+        <v>29324.799999999999</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R85" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S85" s="4"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C86" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F86" s="2">
+        <v>382001</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" s="2">
+        <v>84000</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1855.91</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1855.91</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1855.91</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1855.91</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1855.91</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R86" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S86" s="4"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B87" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C87" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F87" s="2">
+        <v>383001</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H87" s="2">
+        <v>480000</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R87" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S87" s="4"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B88" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C88" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F88" s="2">
+        <v>392001</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H88" s="2">
+        <v>14910</v>
+      </c>
+      <c r="I88" s="2">
+        <v>33089.630000000005</v>
+      </c>
+      <c r="J88" s="2">
+        <v>33089.630000000005</v>
+      </c>
+      <c r="K88" s="2">
+        <v>33089.630000000005</v>
+      </c>
+      <c r="L88" s="2">
+        <v>33089.630000000005</v>
+      </c>
+      <c r="M88" s="2">
+        <v>33089.630000000005</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R88" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S88" s="4"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B89" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C89" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F89" s="2">
+        <v>392006</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H89" s="2">
+        <v>393250</v>
+      </c>
+      <c r="I89" s="2">
+        <v>117997.81</v>
+      </c>
+      <c r="J89" s="2">
+        <v>117997.81</v>
+      </c>
+      <c r="K89" s="2">
+        <v>117997.81</v>
+      </c>
+      <c r="L89" s="2">
+        <v>117997.81</v>
+      </c>
+      <c r="M89" s="2">
+        <v>117997.81</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R89" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S89" s="4"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B90" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C90" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E90" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F90" s="2">
+        <v>398001</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" s="2">
+        <v>686391</v>
+      </c>
+      <c r="I90" s="2">
+        <v>701953</v>
+      </c>
+      <c r="J90" s="2">
+        <v>701953</v>
+      </c>
+      <c r="K90" s="2">
+        <v>701953</v>
+      </c>
+      <c r="L90" s="2">
+        <v>701953</v>
+      </c>
+      <c r="M90" s="2">
+        <v>701953</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R90" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S90" s="4"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B91" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C91" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D91" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E91" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F91" s="2">
+        <v>442001</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" s="2">
+        <v>154750</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R91" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S91" s="4"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B92" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C92" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D92" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E92" s="2">
+        <v>5100</v>
+      </c>
+      <c r="F92" s="2">
+        <v>515001</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>51805.599999999999</v>
+      </c>
+      <c r="J92" s="2">
+        <v>51805.599999999999</v>
+      </c>
+      <c r="K92" s="2">
+        <v>51805.599999999999</v>
+      </c>
+      <c r="L92" s="2">
+        <v>51805.599999999999</v>
+      </c>
+      <c r="M92" s="2">
+        <v>51805.599999999999</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R92" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S92" s="4"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B93" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C93" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E93" s="2">
+        <v>5300</v>
+      </c>
+      <c r="F93" s="2">
+        <v>531001</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>36482.58</v>
+      </c>
+      <c r="J93" s="2">
+        <v>36482.58</v>
+      </c>
+      <c r="K93" s="2">
+        <v>36482.58</v>
+      </c>
+      <c r="L93" s="2">
+        <v>36482.58</v>
+      </c>
+      <c r="M93" s="2">
+        <v>36482.58</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R93" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S93" s="4"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B94" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C94" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D94" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F94" s="2">
+        <v>569001</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" s="2">
+        <v>100000</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R94" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S94" s="4"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B95" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C95" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E95" s="2">
+        <v>5900</v>
+      </c>
+      <c r="F95" s="2">
+        <v>591001</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R95" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S95" s="4"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B96" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C96" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D96" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E96" s="2">
+        <v>5900</v>
+      </c>
+      <c r="F96" s="2">
+        <v>597001</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H96" s="2">
+        <v>90000</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>44120</v>
+      </c>
+      <c r="R96" s="7">
+        <v>44120</v>
+      </c>
+      <c r="S96" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -880,6 +6216,12 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1"/>
+    <hyperlink ref="O9" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O11:O96" r:id="rId4" display="http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_septiembre_2020/17.estadoanaliticopresupuestoegresos-obj-gto-cap%C2%A1tulo.pdf"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\PRESUPUESTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="134">
   <si>
     <t>46622</t>
   </si>
@@ -183,14 +183,251 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción v del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso</t>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Honorarios asimilables a salarios</t>
+  </si>
+  <si>
+    <t>Prima Vacacional y dominical</t>
+  </si>
+  <si>
+    <t>Gratificación Anual</t>
+  </si>
+  <si>
+    <t>Aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al Seguro de Cesantía en Edad Avanzada y Vejez</t>
+  </si>
+  <si>
+    <t>Aportaciones a FOVISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al SAR</t>
+  </si>
+  <si>
+    <t>Material de Oficina</t>
+  </si>
+  <si>
+    <t>Gastos de Oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de impresión y reproducción</t>
+  </si>
+  <si>
+    <t>Materiales y útiles consumibles para el procesamiento en equipos y bienes informáticos</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Material didáctico</t>
+  </si>
+  <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Utensilios para el servicio de administración</t>
+  </si>
+  <si>
+    <t>Productos químicos, farmacéuticos y de laboratorio</t>
+  </si>
+  <si>
+    <t>Productos minerales no metálicos</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Material Electrónico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Materiales complementarios</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicinas y Productos Farmacéuticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Materiales y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Artículos deportivos</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de mobiliario y equipo de administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores otros bienes muebles</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicios de Conducción de Señales</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de edificios</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Servicios de arquitectuta, ingeniería y actividades relacionadas</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería y fumigación</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Difusión por radio,, televisión y otros medios de mensajes comerciales para promover la venta de bienes y servicios</t>
+  </si>
+  <si>
+    <t>Pasajes terrestres</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de Ceremonial</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Congresos y convenciones</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Otros equipos</t>
+  </si>
+  <si>
+    <t>Recalendarización del Presupuesto</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2020/a_diciembre_2020/17.estadoanaliticopresupuestoegresos-obj-gto-capitulo.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -211,6 +448,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -230,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,40 +498,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -587,11 +845,11 @@
     <col min="12" max="12" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="81.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="72" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="66.140625" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -600,38 +858,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -692,7 +950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="24.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -752,27 +1010,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -833,40 +1091,4451 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="210" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>44206</v>
-      </c>
-      <c r="R8" s="7">
-        <v>44206</v>
-      </c>
-      <c r="S8" s="5" t="s">
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>113001</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="H8" s="3">
+        <v>15774119.140000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>18732157.760000002</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18732157.760000002</v>
+      </c>
+      <c r="K8" s="3">
+        <v>18732157.760000002</v>
+      </c>
+      <c r="L8" s="3">
+        <v>18732157.760000002</v>
+      </c>
+      <c r="M8" s="3">
+        <v>18732157.760000002</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R8" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>121001</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3">
+        <v>536833.81999999995</v>
+      </c>
+      <c r="I9" s="3">
+        <v>987006.9800000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>987006.9800000001</v>
+      </c>
+      <c r="K9" s="3">
+        <v>987006.9800000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>987006.9800000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>987006.9800000001</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R9" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>132001</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2938487</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2923800.3600000003</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2923800.3600000003</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2923800.3600000003</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2923800.3600000003</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2923800.3600000003</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R10" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="3">
+        <v>132002</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7412857.96</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12608476.329999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>12608476.329999998</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12608476.329999998</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12608476.329999998</v>
+      </c>
+      <c r="M11" s="3">
+        <v>12608476.329999998</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R11" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>141001</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1386743.76</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1853464.86</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1853464.86</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1853464.86</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1853464.86</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1853464.86</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R12" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="3">
+        <v>141004</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="3">
+        <v>441615.74</v>
+      </c>
+      <c r="I13" s="3">
+        <v>580496.55999999994</v>
+      </c>
+      <c r="J13" s="3">
+        <v>580496.55999999994</v>
+      </c>
+      <c r="K13" s="3">
+        <v>580496.55999999994</v>
+      </c>
+      <c r="L13" s="3">
+        <v>580496.55999999994</v>
+      </c>
+      <c r="M13" s="3">
+        <v>580496.55999999994</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R13" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>142001</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3">
+        <v>695458.64</v>
+      </c>
+      <c r="I14" s="3">
+        <v>914167.82</v>
+      </c>
+      <c r="J14" s="3">
+        <v>914167.82</v>
+      </c>
+      <c r="K14" s="3">
+        <v>914167.82</v>
+      </c>
+      <c r="L14" s="3">
+        <v>914167.82</v>
+      </c>
+      <c r="M14" s="3">
+        <v>914167.82</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R14" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>143001</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="3">
+        <v>278183.94</v>
+      </c>
+      <c r="I15" s="3">
+        <v>365667.13</v>
+      </c>
+      <c r="J15" s="3">
+        <v>365667.13</v>
+      </c>
+      <c r="K15" s="3">
+        <v>365667.13</v>
+      </c>
+      <c r="L15" s="3">
+        <v>365667.13</v>
+      </c>
+      <c r="M15" s="3">
+        <v>365667.13</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R15" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F16" s="3">
+        <v>211001</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="3">
+        <v>33628</v>
+      </c>
+      <c r="I16" s="3">
+        <v>434485.44999999995</v>
+      </c>
+      <c r="J16" s="3">
+        <v>434485.44999999995</v>
+      </c>
+      <c r="K16" s="3">
+        <v>434485.44999999995</v>
+      </c>
+      <c r="L16" s="3">
+        <v>434485.44999999995</v>
+      </c>
+      <c r="M16" s="3">
+        <v>434485.44999999995</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R16" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>211002</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6810</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R17" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>212001</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5999.84</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5999.84</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5999.84</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5999.84</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5999.84</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R18" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>214001</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="3">
+        <v>62260</v>
+      </c>
+      <c r="I19" s="3">
+        <v>507074.43000000005</v>
+      </c>
+      <c r="J19" s="3">
+        <v>507074.43000000005</v>
+      </c>
+      <c r="K19" s="3">
+        <v>507074.43000000005</v>
+      </c>
+      <c r="L19" s="3">
+        <v>507074.43000000005</v>
+      </c>
+      <c r="M19" s="3">
+        <v>507074.43000000005</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R19" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>216001</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>29717.87</v>
+      </c>
+      <c r="J20" s="3">
+        <v>29717.87</v>
+      </c>
+      <c r="K20" s="3">
+        <v>29717.87</v>
+      </c>
+      <c r="L20" s="3">
+        <v>29717.87</v>
+      </c>
+      <c r="M20" s="3">
+        <v>29717.87</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R20" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>217001</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>410767.92000000004</v>
+      </c>
+      <c r="J21" s="3">
+        <v>410767.92000000004</v>
+      </c>
+      <c r="K21" s="3">
+        <v>410767.92000000004</v>
+      </c>
+      <c r="L21" s="3">
+        <v>410767.92000000004</v>
+      </c>
+      <c r="M21" s="3">
+        <v>410767.92000000004</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R21" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>222001</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R22" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>223001</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="3">
+        <v>350</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R23" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>235001</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>13920</v>
+      </c>
+      <c r="J24" s="3">
+        <v>13920</v>
+      </c>
+      <c r="K24" s="3">
+        <v>13920</v>
+      </c>
+      <c r="L24" s="3">
+        <v>13920</v>
+      </c>
+      <c r="M24" s="3">
+        <v>13920</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R24" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="3">
+        <v>241001</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2940.6</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2940.6</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2940.6</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2940.6</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2940.6</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R25" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>242001</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R26" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C27" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>243001</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2999.76</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2999.76</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2999.76</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2999.76</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2999.76</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R27" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C28" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F28" s="3">
+        <v>244001</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7976.16</v>
+      </c>
+      <c r="J28" s="3">
+        <v>7976.16</v>
+      </c>
+      <c r="K28" s="3">
+        <v>7976.16</v>
+      </c>
+      <c r="L28" s="3">
+        <v>7976.16</v>
+      </c>
+      <c r="M28" s="3">
+        <v>7976.16</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R28" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C29" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F29" s="3">
+        <v>246001</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>174065.76</v>
+      </c>
+      <c r="J29" s="3">
+        <v>174065.76</v>
+      </c>
+      <c r="K29" s="3">
+        <v>174065.76</v>
+      </c>
+      <c r="L29" s="3">
+        <v>174065.76</v>
+      </c>
+      <c r="M29" s="3">
+        <v>174065.76</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R29" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C30" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F30" s="3">
+        <v>246002</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>39479.68</v>
+      </c>
+      <c r="J30" s="3">
+        <v>39479.68</v>
+      </c>
+      <c r="K30" s="3">
+        <v>39479.68</v>
+      </c>
+      <c r="L30" s="3">
+        <v>39479.68</v>
+      </c>
+      <c r="M30" s="3">
+        <v>39479.68</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R30" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C31" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F31" s="3">
+        <v>247001</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I31" s="3">
+        <v>44217.919999999998</v>
+      </c>
+      <c r="J31" s="3">
+        <v>44217.919999999998</v>
+      </c>
+      <c r="K31" s="3">
+        <v>44217.919999999998</v>
+      </c>
+      <c r="L31" s="3">
+        <v>44217.919999999998</v>
+      </c>
+      <c r="M31" s="3">
+        <v>44217.919999999998</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R31" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C32" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>248001</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R32" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C33" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>249001</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="3">
+        <v>46500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>6649.12</v>
+      </c>
+      <c r="J33" s="3">
+        <v>6649.12</v>
+      </c>
+      <c r="K33" s="3">
+        <v>6649.12</v>
+      </c>
+      <c r="L33" s="3">
+        <v>6649.12</v>
+      </c>
+      <c r="M33" s="3">
+        <v>6649.12</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R33" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C34" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F34" s="3">
+        <v>251001</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="3">
+        <v>11156.2</v>
+      </c>
+      <c r="J34" s="3">
+        <v>11156.2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>11156.2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>11156.2</v>
+      </c>
+      <c r="M34" s="3">
+        <v>11156.2</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R34" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C35" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>252001</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R35" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C36" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F36" s="3">
+        <v>253001</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10740</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R36" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B37" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C37" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F37" s="3">
+        <v>254001</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>23546.04</v>
+      </c>
+      <c r="J37" s="3">
+        <v>23546.04</v>
+      </c>
+      <c r="K37" s="3">
+        <v>23546.04</v>
+      </c>
+      <c r="L37" s="3">
+        <v>23546.04</v>
+      </c>
+      <c r="M37" s="3">
+        <v>23546.04</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R37" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B38" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C38" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F38" s="3">
+        <v>255001</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>59688.73</v>
+      </c>
+      <c r="J38" s="3">
+        <v>59688.73</v>
+      </c>
+      <c r="K38" s="3">
+        <v>59688.73</v>
+      </c>
+      <c r="L38" s="3">
+        <v>59688.73</v>
+      </c>
+      <c r="M38" s="3">
+        <v>59688.73</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R38" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F39" s="3">
+        <v>256001</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R39" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B40" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C40" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F40" s="3">
+        <v>261001</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="3">
+        <v>78400</v>
+      </c>
+      <c r="I40" s="3">
+        <v>259634.53</v>
+      </c>
+      <c r="J40" s="3">
+        <v>259634.53</v>
+      </c>
+      <c r="K40" s="3">
+        <v>259634.53</v>
+      </c>
+      <c r="L40" s="3">
+        <v>259634.53</v>
+      </c>
+      <c r="M40" s="3">
+        <v>259634.53</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R40" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C41" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>273001</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R41" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C42" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>291001</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>53981</v>
+      </c>
+      <c r="J42" s="3">
+        <v>53981</v>
+      </c>
+      <c r="K42" s="3">
+        <v>53981</v>
+      </c>
+      <c r="L42" s="3">
+        <v>53981</v>
+      </c>
+      <c r="M42" s="3">
+        <v>53981</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R42" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C43" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>292001</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5974</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5974</v>
+      </c>
+      <c r="K43" s="3">
+        <v>5974</v>
+      </c>
+      <c r="L43" s="3">
+        <v>5974</v>
+      </c>
+      <c r="M43" s="3">
+        <v>5974</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R43" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C44" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>293001</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R44" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C45" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>294001</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>24598.959999999999</v>
+      </c>
+      <c r="J45" s="3">
+        <v>24598.959999999999</v>
+      </c>
+      <c r="K45" s="3">
+        <v>24598.959999999999</v>
+      </c>
+      <c r="L45" s="3">
+        <v>24598.959999999999</v>
+      </c>
+      <c r="M45" s="3">
+        <v>24598.959999999999</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R45" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C46" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>295001</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="M46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R46" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C47" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>296001</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>10742.710000000001</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10742.710000000001</v>
+      </c>
+      <c r="K47" s="3">
+        <v>10742.710000000001</v>
+      </c>
+      <c r="L47" s="3">
+        <v>10742.710000000001</v>
+      </c>
+      <c r="M47" s="3">
+        <v>10742.710000000001</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R47" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B48" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C48" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>298001</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>20168.64</v>
+      </c>
+      <c r="J48" s="3">
+        <v>20168.64</v>
+      </c>
+      <c r="K48" s="3">
+        <v>20168.64</v>
+      </c>
+      <c r="L48" s="3">
+        <v>20168.64</v>
+      </c>
+      <c r="M48" s="3">
+        <v>20168.64</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R48" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B49" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C49" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>299001</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="L49" s="3">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="M49" s="3">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R49" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C50" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F50" s="3">
+        <v>311001</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="3">
+        <v>606300</v>
+      </c>
+      <c r="I50" s="3">
+        <v>290780</v>
+      </c>
+      <c r="J50" s="3">
+        <v>290780</v>
+      </c>
+      <c r="K50" s="3">
+        <v>290780</v>
+      </c>
+      <c r="L50" s="3">
+        <v>290780</v>
+      </c>
+      <c r="M50" s="3">
+        <v>290780</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R50" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C51" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F51" s="3">
+        <v>313001</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="3">
+        <v>20160</v>
+      </c>
+      <c r="I51" s="3">
+        <v>10729.639999999998</v>
+      </c>
+      <c r="J51" s="3">
+        <v>10729.639999999998</v>
+      </c>
+      <c r="K51" s="3">
+        <v>10729.639999999998</v>
+      </c>
+      <c r="L51" s="3">
+        <v>10729.639999999998</v>
+      </c>
+      <c r="M51" s="3">
+        <v>10729.639999999998</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R51" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C52" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>314001</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="3">
+        <v>276000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>182539</v>
+      </c>
+      <c r="J52" s="3">
+        <v>182539</v>
+      </c>
+      <c r="K52" s="3">
+        <v>182539</v>
+      </c>
+      <c r="L52" s="3">
+        <v>182539</v>
+      </c>
+      <c r="M52" s="3">
+        <v>182539</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R52" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C53" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F53" s="3">
+        <v>317001</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>51040</v>
+      </c>
+      <c r="J53" s="3">
+        <v>51040</v>
+      </c>
+      <c r="K53" s="3">
+        <v>51040</v>
+      </c>
+      <c r="L53" s="3">
+        <v>51040</v>
+      </c>
+      <c r="M53" s="3">
+        <v>51040</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R53" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C54" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>318001</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1570</v>
+      </c>
+      <c r="I54" s="3">
+        <v>417.49</v>
+      </c>
+      <c r="J54" s="3">
+        <v>417.49</v>
+      </c>
+      <c r="K54" s="3">
+        <v>417.49</v>
+      </c>
+      <c r="L54" s="3">
+        <v>417.49</v>
+      </c>
+      <c r="M54" s="3">
+        <v>417.49</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R54" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C55" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F55" s="3">
+        <v>322001</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="3">
+        <v>83520</v>
+      </c>
+      <c r="I55" s="3">
+        <v>55680</v>
+      </c>
+      <c r="J55" s="3">
+        <v>55680</v>
+      </c>
+      <c r="K55" s="3">
+        <v>55680</v>
+      </c>
+      <c r="L55" s="3">
+        <v>55680</v>
+      </c>
+      <c r="M55" s="3">
+        <v>55680</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R55" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C56" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F56" s="3">
+        <v>323002</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="3">
+        <v>22500</v>
+      </c>
+      <c r="I56" s="3">
+        <v>9061.84</v>
+      </c>
+      <c r="J56" s="3">
+        <v>9061.84</v>
+      </c>
+      <c r="K56" s="3">
+        <v>9061.84</v>
+      </c>
+      <c r="L56" s="3">
+        <v>9061.84</v>
+      </c>
+      <c r="M56" s="3">
+        <v>9061.84</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R56" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C57" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>326001</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R57" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C58" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>331002</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="3">
+        <v>38400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>191760</v>
+      </c>
+      <c r="J58" s="3">
+        <v>191760</v>
+      </c>
+      <c r="K58" s="3">
+        <v>191760</v>
+      </c>
+      <c r="L58" s="3">
+        <v>191760</v>
+      </c>
+      <c r="M58" s="3">
+        <v>101760</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R58" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C59" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>331003</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1162820</v>
+      </c>
+      <c r="I59" s="3">
+        <v>363515.95999999996</v>
+      </c>
+      <c r="J59" s="3">
+        <v>363515.95999999996</v>
+      </c>
+      <c r="K59" s="3">
+        <v>363515.95999999996</v>
+      </c>
+      <c r="L59" s="3">
+        <v>363515.95999999996</v>
+      </c>
+      <c r="M59" s="3">
+        <v>363515.95999999996</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R59" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B60" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C60" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>332001</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5997.2</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5997.2</v>
+      </c>
+      <c r="K60" s="3">
+        <v>5997.2</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5997.2</v>
+      </c>
+      <c r="M60" s="3">
+        <v>5997.2</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R60" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C61" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>334001</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>140149.5</v>
+      </c>
+      <c r="J61" s="3">
+        <v>140149.5</v>
+      </c>
+      <c r="K61" s="3">
+        <v>140149.5</v>
+      </c>
+      <c r="L61" s="3">
+        <v>140149.5</v>
+      </c>
+      <c r="M61" s="3">
+        <v>140149.5</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R61" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C62" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>336001</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="3">
+        <v>171417</v>
+      </c>
+      <c r="I62" s="3">
+        <v>82555.3</v>
+      </c>
+      <c r="J62" s="3">
+        <v>82555.3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>82555.3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>82555.3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>82555.3</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R62" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B63" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C63" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F63" s="3">
+        <v>338001</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H63" s="3">
+        <v>442800</v>
+      </c>
+      <c r="I63" s="3">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="J63" s="3">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="K63" s="3">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="L63" s="3">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="M63" s="3">
+        <v>429412.80000000005</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R63" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B64" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C64" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D64" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F64" s="3">
+        <v>341001</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I64" s="3">
+        <v>10092</v>
+      </c>
+      <c r="J64" s="3">
+        <v>10092</v>
+      </c>
+      <c r="K64" s="3">
+        <v>10092</v>
+      </c>
+      <c r="L64" s="3">
+        <v>10092</v>
+      </c>
+      <c r="M64" s="3">
+        <v>10092</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R64" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B65" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C65" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F65" s="3">
+        <v>345001</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R65" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B66" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C66" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>351001</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="3">
+        <v>66600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>16043.96</v>
+      </c>
+      <c r="J66" s="3">
+        <v>16043.96</v>
+      </c>
+      <c r="K66" s="3">
+        <v>16043.96</v>
+      </c>
+      <c r="L66" s="3">
+        <v>16043.96</v>
+      </c>
+      <c r="M66" s="3">
+        <v>16043.96</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R66" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C67" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D67" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F67" s="3">
+        <v>352001</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R67" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C68" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D68" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F68" s="3">
+        <v>353001</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H68" s="3">
+        <v>6432</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1740</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1740</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1740</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1740</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1740</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R68" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B69" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C69" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F69" s="3">
+        <v>354001</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I69" s="3">
+        <v>28069.97</v>
+      </c>
+      <c r="J69" s="3">
+        <v>28069.97</v>
+      </c>
+      <c r="K69" s="3">
+        <v>28069.97</v>
+      </c>
+      <c r="L69" s="3">
+        <v>28069.97</v>
+      </c>
+      <c r="M69" s="3">
+        <v>28069.97</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R69" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B70" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C70" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D70" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F70" s="3">
+        <v>355001</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>52237.279999999999</v>
+      </c>
+      <c r="J70" s="3">
+        <v>52237.279999999999</v>
+      </c>
+      <c r="K70" s="3">
+        <v>52237.279999999999</v>
+      </c>
+      <c r="L70" s="3">
+        <v>52237.279999999999</v>
+      </c>
+      <c r="M70" s="3">
+        <v>56965.279999999999</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R70" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B71" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C71" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F71" s="3">
+        <v>357001</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H71" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I71" s="3">
+        <v>9998.92</v>
+      </c>
+      <c r="J71" s="3">
+        <v>9998.92</v>
+      </c>
+      <c r="K71" s="3">
+        <v>9998.92</v>
+      </c>
+      <c r="L71" s="3">
+        <v>9998.92</v>
+      </c>
+      <c r="M71" s="3">
+        <v>9998.92</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R71" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B72" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C72" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D72" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>358001</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H72" s="3">
+        <v>867750</v>
+      </c>
+      <c r="I72" s="3">
+        <v>142165.38</v>
+      </c>
+      <c r="J72" s="3">
+        <v>142165.38</v>
+      </c>
+      <c r="K72" s="3">
+        <v>142165.38</v>
+      </c>
+      <c r="L72" s="3">
+        <v>142165.38</v>
+      </c>
+      <c r="M72" s="3">
+        <v>142165.38</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R72" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B73" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C73" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D73" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F73" s="3">
+        <v>359001</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H73" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R73" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B74" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C74" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E74" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F74" s="3">
+        <v>361002</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H74" s="3">
+        <v>107100</v>
+      </c>
+      <c r="I74" s="3">
+        <v>25868.42</v>
+      </c>
+      <c r="J74" s="3">
+        <v>25868.42</v>
+      </c>
+      <c r="K74" s="3">
+        <v>25868.42</v>
+      </c>
+      <c r="L74" s="3">
+        <v>25868.42</v>
+      </c>
+      <c r="M74" s="3">
+        <v>25868.42</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R74" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B75" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C75" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F75" s="3">
+        <v>362001</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H75" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R75" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B76" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C76" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>372001</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H76" s="3">
+        <v>21980</v>
+      </c>
+      <c r="I76" s="3">
+        <v>300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>300</v>
+      </c>
+      <c r="L76" s="3">
+        <v>300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>300</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R76" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B77" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C77" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D77" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F77" s="3">
+        <v>375001</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I77" s="3">
+        <v>2792.5</v>
+      </c>
+      <c r="J77" s="3">
+        <v>2792.5</v>
+      </c>
+      <c r="K77" s="3">
+        <v>2792.5</v>
+      </c>
+      <c r="L77" s="3">
+        <v>2792.5</v>
+      </c>
+      <c r="M77" s="3">
+        <v>2792.5</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R77" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B78" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C78" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F78" s="3">
+        <v>381001</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H78" s="3">
+        <v>139510</v>
+      </c>
+      <c r="I78" s="3">
+        <v>155573.51</v>
+      </c>
+      <c r="J78" s="3">
+        <v>155573.51</v>
+      </c>
+      <c r="K78" s="3">
+        <v>155573.51</v>
+      </c>
+      <c r="L78" s="3">
+        <v>155573.51</v>
+      </c>
+      <c r="M78" s="3">
+        <v>154611.22</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R78" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B79" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C79" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F79" s="3">
+        <v>382001</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" s="3">
+        <v>62410</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1387</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1387</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1387</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1387</v>
+      </c>
+      <c r="M79" s="3">
+        <v>1387</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R79" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S79" s="2"/>
+    </row>
+    <row r="80" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B80" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C80" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F80" s="3">
+        <v>383001</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H80" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R80" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B81" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C81" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>392001</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3246708</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1844868.88</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1844868.88</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1844868.88</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1844868.88</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1844868.88</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R81" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S81" s="2"/>
+    </row>
+    <row r="82" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B82" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C82" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D82" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E82" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F82" s="3">
+        <v>392006</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H82" s="3">
+        <v>167410</v>
+      </c>
+      <c r="I82" s="3">
+        <v>31441.22</v>
+      </c>
+      <c r="J82" s="3">
+        <v>31441.22</v>
+      </c>
+      <c r="K82" s="3">
+        <v>31441.22</v>
+      </c>
+      <c r="L82" s="3">
+        <v>31441.22</v>
+      </c>
+      <c r="M82" s="3">
+        <v>31441.22</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R82" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S82" s="2"/>
+    </row>
+    <row r="83" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B83" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C83" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>398001</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1055775</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1155500.51</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1155500.51</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1155500.51</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1155500.51</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1155500.51</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R83" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B84" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C84" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D84" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E84" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F84" s="3">
+        <v>442001</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" s="3">
+        <v>241025</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R84" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S84" s="2"/>
+    </row>
+    <row r="85" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B85" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C85" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E85" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F85" s="3">
+        <v>569001</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>55100</v>
+      </c>
+      <c r="J85" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K85" s="3">
+        <v>55100</v>
+      </c>
+      <c r="L85" s="3">
+        <v>55100</v>
+      </c>
+      <c r="M85" s="3">
+        <v>55100</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>44206</v>
+      </c>
+      <c r="R85" s="5">
+        <v>44206</v>
+      </c>
+      <c r="S85" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -878,7 +5547,86 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1"/>
+    <hyperlink ref="O9" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O11" r:id="rId4"/>
+    <hyperlink ref="O12" r:id="rId5"/>
+    <hyperlink ref="O13" r:id="rId6"/>
+    <hyperlink ref="O14" r:id="rId7"/>
+    <hyperlink ref="O15" r:id="rId8"/>
+    <hyperlink ref="O16" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
+    <hyperlink ref="O18" r:id="rId11"/>
+    <hyperlink ref="O19" r:id="rId12"/>
+    <hyperlink ref="O20" r:id="rId13"/>
+    <hyperlink ref="O21" r:id="rId14"/>
+    <hyperlink ref="O22" r:id="rId15"/>
+    <hyperlink ref="O23" r:id="rId16"/>
+    <hyperlink ref="O24" r:id="rId17"/>
+    <hyperlink ref="O25" r:id="rId18"/>
+    <hyperlink ref="O26" r:id="rId19"/>
+    <hyperlink ref="O27" r:id="rId20"/>
+    <hyperlink ref="O28" r:id="rId21"/>
+    <hyperlink ref="O29" r:id="rId22"/>
+    <hyperlink ref="O30" r:id="rId23"/>
+    <hyperlink ref="O31" r:id="rId24"/>
+    <hyperlink ref="O32" r:id="rId25"/>
+    <hyperlink ref="O33" r:id="rId26"/>
+    <hyperlink ref="O34" r:id="rId27"/>
+    <hyperlink ref="O35" r:id="rId28"/>
+    <hyperlink ref="O36" r:id="rId29"/>
+    <hyperlink ref="O37" r:id="rId30"/>
+    <hyperlink ref="O38" r:id="rId31"/>
+    <hyperlink ref="O39" r:id="rId32"/>
+    <hyperlink ref="O40" r:id="rId33"/>
+    <hyperlink ref="O41" r:id="rId34"/>
+    <hyperlink ref="O42" r:id="rId35"/>
+    <hyperlink ref="O43" r:id="rId36"/>
+    <hyperlink ref="O44" r:id="rId37"/>
+    <hyperlink ref="O45" r:id="rId38"/>
+    <hyperlink ref="O46" r:id="rId39"/>
+    <hyperlink ref="O47" r:id="rId40"/>
+    <hyperlink ref="O48" r:id="rId41"/>
+    <hyperlink ref="O49" r:id="rId42"/>
+    <hyperlink ref="O50" r:id="rId43"/>
+    <hyperlink ref="O51" r:id="rId44"/>
+    <hyperlink ref="O52" r:id="rId45"/>
+    <hyperlink ref="O53" r:id="rId46"/>
+    <hyperlink ref="O54" r:id="rId47"/>
+    <hyperlink ref="O55" r:id="rId48"/>
+    <hyperlink ref="O56" r:id="rId49"/>
+    <hyperlink ref="O57" r:id="rId50"/>
+    <hyperlink ref="O58" r:id="rId51"/>
+    <hyperlink ref="O59" r:id="rId52"/>
+    <hyperlink ref="O60" r:id="rId53"/>
+    <hyperlink ref="O61" r:id="rId54"/>
+    <hyperlink ref="O62" r:id="rId55"/>
+    <hyperlink ref="O63" r:id="rId56"/>
+    <hyperlink ref="O64" r:id="rId57"/>
+    <hyperlink ref="O65" r:id="rId58"/>
+    <hyperlink ref="O66" r:id="rId59"/>
+    <hyperlink ref="O67" r:id="rId60"/>
+    <hyperlink ref="O68" r:id="rId61"/>
+    <hyperlink ref="O69" r:id="rId62"/>
+    <hyperlink ref="O70" r:id="rId63"/>
+    <hyperlink ref="O71" r:id="rId64"/>
+    <hyperlink ref="O72" r:id="rId65"/>
+    <hyperlink ref="O73" r:id="rId66"/>
+    <hyperlink ref="O74" r:id="rId67"/>
+    <hyperlink ref="O75" r:id="rId68"/>
+    <hyperlink ref="O76" r:id="rId69"/>
+    <hyperlink ref="O77" r:id="rId70"/>
+    <hyperlink ref="O78" r:id="rId71"/>
+    <hyperlink ref="O79" r:id="rId72"/>
+    <hyperlink ref="O80" r:id="rId73"/>
+    <hyperlink ref="O81" r:id="rId74"/>
+    <hyperlink ref="O82" r:id="rId75"/>
+    <hyperlink ref="O83" r:id="rId76"/>
+    <hyperlink ref="O84" r:id="rId77"/>
+    <hyperlink ref="O85" r:id="rId78"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 1ER\UPP Cierre Presupuestal Ene-Marz-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="120">
   <si>
     <t>46622</t>
   </si>
@@ -183,14 +183,209 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de abril del año en curso</t>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Recalendarización del Presupuesto</t>
+  </si>
+  <si>
+    <t>Honorarios asimilables a salarios</t>
+  </si>
+  <si>
+    <t>Prima Vacacional y dominical</t>
+  </si>
+  <si>
+    <t>Gratificación Anual</t>
+  </si>
+  <si>
+    <t>Aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al Seguro de Cesantía en Edad Avanzada y Vejez</t>
+  </si>
+  <si>
+    <t>Aportaciones a FOVISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al SAR</t>
+  </si>
+  <si>
+    <t>Material de Oficina</t>
+  </si>
+  <si>
+    <t>Gastos de Oficina</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicinas y Productos Farmacéuticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicios de Conducción de Señales</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de edificios</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería y fumigación</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Pasajes terrestres</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Licencias informáticas e intelectuales</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_marzo_2021/17.estadoanaliticopresupuestoegresos-obj-gto-capitulo.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -211,6 +406,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -230,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,16 +456,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -272,16 +488,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="O62" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,11 +802,11 @@
     <col min="12" max="12" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="81.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="91" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="73.140625" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -595,38 +815,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -747,27 +967,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -828,40 +1048,3653 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="R8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="S8" s="9" t="s">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>113001</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H8" s="2">
+        <v>18865218</v>
+      </c>
+      <c r="I8" s="2">
+        <v>18677713.449999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>18677713.449999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>18677713.449999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>18677713.449999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18677713.449999999</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="2">
+        <v>121001</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1153812</v>
+      </c>
+      <c r="I9" s="2">
+        <v>989575.03</v>
+      </c>
+      <c r="J9" s="2">
+        <v>989575.03</v>
+      </c>
+      <c r="K9" s="2">
+        <v>989575.03</v>
+      </c>
+      <c r="L9" s="2">
+        <v>989575.03</v>
+      </c>
+      <c r="M9" s="2">
+        <v>989575.03</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R9" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="2">
+        <v>132001</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2">
+        <v>16700</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8000.75</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8000.75</v>
+      </c>
+      <c r="K10" s="2">
+        <v>8000.75</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8000.75</v>
+      </c>
+      <c r="M10" s="2">
+        <v>8000.75</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="2">
+        <v>132002</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2">
+        <v>33999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>45005.31</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45005.31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>45005.31</v>
+      </c>
+      <c r="L11" s="2">
+        <v>45005.31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>45005.31</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="2">
+        <v>141001</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1856128</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1856722.28</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1856722.28</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1856722.28</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1856722.28</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1856722.28</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="2">
+        <v>141004</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2">
+        <v>591094</v>
+      </c>
+      <c r="I13" s="2">
+        <v>581411.46</v>
+      </c>
+      <c r="J13" s="2">
+        <v>581411.46</v>
+      </c>
+      <c r="K13" s="2">
+        <v>581411.46</v>
+      </c>
+      <c r="L13" s="2">
+        <v>581411.46</v>
+      </c>
+      <c r="M13" s="2">
+        <v>581411.46</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="2">
+        <v>142001</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2">
+        <v>930856</v>
+      </c>
+      <c r="I14" s="2">
+        <v>915608.6</v>
+      </c>
+      <c r="J14" s="2">
+        <v>915608.6</v>
+      </c>
+      <c r="K14" s="2">
+        <v>915608.6</v>
+      </c>
+      <c r="L14" s="2">
+        <v>915608.6</v>
+      </c>
+      <c r="M14" s="2">
+        <v>915608.6</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R14" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="2">
+        <v>143001</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2">
+        <v>403342</v>
+      </c>
+      <c r="I15" s="2">
+        <v>366243.44999999995</v>
+      </c>
+      <c r="J15" s="2">
+        <v>366243.44999999995</v>
+      </c>
+      <c r="K15" s="2">
+        <v>366243.44999999995</v>
+      </c>
+      <c r="L15" s="2">
+        <v>366243.44999999995</v>
+      </c>
+      <c r="M15" s="2">
+        <v>366243.44999999995</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R15" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F16" s="2">
+        <v>211001</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R16" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>211002</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R17" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="2">
+        <v>216001</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="J18" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="K18" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="L18" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="M18" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R18" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2200</v>
+      </c>
+      <c r="F19" s="2">
+        <v>222001</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44837</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44800</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44800</v>
+      </c>
+      <c r="K19" s="2">
+        <v>44800</v>
+      </c>
+      <c r="L19" s="2">
+        <v>44800</v>
+      </c>
+      <c r="M19" s="2">
+        <v>29800</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R19" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="2">
+        <v>242001</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="J20" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="K20" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="L20" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="M20" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R20" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="2">
+        <v>243001</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R21" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F22" s="2">
+        <v>244001</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="J22" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="K22" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="L22" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="M22" s="2">
+        <v>999.92</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R22" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F23" s="2">
+        <v>246001</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>14991.84</v>
+      </c>
+      <c r="J23" s="2">
+        <v>14991.84</v>
+      </c>
+      <c r="K23" s="2">
+        <v>14991.84</v>
+      </c>
+      <c r="L23" s="2">
+        <v>14991.84</v>
+      </c>
+      <c r="M23" s="2">
+        <v>14991.84</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R23" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="2">
+        <v>247001</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R24" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="2">
+        <v>249001</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9986.44</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9986.44</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9986.44</v>
+      </c>
+      <c r="L25" s="2">
+        <v>9986.44</v>
+      </c>
+      <c r="M25" s="2">
+        <v>9986.44</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R25" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="2">
+        <v>251001</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="2">
+        <v>112500</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R26" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="2">
+        <v>252001</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="2">
+        <v>500</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R27" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F28" s="2">
+        <v>253001</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R28" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F29" s="2">
+        <v>254001</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R29" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F30" s="2">
+        <v>256001</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1999.14</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1999.14</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1999.14</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1999.14</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1999.14</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R30" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F31" s="2">
+        <v>259001</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="2">
+        <v>500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R31" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2600</v>
+      </c>
+      <c r="F32" s="2">
+        <v>261001</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>788</v>
+      </c>
+      <c r="J32" s="2">
+        <v>788</v>
+      </c>
+      <c r="K32" s="2">
+        <v>788</v>
+      </c>
+      <c r="L32" s="2">
+        <v>788</v>
+      </c>
+      <c r="M32" s="2">
+        <v>788</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R32" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F33" s="2">
+        <v>271001</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R33" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F34" s="2">
+        <v>291001</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1999.84</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R34" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F35" s="2">
+        <v>292001</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R35" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F36" s="2">
+        <v>294001</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R36" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F37" s="2">
+        <v>295001</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R37" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F38" s="2">
+        <v>296001</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R38" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F39" s="2">
+        <v>298001</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1990.56</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1990.56</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1990.56</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1990.56</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1990.56</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R39" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F40" s="2">
+        <v>311001</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="2">
+        <v>385500</v>
+      </c>
+      <c r="I40" s="2">
+        <v>218258</v>
+      </c>
+      <c r="J40" s="2">
+        <v>218258</v>
+      </c>
+      <c r="K40" s="2">
+        <v>218258</v>
+      </c>
+      <c r="L40" s="2">
+        <v>218258</v>
+      </c>
+      <c r="M40" s="2">
+        <v>218258</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R40" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F41" s="2">
+        <v>313001</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="2">
+        <v>21000</v>
+      </c>
+      <c r="I41" s="2">
+        <v>4153.7800000000007</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4153.7800000000007</v>
+      </c>
+      <c r="K41" s="2">
+        <v>4153.7800000000007</v>
+      </c>
+      <c r="L41" s="2">
+        <v>4153.7800000000007</v>
+      </c>
+      <c r="M41" s="2">
+        <v>4153.7800000000007</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R41" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F42" s="2">
+        <v>314001</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="2">
+        <v>220800</v>
+      </c>
+      <c r="I42" s="2">
+        <v>182619</v>
+      </c>
+      <c r="J42" s="2">
+        <v>182619</v>
+      </c>
+      <c r="K42" s="2">
+        <v>182619</v>
+      </c>
+      <c r="L42" s="2">
+        <v>182619</v>
+      </c>
+      <c r="M42" s="2">
+        <v>182619</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R42" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F43" s="2">
+        <v>317001</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="2">
+        <v>15250</v>
+      </c>
+      <c r="I43" s="2">
+        <v>11600</v>
+      </c>
+      <c r="J43" s="2">
+        <v>11600</v>
+      </c>
+      <c r="K43" s="2">
+        <v>11600</v>
+      </c>
+      <c r="L43" s="2">
+        <v>11600</v>
+      </c>
+      <c r="M43" s="2">
+        <v>11600</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R43" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F44" s="2">
+        <v>318001</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1570</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1726.81</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1726.81</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1726.81</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1726.81</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1726.81</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R44" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="2">
+        <v>322001</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="2">
+        <v>97440</v>
+      </c>
+      <c r="I45" s="2">
+        <v>55700</v>
+      </c>
+      <c r="J45" s="2">
+        <v>55700</v>
+      </c>
+      <c r="K45" s="2">
+        <v>55700</v>
+      </c>
+      <c r="L45" s="2">
+        <v>55700</v>
+      </c>
+      <c r="M45" s="2">
+        <v>37120</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R45" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F46" s="2">
+        <v>323002</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="2">
+        <v>11250</v>
+      </c>
+      <c r="I46" s="2">
+        <v>9010.880000000001</v>
+      </c>
+      <c r="J46" s="2">
+        <v>9010.880000000001</v>
+      </c>
+      <c r="K46" s="2">
+        <v>9010.880000000001</v>
+      </c>
+      <c r="L46" s="2">
+        <v>9010.880000000001</v>
+      </c>
+      <c r="M46" s="2">
+        <v>6250.88</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R46" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F47" s="2">
+        <v>326001</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="2">
+        <v>8000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R47" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F48" s="2">
+        <v>331002</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="2">
+        <v>100500</v>
+      </c>
+      <c r="I48" s="2">
+        <v>38280</v>
+      </c>
+      <c r="J48" s="2">
+        <v>38280</v>
+      </c>
+      <c r="K48" s="2">
+        <v>38280</v>
+      </c>
+      <c r="L48" s="2">
+        <v>38280</v>
+      </c>
+      <c r="M48" s="2">
+        <v>38280</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R48" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F49" s="2">
+        <v>331003</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>30000</v>
+      </c>
+      <c r="J49" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K49" s="2">
+        <v>30000</v>
+      </c>
+      <c r="L49" s="2">
+        <v>30000</v>
+      </c>
+      <c r="M49" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R49" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F50" s="2">
+        <v>334001</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="2">
+        <v>39376</v>
+      </c>
+      <c r="I50" s="2">
+        <v>39376</v>
+      </c>
+      <c r="J50" s="2">
+        <v>39376</v>
+      </c>
+      <c r="K50" s="2">
+        <v>39376</v>
+      </c>
+      <c r="L50" s="2">
+        <v>39376</v>
+      </c>
+      <c r="M50" s="2">
+        <v>39376</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R50" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F51" s="2">
+        <v>336001</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="2">
+        <v>24000</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1392</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1392</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1392</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1392</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R51" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F52" s="2">
+        <v>338001</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="2">
+        <v>354999</v>
+      </c>
+      <c r="I52" s="2">
+        <v>438441.28</v>
+      </c>
+      <c r="J52" s="2">
+        <v>438441.28</v>
+      </c>
+      <c r="K52" s="2">
+        <v>438441.28</v>
+      </c>
+      <c r="L52" s="2">
+        <v>438441.28</v>
+      </c>
+      <c r="M52" s="2">
+        <v>290789.44</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R52" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F53" s="2">
+        <v>341001</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1401.28</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1401.28</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1401.28</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1401.28</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1401.28</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R53" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="2">
+        <v>345001</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="2">
+        <v>345700</v>
+      </c>
+      <c r="I54" s="2">
+        <v>112641.07</v>
+      </c>
+      <c r="J54" s="2">
+        <v>112641.07</v>
+      </c>
+      <c r="K54" s="2">
+        <v>112641.07</v>
+      </c>
+      <c r="L54" s="2">
+        <v>112641.07</v>
+      </c>
+      <c r="M54" s="2">
+        <v>112641.07</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R54" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F55" s="2">
+        <v>351001</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="2">
+        <v>24000</v>
+      </c>
+      <c r="I55" s="2">
+        <v>23986.48</v>
+      </c>
+      <c r="J55" s="2">
+        <v>23986.48</v>
+      </c>
+      <c r="K55" s="2">
+        <v>23986.48</v>
+      </c>
+      <c r="L55" s="2">
+        <v>23986.48</v>
+      </c>
+      <c r="M55" s="2">
+        <v>11993.24</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R55" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F56" s="2">
+        <v>352001</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="2">
+        <v>16000</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R56" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F57" s="2">
+        <v>353001</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1856</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1856</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1856</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1856</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1856</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R57" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F58" s="2">
+        <v>354001</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R58" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="2">
+        <v>355001</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I59" s="2">
+        <v>10611.68</v>
+      </c>
+      <c r="J59" s="2">
+        <v>10611.68</v>
+      </c>
+      <c r="K59" s="2">
+        <v>10611.68</v>
+      </c>
+      <c r="L59" s="2">
+        <v>10611.68</v>
+      </c>
+      <c r="M59" s="2">
+        <v>10611.68</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R59" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="2">
+        <v>357001</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5706</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2560</v>
+      </c>
+      <c r="J60" s="2">
+        <v>2560</v>
+      </c>
+      <c r="K60" s="2">
+        <v>2560</v>
+      </c>
+      <c r="L60" s="2">
+        <v>2560</v>
+      </c>
+      <c r="M60" s="2">
+        <v>2560</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R60" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F61" s="2">
+        <v>358001</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R61" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F62" s="2">
+        <v>359001</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="2">
+        <v>7150</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R62" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3600</v>
+      </c>
+      <c r="F63" s="2">
+        <v>361002</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" s="2">
+        <v>37500</v>
+      </c>
+      <c r="I63" s="2">
+        <v>17476</v>
+      </c>
+      <c r="J63" s="2">
+        <v>17476</v>
+      </c>
+      <c r="K63" s="2">
+        <v>17476</v>
+      </c>
+      <c r="L63" s="2">
+        <v>17476</v>
+      </c>
+      <c r="M63" s="2">
+        <v>17476</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R63" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F64" s="2">
+        <v>372001</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" s="2">
+        <v>13500</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R64" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F65" s="2">
+        <v>375001</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="2">
+        <v>23000</v>
+      </c>
+      <c r="I65" s="2">
+        <v>8376</v>
+      </c>
+      <c r="J65" s="2">
+        <v>8376</v>
+      </c>
+      <c r="K65" s="2">
+        <v>8376</v>
+      </c>
+      <c r="L65" s="2">
+        <v>8376</v>
+      </c>
+      <c r="M65" s="2">
+        <v>8376</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R65" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="2">
+        <v>382001</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2845.49</v>
+      </c>
+      <c r="J66" s="2">
+        <v>2845.49</v>
+      </c>
+      <c r="K66" s="2">
+        <v>2845.49</v>
+      </c>
+      <c r="L66" s="2">
+        <v>2845.49</v>
+      </c>
+      <c r="M66" s="2">
+        <v>2845.49</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R66" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F67" s="2">
+        <v>392001</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="2">
+        <v>7140</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1563500.9</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1563500.9</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1563500.9</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1563500.9</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1563500.9</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R67" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F68" s="2">
+        <v>392006</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="2">
+        <v>150000</v>
+      </c>
+      <c r="I68" s="2">
+        <v>13031.5</v>
+      </c>
+      <c r="J68" s="2">
+        <v>13031.5</v>
+      </c>
+      <c r="K68" s="2">
+        <v>13031.5</v>
+      </c>
+      <c r="L68" s="2">
+        <v>13031.5</v>
+      </c>
+      <c r="M68" s="2">
+        <v>13031.5</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R68" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F69" s="2">
+        <v>398001</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="2">
+        <v>602091</v>
+      </c>
+      <c r="I69" s="2">
+        <v>591729.77</v>
+      </c>
+      <c r="J69" s="2">
+        <v>591729.77</v>
+      </c>
+      <c r="K69" s="2">
+        <v>591729.77</v>
+      </c>
+      <c r="L69" s="2">
+        <v>591729.77</v>
+      </c>
+      <c r="M69" s="2">
+        <v>591729.77</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R69" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E70" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F70" s="2">
+        <v>442001</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H70" s="2">
+        <v>22400</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R70" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D71" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5900</v>
+      </c>
+      <c r="F71" s="2">
+        <v>597001</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="2">
+        <v>130000</v>
+      </c>
+      <c r="I71" s="2">
+        <v>130000</v>
+      </c>
+      <c r="J71" s="2">
+        <v>130000</v>
+      </c>
+      <c r="K71" s="2">
+        <v>130000</v>
+      </c>
+      <c r="L71" s="2">
+        <v>130000</v>
+      </c>
+      <c r="M71" s="2">
+        <v>130000</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>44298</v>
+      </c>
+      <c r="R71" s="3">
+        <v>44298</v>
+      </c>
+      <c r="S71" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -873,7 +4706,72 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1"/>
+    <hyperlink ref="O9" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O11" r:id="rId4"/>
+    <hyperlink ref="O12" r:id="rId5"/>
+    <hyperlink ref="O13" r:id="rId6"/>
+    <hyperlink ref="O14" r:id="rId7"/>
+    <hyperlink ref="O15" r:id="rId8"/>
+    <hyperlink ref="O16" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
+    <hyperlink ref="O18" r:id="rId11"/>
+    <hyperlink ref="O19" r:id="rId12"/>
+    <hyperlink ref="O20" r:id="rId13"/>
+    <hyperlink ref="O21" r:id="rId14"/>
+    <hyperlink ref="O22" r:id="rId15"/>
+    <hyperlink ref="O23" r:id="rId16"/>
+    <hyperlink ref="O24" r:id="rId17"/>
+    <hyperlink ref="O25" r:id="rId18"/>
+    <hyperlink ref="O26" r:id="rId19"/>
+    <hyperlink ref="O27" r:id="rId20"/>
+    <hyperlink ref="O28" r:id="rId21"/>
+    <hyperlink ref="O29" r:id="rId22"/>
+    <hyperlink ref="O30" r:id="rId23"/>
+    <hyperlink ref="O31" r:id="rId24"/>
+    <hyperlink ref="O32" r:id="rId25"/>
+    <hyperlink ref="O33" r:id="rId26"/>
+    <hyperlink ref="O34" r:id="rId27"/>
+    <hyperlink ref="O35" r:id="rId28"/>
+    <hyperlink ref="O36" r:id="rId29"/>
+    <hyperlink ref="O37" r:id="rId30"/>
+    <hyperlink ref="O38" r:id="rId31"/>
+    <hyperlink ref="O39" r:id="rId32"/>
+    <hyperlink ref="O40" r:id="rId33"/>
+    <hyperlink ref="O41" r:id="rId34"/>
+    <hyperlink ref="O42" r:id="rId35"/>
+    <hyperlink ref="O43" r:id="rId36"/>
+    <hyperlink ref="O44" r:id="rId37"/>
+    <hyperlink ref="O45" r:id="rId38"/>
+    <hyperlink ref="O46" r:id="rId39"/>
+    <hyperlink ref="O47" r:id="rId40"/>
+    <hyperlink ref="O48" r:id="rId41"/>
+    <hyperlink ref="O49" r:id="rId42"/>
+    <hyperlink ref="O50" r:id="rId43"/>
+    <hyperlink ref="O51" r:id="rId44"/>
+    <hyperlink ref="O52" r:id="rId45"/>
+    <hyperlink ref="O53" r:id="rId46"/>
+    <hyperlink ref="O54" r:id="rId47"/>
+    <hyperlink ref="O55" r:id="rId48"/>
+    <hyperlink ref="O56" r:id="rId49"/>
+    <hyperlink ref="O57" r:id="rId50"/>
+    <hyperlink ref="O58" r:id="rId51"/>
+    <hyperlink ref="O59" r:id="rId52"/>
+    <hyperlink ref="O60" r:id="rId53"/>
+    <hyperlink ref="O61" r:id="rId54"/>
+    <hyperlink ref="O62" r:id="rId55"/>
+    <hyperlink ref="O63" r:id="rId56"/>
+    <hyperlink ref="O64" r:id="rId57"/>
+    <hyperlink ref="O65" r:id="rId58"/>
+    <hyperlink ref="O66" r:id="rId59"/>
+    <hyperlink ref="O67" r:id="rId60"/>
+    <hyperlink ref="O68" r:id="rId61"/>
+    <hyperlink ref="O69" r:id="rId62"/>
+    <hyperlink ref="O70" r:id="rId63"/>
+    <hyperlink ref="O71" r:id="rId64"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP CIERRE PRESUPUESTAL 2DO TRIMESTRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="135">
   <si>
     <t>46622</t>
   </si>
@@ -180,17 +180,257 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Recalendarización el presupuesto</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_junio_2021/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
+  </si>
+  <si>
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 26 de julio del año en curso.</t>
+    <t>Honorarios asimilables a salarios</t>
+  </si>
+  <si>
+    <t>Prima Vacacional y dominical</t>
+  </si>
+  <si>
+    <t>Gratificación Anual</t>
+  </si>
+  <si>
+    <t>Aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al Seguro de Cesantía en Edad Avanzada y Vejez</t>
+  </si>
+  <si>
+    <t>Aportaciones a FOVISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al SAR</t>
+  </si>
+  <si>
+    <t>Material de Oficina</t>
+  </si>
+  <si>
+    <t>Gastos de Oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de impresión y reproducción</t>
+  </si>
+  <si>
+    <t>Material para bienes informáticos</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Material didáctico</t>
+  </si>
+  <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Productos agrícolas</t>
+  </si>
+  <si>
+    <t>Productos químicos, farmaceúticos y de laboratorio</t>
+  </si>
+  <si>
+    <t>Productos minerales no metálicos</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Vidrio y productos de vidrio</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Material electrónico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicinas y Productos Farmacéuticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Materiales y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Productos textiles</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de mobilirio y equipo de administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicios de Conducción de Señales</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de edificios</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería y fumigación</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Difusión por radio, televisión y otros medios de mensajes comerciales para promover la venta de bienes o servicios</t>
+  </si>
+  <si>
+    <t>Pasajes terrestres</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de cermonial</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Bienes informáticos</t>
+  </si>
+  <si>
+    <t>Otros equipos</t>
+  </si>
+  <si>
+    <t>Licencias informáticas e intelectuales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -212,6 +452,21 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -263,10 +518,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -286,10 +542,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P87" sqref="A87:XFD246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,11 +850,11 @@
     <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="79.140625" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="97.5703125" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -836,7 +1096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2021</v>
       </c>
@@ -846,20 +1106,44 @@
       <c r="C8" s="6">
         <v>44377</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="D8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="5">
+        <v>113001</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5">
+        <v>37757188</v>
+      </c>
+      <c r="I8" s="5">
+        <v>37303806.649999999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>37303806.649999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>37303806.649999999</v>
+      </c>
+      <c r="L8" s="5">
+        <v>37303806.649999999</v>
+      </c>
+      <c r="M8" s="5">
+        <v>37303806.649999999</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="6">
         <v>44386</v>
@@ -867,9 +1151,4451 @@
       <c r="R8" s="6">
         <v>44386</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="5">
+        <v>121001</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2326358</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2020680.91</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2020680.91</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2020680.91</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2020680.91</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2020680.91</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R9" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="5">
+        <v>132001</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="5">
+        <v>37500</v>
+      </c>
+      <c r="I10" s="5">
+        <v>35463.79</v>
+      </c>
+      <c r="J10" s="5">
+        <v>35463.79</v>
+      </c>
+      <c r="K10" s="5">
+        <v>35463.79</v>
+      </c>
+      <c r="L10" s="5">
+        <v>35463.79</v>
+      </c>
+      <c r="M10" s="5">
+        <v>35463.79</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R10" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="5">
+        <v>132002</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="5">
+        <v>119499</v>
+      </c>
+      <c r="I11" s="5">
+        <v>116614.12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>116614.12</v>
+      </c>
+      <c r="K11" s="5">
+        <v>116614.12</v>
+      </c>
+      <c r="L11" s="5">
+        <v>116614.12</v>
+      </c>
+      <c r="M11" s="5">
+        <v>116614.12</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R11" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="5">
+        <v>141001</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3998758</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3937053.79</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3937053.79</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3937053.79</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3937053.79</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3937053.79</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R12" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="5">
+        <v>141004</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1183530</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1163010.7899999998</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1163010.7899999998</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1163010.7899999998</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1163010.7899999998</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1163010.7899999998</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R13" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="5">
+        <v>142001</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1863826</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1831513.05</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1831513.05</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1831513.05</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1831513.05</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1831513.05</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R14" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="5">
+        <v>143001</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="5">
+        <v>807602</v>
+      </c>
+      <c r="I15" s="5">
+        <v>732605.23</v>
+      </c>
+      <c r="J15" s="5">
+        <v>732605.23</v>
+      </c>
+      <c r="K15" s="5">
+        <v>732605.23</v>
+      </c>
+      <c r="L15" s="5">
+        <v>732605.23</v>
+      </c>
+      <c r="M15" s="5">
+        <v>732605.23</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R15" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F16" s="5">
+        <v>211001</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="5">
+        <v>116989</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="J16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="L16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R16" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>211002</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="5">
+        <v>14000</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2999.8599999999997</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2999.8599999999997</v>
+      </c>
+      <c r="K17" s="5">
+        <v>2999.8599999999997</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2999.8599999999997</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2999.8599999999997</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R17" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>212001</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="5">
+        <v>9500</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9499.98</v>
+      </c>
+      <c r="J18" s="5">
+        <v>9499.98</v>
+      </c>
+      <c r="K18" s="5">
+        <v>9499.98</v>
+      </c>
+      <c r="L18" s="5">
+        <v>9499.98</v>
+      </c>
+      <c r="M18" s="5">
+        <v>9499.98</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R18" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>214001</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="5">
+        <v>15000</v>
+      </c>
+      <c r="I19" s="5">
+        <v>9899.9599999999991</v>
+      </c>
+      <c r="J19" s="5">
+        <v>9899.9599999999991</v>
+      </c>
+      <c r="K19" s="5">
+        <v>9899.9599999999991</v>
+      </c>
+      <c r="L19" s="5">
+        <v>9899.9599999999991</v>
+      </c>
+      <c r="M19" s="5">
+        <v>9899.9599999999991</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R19" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>216001</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="5">
+        <v>26722</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4996</v>
+      </c>
+      <c r="J20" s="5">
+        <v>4996</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4996</v>
+      </c>
+      <c r="L20" s="5">
+        <v>4996</v>
+      </c>
+      <c r="M20" s="5">
+        <v>4996</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R20" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>217001</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="5">
+        <v>190000</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R21" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="5">
+        <v>222001</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="5">
+        <v>89837</v>
+      </c>
+      <c r="I22" s="5">
+        <v>89800</v>
+      </c>
+      <c r="J22" s="5">
+        <v>89800</v>
+      </c>
+      <c r="K22" s="5">
+        <v>89800</v>
+      </c>
+      <c r="L22" s="5">
+        <v>89800</v>
+      </c>
+      <c r="M22" s="5">
+        <v>89800</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R22" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C23" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2300</v>
+      </c>
+      <c r="F23" s="5">
+        <v>231001</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="I23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="J23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="K23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="L23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R23" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C24" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="5">
+        <v>235001</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="5">
+        <v>22000</v>
+      </c>
+      <c r="I24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="J24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="K24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="L24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="M24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R24" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="5">
+        <v>241001</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="J25" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="K25" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="L25" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="M25" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R25" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="5">
+        <v>242001</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1999.96</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1999.96</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1999.96</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1999.96</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1999.96</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R26" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="5">
+        <v>243001</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="5">
+        <v>999.87</v>
+      </c>
+      <c r="J27" s="5">
+        <v>999.87</v>
+      </c>
+      <c r="K27" s="5">
+        <v>999.87</v>
+      </c>
+      <c r="L27" s="5">
+        <v>999.87</v>
+      </c>
+      <c r="M27" s="5">
+        <v>999.87</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R27" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C28" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F28" s="5">
+        <v>244001</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R28" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C29" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F29" s="5">
+        <v>245001</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="5">
+        <v>500</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R29" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F30" s="5">
+        <v>246001</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="5">
+        <v>80000</v>
+      </c>
+      <c r="I30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="J30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="K30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="L30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="M30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R30" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F31" s="5">
+        <v>246002</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="5">
+        <v>83210</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R31" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="5">
+        <v>247001</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="5">
+        <v>27500</v>
+      </c>
+      <c r="I32" s="5">
+        <v>7499.73</v>
+      </c>
+      <c r="J32" s="5">
+        <v>7499.73</v>
+      </c>
+      <c r="K32" s="5">
+        <v>7499.73</v>
+      </c>
+      <c r="L32" s="5">
+        <v>7499.73</v>
+      </c>
+      <c r="M32" s="5">
+        <v>7499.73</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R32" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="5">
+        <v>249001</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="5">
+        <v>35000</v>
+      </c>
+      <c r="I33" s="5">
+        <v>34983.279999999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>34983.279999999999</v>
+      </c>
+      <c r="K33" s="5">
+        <v>34983.279999999999</v>
+      </c>
+      <c r="L33" s="5">
+        <v>34983.279999999999</v>
+      </c>
+      <c r="M33" s="5">
+        <v>34983.279999999999</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R33" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F34" s="5">
+        <v>251001</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="5">
+        <v>329000</v>
+      </c>
+      <c r="I34" s="5">
+        <v>164024.53</v>
+      </c>
+      <c r="J34" s="5">
+        <v>164024.53</v>
+      </c>
+      <c r="K34" s="5">
+        <v>164024.53</v>
+      </c>
+      <c r="L34" s="5">
+        <v>164024.53</v>
+      </c>
+      <c r="M34" s="5">
+        <v>164024.53</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R34" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C35" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="5">
+        <v>252001</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="5">
+        <v>500</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R35" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F36" s="5">
+        <v>253001</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="5">
+        <v>21072</v>
+      </c>
+      <c r="I36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="J36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="K36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="L36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="M36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R36" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C37" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F37" s="5">
+        <v>254001</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="5">
+        <v>40204</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R37" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C38" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F38" s="5">
+        <v>255001</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="5">
+        <v>104000</v>
+      </c>
+      <c r="I38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="J38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="K38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="L38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="M38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R38" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C39" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F39" s="5">
+        <v>256001</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="5">
+        <v>15000</v>
+      </c>
+      <c r="I39" s="5">
+        <v>8998.5299999999988</v>
+      </c>
+      <c r="J39" s="5">
+        <v>8998.5299999999988</v>
+      </c>
+      <c r="K39" s="5">
+        <v>8998.5299999999988</v>
+      </c>
+      <c r="L39" s="5">
+        <v>8998.5299999999988</v>
+      </c>
+      <c r="M39" s="5">
+        <v>8998.5299999999988</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R39" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B40" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C40" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F40" s="5">
+        <v>259001</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="5">
+        <v>500</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R40" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C41" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2600</v>
+      </c>
+      <c r="F41" s="5">
+        <v>261001</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I41" s="5">
+        <v>3554</v>
+      </c>
+      <c r="J41" s="5">
+        <v>3554</v>
+      </c>
+      <c r="K41" s="5">
+        <v>3554</v>
+      </c>
+      <c r="L41" s="5">
+        <v>3554</v>
+      </c>
+      <c r="M41" s="5">
+        <v>3554</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R41" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S41" s="8"/>
+    </row>
+    <row r="42" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B42" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C42" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2700</v>
+      </c>
+      <c r="F42" s="5">
+        <v>271001</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R42" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2700</v>
+      </c>
+      <c r="F43" s="5">
+        <v>274001</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R43" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S43" s="8"/>
+    </row>
+    <row r="44" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="5">
+        <v>291001</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="5">
+        <v>6000</v>
+      </c>
+      <c r="I44" s="5">
+        <v>5999.68</v>
+      </c>
+      <c r="J44" s="5">
+        <v>5999.68</v>
+      </c>
+      <c r="K44" s="5">
+        <v>5999.68</v>
+      </c>
+      <c r="L44" s="5">
+        <v>5999.68</v>
+      </c>
+      <c r="M44" s="5">
+        <v>5999.68</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R44" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F45" s="5">
+        <v>292001</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="5">
+        <v>4000</v>
+      </c>
+      <c r="I45" s="5">
+        <v>3879.04</v>
+      </c>
+      <c r="J45" s="5">
+        <v>3879.04</v>
+      </c>
+      <c r="K45" s="5">
+        <v>3879.04</v>
+      </c>
+      <c r="L45" s="5">
+        <v>3879.04</v>
+      </c>
+      <c r="M45" s="5">
+        <v>3879.04</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R45" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F46" s="5">
+        <v>293001</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="J46" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="K46" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="L46" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="M46" s="5">
+        <v>999.92</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R46" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C47" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="5">
+        <v>294001</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="5">
+        <v>82000</v>
+      </c>
+      <c r="I47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="J47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="K47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="L47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="M47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R47" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C48" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="5">
+        <v>295001</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R48" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C49" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="5">
+        <v>296001</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="5">
+        <v>8000</v>
+      </c>
+      <c r="I49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="K49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="M49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R49" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S49" s="8"/>
+    </row>
+    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C50" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F50" s="5">
+        <v>298001</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="5">
+        <v>6000</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1990.56</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1990.56</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1990.56</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1990.56</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1990.56</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R50" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S50" s="8"/>
+    </row>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C51" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F51" s="5">
+        <v>311001</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="5">
+        <v>771000</v>
+      </c>
+      <c r="I51" s="5">
+        <v>449676</v>
+      </c>
+      <c r="J51" s="5">
+        <v>449676</v>
+      </c>
+      <c r="K51" s="5">
+        <v>449676</v>
+      </c>
+      <c r="L51" s="5">
+        <v>449676</v>
+      </c>
+      <c r="M51" s="5">
+        <v>449676</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R51" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S51" s="8"/>
+    </row>
+    <row r="52" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C52" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="5">
+        <v>313001</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="5">
+        <v>42200</v>
+      </c>
+      <c r="I52" s="5">
+        <v>8346.1500000000015</v>
+      </c>
+      <c r="J52" s="5">
+        <v>8346.1500000000015</v>
+      </c>
+      <c r="K52" s="5">
+        <v>8346.1500000000015</v>
+      </c>
+      <c r="L52" s="5">
+        <v>8346.1500000000015</v>
+      </c>
+      <c r="M52" s="5">
+        <v>8346.1500000000015</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R52" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S52" s="8"/>
+    </row>
+    <row r="53" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C53" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F53" s="5">
+        <v>314001</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="5">
+        <v>441600</v>
+      </c>
+      <c r="I53" s="5">
+        <v>365238</v>
+      </c>
+      <c r="J53" s="5">
+        <v>365238</v>
+      </c>
+      <c r="K53" s="5">
+        <v>365238</v>
+      </c>
+      <c r="L53" s="5">
+        <v>365238</v>
+      </c>
+      <c r="M53" s="5">
+        <v>365238</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R53" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S53" s="8"/>
+    </row>
+    <row r="54" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C54" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="5">
+        <v>317001</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="5">
+        <v>30450</v>
+      </c>
+      <c r="I54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="J54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="K54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="L54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="M54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R54" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S54" s="8"/>
+    </row>
+    <row r="55" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C55" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F55" s="5">
+        <v>318001</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="5">
+        <v>5570</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="K55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="L55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="M55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R55" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S55" s="8"/>
+    </row>
+    <row r="56" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C56" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3200</v>
+      </c>
+      <c r="F56" s="5">
+        <v>322001</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="5">
+        <v>194880</v>
+      </c>
+      <c r="I56" s="5">
+        <v>111360</v>
+      </c>
+      <c r="J56" s="5">
+        <v>111360</v>
+      </c>
+      <c r="K56" s="5">
+        <v>111360</v>
+      </c>
+      <c r="L56" s="5">
+        <v>111360</v>
+      </c>
+      <c r="M56" s="5">
+        <v>111360</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R56" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S56" s="8"/>
+    </row>
+    <row r="57" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C57" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="5">
+        <v>323002</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="5">
+        <v>22500</v>
+      </c>
+      <c r="I57" s="5">
+        <v>17290.88</v>
+      </c>
+      <c r="J57" s="5">
+        <v>17290.88</v>
+      </c>
+      <c r="K57" s="5">
+        <v>17290.88</v>
+      </c>
+      <c r="L57" s="5">
+        <v>17290.88</v>
+      </c>
+      <c r="M57" s="5">
+        <v>17290.88</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R57" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S57" s="8"/>
+    </row>
+    <row r="58" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C58" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="5">
+        <v>326001</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" s="5">
+        <v>25000</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R58" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S58" s="8"/>
+    </row>
+    <row r="59" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C59" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="5">
+        <v>331002</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="5">
+        <v>318647</v>
+      </c>
+      <c r="I59" s="5">
+        <v>166680</v>
+      </c>
+      <c r="J59" s="5">
+        <v>166680</v>
+      </c>
+      <c r="K59" s="5">
+        <v>166680</v>
+      </c>
+      <c r="L59" s="5">
+        <v>166680</v>
+      </c>
+      <c r="M59" s="5">
+        <v>166680</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R59" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S59" s="8"/>
+    </row>
+    <row r="60" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C60" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="5">
+        <v>331003</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="5">
+        <v>141700</v>
+      </c>
+      <c r="I60" s="5">
+        <v>91000</v>
+      </c>
+      <c r="J60" s="5">
+        <v>91000</v>
+      </c>
+      <c r="K60" s="5">
+        <v>91000</v>
+      </c>
+      <c r="L60" s="5">
+        <v>91000</v>
+      </c>
+      <c r="M60" s="5">
+        <v>91000</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R60" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S60" s="8"/>
+    </row>
+    <row r="61" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C61" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="5">
+        <v>334001</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="5">
+        <v>218616</v>
+      </c>
+      <c r="I61" s="5">
+        <v>158175.29999999999</v>
+      </c>
+      <c r="J61" s="5">
+        <v>158175.29999999999</v>
+      </c>
+      <c r="K61" s="5">
+        <v>158175.29999999999</v>
+      </c>
+      <c r="L61" s="5">
+        <v>158175.29999999999</v>
+      </c>
+      <c r="M61" s="5">
+        <v>158175.29999999999</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R61" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S61" s="8"/>
+    </row>
+    <row r="62" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C62" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="5">
+        <v>336001</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="5">
+        <v>142000</v>
+      </c>
+      <c r="I62" s="5">
+        <v>45599.6</v>
+      </c>
+      <c r="J62" s="5">
+        <v>45599.6</v>
+      </c>
+      <c r="K62" s="5">
+        <v>45599.6</v>
+      </c>
+      <c r="L62" s="5">
+        <v>45599.6</v>
+      </c>
+      <c r="M62" s="5">
+        <v>45599.6</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R62" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S62" s="8"/>
+    </row>
+    <row r="63" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C63" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F63" s="5">
+        <v>338001</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="5">
+        <v>709998</v>
+      </c>
+      <c r="I63" s="5">
+        <v>881396.8</v>
+      </c>
+      <c r="J63" s="5">
+        <v>881396.8</v>
+      </c>
+      <c r="K63" s="5">
+        <v>881396.8</v>
+      </c>
+      <c r="L63" s="5">
+        <v>881396.8</v>
+      </c>
+      <c r="M63" s="5">
+        <v>881396.8</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R63" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S63" s="8"/>
+    </row>
+    <row r="64" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C64" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3400</v>
+      </c>
+      <c r="F64" s="5">
+        <v>341001</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="5">
+        <v>3600</v>
+      </c>
+      <c r="I64" s="5">
+        <v>2619.2799999999997</v>
+      </c>
+      <c r="J64" s="5">
+        <v>2619.2799999999997</v>
+      </c>
+      <c r="K64" s="5">
+        <v>2619.2799999999997</v>
+      </c>
+      <c r="L64" s="5">
+        <v>2619.2799999999997</v>
+      </c>
+      <c r="M64" s="5">
+        <v>2619.2799999999997</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R64" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S64" s="8"/>
+    </row>
+    <row r="65" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C65" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3400</v>
+      </c>
+      <c r="F65" s="5">
+        <v>345001</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="5">
+        <v>415700</v>
+      </c>
+      <c r="I65" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="J65" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="K65" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="L65" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="M65" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R65" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S65" s="8"/>
+    </row>
+    <row r="66" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C66" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="5">
+        <v>351001</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="5">
+        <v>60000</v>
+      </c>
+      <c r="I66" s="5">
+        <v>121272.5</v>
+      </c>
+      <c r="J66" s="5">
+        <v>121272.5</v>
+      </c>
+      <c r="K66" s="5">
+        <v>121272.5</v>
+      </c>
+      <c r="L66" s="5">
+        <v>121272.5</v>
+      </c>
+      <c r="M66" s="5">
+        <v>109279.26</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R66" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S66" s="8"/>
+    </row>
+    <row r="67" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C67" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F67" s="5">
+        <v>352001</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="5">
+        <v>40407</v>
+      </c>
+      <c r="I67" s="5">
+        <v>7999.74</v>
+      </c>
+      <c r="J67" s="5">
+        <v>7999.74</v>
+      </c>
+      <c r="K67" s="5">
+        <v>7999.74</v>
+      </c>
+      <c r="L67" s="5">
+        <v>7999.74</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R67" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S67" s="8"/>
+    </row>
+    <row r="68" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C68" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F68" s="5">
+        <v>353001</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" s="5">
+        <v>4000</v>
+      </c>
+      <c r="I68" s="5">
+        <v>3856</v>
+      </c>
+      <c r="J68" s="5">
+        <v>3856</v>
+      </c>
+      <c r="K68" s="5">
+        <v>3856</v>
+      </c>
+      <c r="L68" s="5">
+        <v>3856</v>
+      </c>
+      <c r="M68" s="5">
+        <v>3856</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R68" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S68" s="8"/>
+    </row>
+    <row r="69" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C69" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F69" s="5">
+        <v>354001</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H69" s="5">
+        <v>20000</v>
+      </c>
+      <c r="I69" s="5">
+        <v>12468</v>
+      </c>
+      <c r="J69" s="5">
+        <v>12468</v>
+      </c>
+      <c r="K69" s="5">
+        <v>12468</v>
+      </c>
+      <c r="L69" s="5">
+        <v>12468</v>
+      </c>
+      <c r="M69" s="5">
+        <v>12468</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R69" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S69" s="8"/>
+    </row>
+    <row r="70" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C70" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F70" s="5">
+        <v>355001</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I70" s="5">
+        <v>29742.58</v>
+      </c>
+      <c r="J70" s="5">
+        <v>29742.58</v>
+      </c>
+      <c r="K70" s="5">
+        <v>29742.58</v>
+      </c>
+      <c r="L70" s="5">
+        <v>29742.58</v>
+      </c>
+      <c r="M70" s="5">
+        <v>29742.58</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R70" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S70" s="8"/>
+    </row>
+    <row r="71" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C71" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F71" s="5">
+        <v>357001</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="5">
+        <v>18706</v>
+      </c>
+      <c r="I71" s="5">
+        <v>176193.44</v>
+      </c>
+      <c r="J71" s="5">
+        <v>176193.44</v>
+      </c>
+      <c r="K71" s="5">
+        <v>176193.44</v>
+      </c>
+      <c r="L71" s="5">
+        <v>176193.44</v>
+      </c>
+      <c r="M71" s="5">
+        <v>176193.44</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R71" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S71" s="8"/>
+    </row>
+    <row r="72" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C72" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F72" s="5">
+        <v>358001</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H72" s="5">
+        <v>600000</v>
+      </c>
+      <c r="I72" s="5">
+        <v>231224.19</v>
+      </c>
+      <c r="J72" s="5">
+        <v>231224.19</v>
+      </c>
+      <c r="K72" s="5">
+        <v>231224.19</v>
+      </c>
+      <c r="L72" s="5">
+        <v>231224.19</v>
+      </c>
+      <c r="M72" s="5">
+        <v>231224.19</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R72" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S72" s="8"/>
+    </row>
+    <row r="73" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B73" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C73" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F73" s="5">
+        <v>359001</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="5">
+        <v>21450</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R73" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S73" s="8"/>
+    </row>
+    <row r="74" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C74" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E74" s="5">
+        <v>3600</v>
+      </c>
+      <c r="F74" s="5">
+        <v>361002</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H74" s="5">
+        <v>37500</v>
+      </c>
+      <c r="I74" s="5">
+        <v>39307</v>
+      </c>
+      <c r="J74" s="5">
+        <v>39307</v>
+      </c>
+      <c r="K74" s="5">
+        <v>39307</v>
+      </c>
+      <c r="L74" s="5">
+        <v>39307</v>
+      </c>
+      <c r="M74" s="5">
+        <v>39307</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R74" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S74" s="8"/>
+    </row>
+    <row r="75" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C75" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3600</v>
+      </c>
+      <c r="F75" s="5">
+        <v>362001</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="5">
+        <v>7508</v>
+      </c>
+      <c r="I75" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="J75" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="K75" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="L75" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="M75" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R75" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S75" s="8"/>
+    </row>
+    <row r="76" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B76" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C76" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D76" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="5">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="5">
+        <v>372001</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="5">
+        <v>29000</v>
+      </c>
+      <c r="I76" s="5">
+        <v>240</v>
+      </c>
+      <c r="J76" s="5">
+        <v>240</v>
+      </c>
+      <c r="K76" s="5">
+        <v>240</v>
+      </c>
+      <c r="L76" s="5">
+        <v>240</v>
+      </c>
+      <c r="M76" s="5">
+        <v>240</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R76" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S76" s="8"/>
+    </row>
+    <row r="77" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B77" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C77" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D77" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3700</v>
+      </c>
+      <c r="F77" s="5">
+        <v>375001</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="5">
+        <v>47000</v>
+      </c>
+      <c r="I77" s="5">
+        <v>10849</v>
+      </c>
+      <c r="J77" s="5">
+        <v>10849</v>
+      </c>
+      <c r="K77" s="5">
+        <v>10849</v>
+      </c>
+      <c r="L77" s="5">
+        <v>10849</v>
+      </c>
+      <c r="M77" s="5">
+        <v>10849</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R77" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S77" s="8"/>
+    </row>
+    <row r="78" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B78" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C78" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3800</v>
+      </c>
+      <c r="F78" s="5">
+        <v>381001</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H78" s="5">
+        <v>126000</v>
+      </c>
+      <c r="I78" s="5">
+        <v>14117.2</v>
+      </c>
+      <c r="J78" s="5">
+        <v>14117.2</v>
+      </c>
+      <c r="K78" s="5">
+        <v>14117.2</v>
+      </c>
+      <c r="L78" s="5">
+        <v>14117.2</v>
+      </c>
+      <c r="M78" s="5">
+        <v>14117.2</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R78" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S78" s="8"/>
+    </row>
+    <row r="79" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B79" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C79" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D79" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E79" s="5">
+        <v>3800</v>
+      </c>
+      <c r="F79" s="5">
+        <v>382001</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="5">
+        <v>25000</v>
+      </c>
+      <c r="I79" s="5">
+        <v>24388.959999999999</v>
+      </c>
+      <c r="J79" s="5">
+        <v>24388.959999999999</v>
+      </c>
+      <c r="K79" s="5">
+        <v>24388.959999999999</v>
+      </c>
+      <c r="L79" s="5">
+        <v>24388.959999999999</v>
+      </c>
+      <c r="M79" s="5">
+        <v>24388.959999999999</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R79" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S79" s="8"/>
+    </row>
+    <row r="80" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B80" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C80" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D80" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E80" s="5">
+        <v>3900</v>
+      </c>
+      <c r="F80" s="5">
+        <v>392001</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" s="5">
+        <v>25095</v>
+      </c>
+      <c r="I80" s="5">
+        <v>9040.9599999999627</v>
+      </c>
+      <c r="J80" s="5">
+        <v>9040.9599999999627</v>
+      </c>
+      <c r="K80" s="5">
+        <v>9040.9599999999627</v>
+      </c>
+      <c r="L80" s="5">
+        <v>9040.9599999999627</v>
+      </c>
+      <c r="M80" s="5">
+        <v>9040.9599999999627</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R80" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S80" s="8"/>
+    </row>
+    <row r="81" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B81" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C81" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3900</v>
+      </c>
+      <c r="F81" s="5">
+        <v>392006</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H81" s="5">
+        <v>590200</v>
+      </c>
+      <c r="I81" s="5">
+        <v>147446.53</v>
+      </c>
+      <c r="J81" s="5">
+        <v>147446.53</v>
+      </c>
+      <c r="K81" s="5">
+        <v>147446.53</v>
+      </c>
+      <c r="L81" s="5">
+        <v>147446.53</v>
+      </c>
+      <c r="M81" s="5">
+        <v>147446.53</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R81" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S81" s="8"/>
+    </row>
+    <row r="82" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B82" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C82" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E82" s="5">
+        <v>3900</v>
+      </c>
+      <c r="F82" s="5">
+        <v>398001</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1207216</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1184568.19</v>
+      </c>
+      <c r="J82" s="5">
+        <v>1184568.19</v>
+      </c>
+      <c r="K82" s="5">
+        <v>1184568.19</v>
+      </c>
+      <c r="L82" s="5">
+        <v>1184568.19</v>
+      </c>
+      <c r="M82" s="5">
+        <v>1184568.19</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R82" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S82" s="8"/>
+    </row>
+    <row r="83" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B83" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C83" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D83" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="5">
+        <v>4400</v>
+      </c>
+      <c r="F83" s="5">
+        <v>442001</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="5">
+        <v>53200</v>
+      </c>
+      <c r="I83" s="5">
+        <v>11194</v>
+      </c>
+      <c r="J83" s="5">
+        <v>11194</v>
+      </c>
+      <c r="K83" s="5">
+        <v>11194</v>
+      </c>
+      <c r="L83" s="5">
+        <v>11194</v>
+      </c>
+      <c r="M83" s="5">
+        <v>11194</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R83" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S83" s="8"/>
+    </row>
+    <row r="84" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B84" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C84" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D84" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E84" s="5">
+        <v>5100</v>
+      </c>
+      <c r="F84" s="5">
+        <v>515001</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="5">
+        <v>40000</v>
+      </c>
+      <c r="I84" s="5">
+        <v>40000</v>
+      </c>
+      <c r="J84" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K84" s="5">
+        <v>40000</v>
+      </c>
+      <c r="L84" s="5">
+        <v>40000</v>
+      </c>
+      <c r="M84" s="5">
+        <v>40000</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R84" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S84" s="8"/>
+    </row>
+    <row r="85" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B85" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C85" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D85" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E85" s="5">
+        <v>5600</v>
+      </c>
+      <c r="F85" s="5">
+        <v>569001</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="5">
+        <v>84000</v>
+      </c>
+      <c r="I85" s="5">
+        <v>28768</v>
+      </c>
+      <c r="J85" s="5">
+        <v>28768</v>
+      </c>
+      <c r="K85" s="5">
+        <v>28768</v>
+      </c>
+      <c r="L85" s="5">
+        <v>28768</v>
+      </c>
+      <c r="M85" s="5">
+        <v>28768</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R85" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S85" s="8"/>
+    </row>
+    <row r="86" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B86" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C86" s="6">
+        <v>44377</v>
+      </c>
+      <c r="D86" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E86" s="5">
+        <v>5900</v>
+      </c>
+      <c r="F86" s="5">
+        <v>597001</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" s="5">
+        <v>612000</v>
+      </c>
+      <c r="I86" s="5">
+        <v>130000</v>
+      </c>
+      <c r="J86" s="5">
+        <v>130000</v>
+      </c>
+      <c r="K86" s="5">
+        <v>130000</v>
+      </c>
+      <c r="L86" s="5">
+        <v>130000</v>
+      </c>
+      <c r="M86" s="5">
+        <v>130000</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>44386</v>
+      </c>
+      <c r="R86" s="6">
+        <v>44386</v>
+      </c>
+      <c r="S86" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -881,6 +5607,87 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1"/>
+    <hyperlink ref="O9" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O11" r:id="rId4"/>
+    <hyperlink ref="O12" r:id="rId5"/>
+    <hyperlink ref="O13" r:id="rId6"/>
+    <hyperlink ref="O14" r:id="rId7"/>
+    <hyperlink ref="O15" r:id="rId8"/>
+    <hyperlink ref="O16" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
+    <hyperlink ref="O18" r:id="rId11"/>
+    <hyperlink ref="O19" r:id="rId12"/>
+    <hyperlink ref="O20" r:id="rId13"/>
+    <hyperlink ref="O21" r:id="rId14"/>
+    <hyperlink ref="O22" r:id="rId15"/>
+    <hyperlink ref="O23" r:id="rId16"/>
+    <hyperlink ref="O24" r:id="rId17"/>
+    <hyperlink ref="O25" r:id="rId18"/>
+    <hyperlink ref="O26" r:id="rId19"/>
+    <hyperlink ref="O27" r:id="rId20"/>
+    <hyperlink ref="O28" r:id="rId21"/>
+    <hyperlink ref="O29" r:id="rId22"/>
+    <hyperlink ref="O30" r:id="rId23"/>
+    <hyperlink ref="O31" r:id="rId24"/>
+    <hyperlink ref="O32" r:id="rId25"/>
+    <hyperlink ref="O33" r:id="rId26"/>
+    <hyperlink ref="O34" r:id="rId27"/>
+    <hyperlink ref="O35" r:id="rId28"/>
+    <hyperlink ref="O36" r:id="rId29"/>
+    <hyperlink ref="O37" r:id="rId30"/>
+    <hyperlink ref="O38" r:id="rId31"/>
+    <hyperlink ref="O39" r:id="rId32"/>
+    <hyperlink ref="O40" r:id="rId33"/>
+    <hyperlink ref="O41" r:id="rId34"/>
+    <hyperlink ref="O42" r:id="rId35"/>
+    <hyperlink ref="O43" r:id="rId36"/>
+    <hyperlink ref="O44" r:id="rId37"/>
+    <hyperlink ref="O45" r:id="rId38"/>
+    <hyperlink ref="O46" r:id="rId39"/>
+    <hyperlink ref="O47" r:id="rId40"/>
+    <hyperlink ref="O48" r:id="rId41"/>
+    <hyperlink ref="O49" r:id="rId42"/>
+    <hyperlink ref="O50" r:id="rId43"/>
+    <hyperlink ref="O51" r:id="rId44"/>
+    <hyperlink ref="O52" r:id="rId45"/>
+    <hyperlink ref="O53" r:id="rId46"/>
+    <hyperlink ref="O54" r:id="rId47"/>
+    <hyperlink ref="O55" r:id="rId48"/>
+    <hyperlink ref="O56" r:id="rId49"/>
+    <hyperlink ref="O57" r:id="rId50"/>
+    <hyperlink ref="O58" r:id="rId51"/>
+    <hyperlink ref="O59" r:id="rId52"/>
+    <hyperlink ref="O60" r:id="rId53"/>
+    <hyperlink ref="O61" r:id="rId54"/>
+    <hyperlink ref="O62" r:id="rId55"/>
+    <hyperlink ref="O63" r:id="rId56"/>
+    <hyperlink ref="O64" r:id="rId57"/>
+    <hyperlink ref="O65" r:id="rId58"/>
+    <hyperlink ref="O66" r:id="rId59"/>
+    <hyperlink ref="O67" r:id="rId60"/>
+    <hyperlink ref="O68" r:id="rId61"/>
+    <hyperlink ref="O69" r:id="rId62"/>
+    <hyperlink ref="O70" r:id="rId63"/>
+    <hyperlink ref="O71" r:id="rId64"/>
+    <hyperlink ref="O72" r:id="rId65"/>
+    <hyperlink ref="O73" r:id="rId66"/>
+    <hyperlink ref="O74" r:id="rId67"/>
+    <hyperlink ref="O75" r:id="rId68"/>
+    <hyperlink ref="O76" r:id="rId69"/>
+    <hyperlink ref="O77" r:id="rId70"/>
+    <hyperlink ref="O78" r:id="rId71"/>
+    <hyperlink ref="O79" r:id="rId72"/>
+    <hyperlink ref="O80" r:id="rId73"/>
+    <hyperlink ref="O81" r:id="rId74"/>
+    <hyperlink ref="O82" r:id="rId75"/>
+    <hyperlink ref="O83" r:id="rId76"/>
+    <hyperlink ref="O84" r:id="rId77"/>
+    <hyperlink ref="O85" r:id="rId78"/>
+    <hyperlink ref="O86" r:id="rId79"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\Faltantes 3ER TRIMESTRE 2021 PAGINA OFICIAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP Fracciones con Cierre Presupuestal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="136">
   <si>
     <t>46622</t>
   </si>
@@ -183,7 +183,250 @@
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 27 de octubre del año en curso.</t>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Recalendarización el presupuesto</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2021/a_septiembre_2021/06.estadoanaliticopresupuestoegresos-cap-gto_ex.pdf</t>
+  </si>
+  <si>
+    <t>Honorarios asimilables a salarios</t>
+  </si>
+  <si>
+    <t>Prima Vacacional y dominical</t>
+  </si>
+  <si>
+    <t>Gratificación Anual</t>
+  </si>
+  <si>
+    <t>Aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al Seguro de Cesantía en Edad Avanzada y Vejez</t>
+  </si>
+  <si>
+    <t>Aportaciones a FOVISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al SAR</t>
+  </si>
+  <si>
+    <t>Material de Oficina</t>
+  </si>
+  <si>
+    <t>Gastos de Oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de impresión y reproducción</t>
+  </si>
+  <si>
+    <t>Material para bienes informáticos</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Material didáctico</t>
+  </si>
+  <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Productos agrícolas</t>
+  </si>
+  <si>
+    <t>Productos químicos, farmaceúticos y de laboratorio</t>
+  </si>
+  <si>
+    <t>Productos minerales no metálicos</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Vidrio y productos de vidrio</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Material electrónico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicinas y Productos Farmacéuticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Materiales y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Productos textiles</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de mobilirio y equipo de administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicios de Conducción de Señales</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de edificios</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Servicios de arquitectura, ingeniería y actividades relacionadas</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería y fumigación</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Difusión por radio, televisión y otros medios de mensajes comerciales para promover la venta de bienes o servicios</t>
+  </si>
+  <si>
+    <t>Pasajes terrestres</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de cermonial</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Bienes informáticos</t>
+  </si>
+  <si>
+    <t>Otros equipos</t>
+  </si>
+  <si>
+    <t>Licencias informáticas e intelectuales</t>
   </si>
 </sst>
 </file>
@@ -210,10 +453,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -258,10 +503,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -271,19 +517,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,11 +832,11 @@
     <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="91.28515625" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="18" max="18" width="37" customWidth="1"/>
-    <col min="19" max="19" width="75.5703125" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -830,7 +1078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2021</v>
       </c>
@@ -840,30 +1088,4555 @@
       <c r="C8" s="6">
         <v>44469</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="D8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="5">
+        <v>113001</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="5">
+        <v>56667098</v>
+      </c>
+      <c r="I8" s="5">
+        <v>55833128.669999994</v>
+      </c>
+      <c r="J8" s="5">
+        <v>55833128.669999994</v>
+      </c>
+      <c r="K8" s="5">
+        <v>55833128.669999994</v>
+      </c>
+      <c r="L8" s="5">
+        <v>55833128.669999994</v>
+      </c>
+      <c r="M8" s="5">
+        <v>55833128.669999994</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="P8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="8">
-        <v>44480</v>
-      </c>
-      <c r="R8" s="8">
-        <v>44480</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q8" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R8" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="5">
+        <v>121001</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3545732</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3035897.88</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3035897.88</v>
+      </c>
+      <c r="K9" s="5">
+        <v>3035897.88</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3035897.88</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3035897.88</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R9" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="5">
+        <v>132001</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3341708</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2956763.0700000003</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2956763.0700000003</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2956763.0700000003</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2956763.0700000003</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2956763.0700000003</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R10" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="5">
+        <v>132002</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="5">
+        <v>206499</v>
+      </c>
+      <c r="I11" s="5">
+        <v>194745.99</v>
+      </c>
+      <c r="J11" s="5">
+        <v>194745.99</v>
+      </c>
+      <c r="K11" s="5">
+        <v>194745.99</v>
+      </c>
+      <c r="L11" s="5">
+        <v>194745.99</v>
+      </c>
+      <c r="M11" s="5">
+        <v>194745.99</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R11" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="5">
+        <v>141001</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5865108</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5780775.4100000001</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5780775.4100000001</v>
+      </c>
+      <c r="K12" s="5">
+        <v>5780775.4100000001</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5780775.4100000001</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5780775.4100000001</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R12" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="5">
+        <v>141004</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1777878</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1739083.6599999997</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1739083.6599999997</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1739083.6599999997</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1739083.6599999997</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1739083.6599999997</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R13" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="5">
+        <v>142001</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2799808</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2738714.42</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2738714.42</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2738714.42</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2738714.42</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2738714.42</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R14" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="5">
+        <v>143001</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1213166</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1095485.78</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1095485.78</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1095485.78</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1095485.78</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1095485.78</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R15" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F16" s="5">
+        <v>211001</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="5">
+        <v>131989</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="J16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="L16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R16" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>211002</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="5">
+        <v>17000</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5999.8099999999995</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5999.8099999999995</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5999.8099999999995</v>
+      </c>
+      <c r="L17" s="5">
+        <v>5999.8099999999995</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5999.8099999999995</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R17" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>212001</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="5">
+        <v>19000</v>
+      </c>
+      <c r="I18" s="5">
+        <v>18999.96</v>
+      </c>
+      <c r="J18" s="5">
+        <v>18999.96</v>
+      </c>
+      <c r="K18" s="5">
+        <v>18999.96</v>
+      </c>
+      <c r="L18" s="5">
+        <v>18999.96</v>
+      </c>
+      <c r="M18" s="5">
+        <v>18999.96</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R18" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>214001</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="5">
+        <v>45000</v>
+      </c>
+      <c r="I19" s="5">
+        <v>29899.15</v>
+      </c>
+      <c r="J19" s="5">
+        <v>29899.15</v>
+      </c>
+      <c r="K19" s="5">
+        <v>29899.15</v>
+      </c>
+      <c r="L19" s="5">
+        <v>29899.15</v>
+      </c>
+      <c r="M19" s="5">
+        <v>29899.15</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R19" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>216001</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="5">
+        <v>32722</v>
+      </c>
+      <c r="I20" s="5">
+        <v>10995.84</v>
+      </c>
+      <c r="J20" s="5">
+        <v>10995.84</v>
+      </c>
+      <c r="K20" s="5">
+        <v>10995.84</v>
+      </c>
+      <c r="L20" s="5">
+        <v>10995.84</v>
+      </c>
+      <c r="M20" s="5">
+        <v>10995.84</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R20" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>217001</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="5">
+        <v>190000</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R21" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="5">
+        <v>222001</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="5">
+        <v>134837</v>
+      </c>
+      <c r="I22" s="5">
+        <v>134800</v>
+      </c>
+      <c r="J22" s="5">
+        <v>134800</v>
+      </c>
+      <c r="K22" s="5">
+        <v>134800</v>
+      </c>
+      <c r="L22" s="5">
+        <v>134800</v>
+      </c>
+      <c r="M22" s="5">
+        <v>134800</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R22" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C23" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2300</v>
+      </c>
+      <c r="F23" s="5">
+        <v>231001</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="I23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="J23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="K23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="L23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M23" s="5">
+        <v>12000</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R23" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C24" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="5">
+        <v>235001</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="5">
+        <v>22000</v>
+      </c>
+      <c r="I24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="J24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="K24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="L24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="M24" s="5">
+        <v>14203.14</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R24" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="5">
+        <v>241001</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1999.9</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1999.9</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1999.9</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1999.9</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1999.9</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R25" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="5">
+        <v>242001</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3500</v>
+      </c>
+      <c r="I26" s="5">
+        <v>3496.36</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3496.36</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3496.36</v>
+      </c>
+      <c r="L26" s="5">
+        <v>3496.36</v>
+      </c>
+      <c r="M26" s="5">
+        <v>3496.36</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R26" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="5">
+        <v>243001</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="5">
+        <v>3500</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2499.6799999999998</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2499.6799999999998</v>
+      </c>
+      <c r="K27" s="5">
+        <v>2499.6799999999998</v>
+      </c>
+      <c r="L27" s="5">
+        <v>2499.6799999999998</v>
+      </c>
+      <c r="M27" s="5">
+        <v>2499.6799999999998</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R27" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C28" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F28" s="5">
+        <v>244001</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3500</v>
+      </c>
+      <c r="I28" s="5">
+        <v>3499.7200000000003</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3499.7200000000003</v>
+      </c>
+      <c r="K28" s="5">
+        <v>3499.7200000000003</v>
+      </c>
+      <c r="L28" s="5">
+        <v>3499.7200000000003</v>
+      </c>
+      <c r="M28" s="5">
+        <v>3499.7200000000003</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R28" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C29" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F29" s="5">
+        <v>245001</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="J29" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="K29" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="L29" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="M29" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R29" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F30" s="5">
+        <v>246001</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="5">
+        <v>90000</v>
+      </c>
+      <c r="I30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="J30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="K30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="L30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="M30" s="5">
+        <v>14991.84</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R30" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F31" s="5">
+        <v>246002</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="5">
+        <v>83710</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R31" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="5">
+        <v>247001</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="5">
+        <v>31000</v>
+      </c>
+      <c r="I32" s="5">
+        <v>10999.68</v>
+      </c>
+      <c r="J32" s="5">
+        <v>10999.68</v>
+      </c>
+      <c r="K32" s="5">
+        <v>10999.68</v>
+      </c>
+      <c r="L32" s="5">
+        <v>10999.68</v>
+      </c>
+      <c r="M32" s="5">
+        <v>10999.68</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R32" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="5">
+        <v>249001</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="5">
+        <v>47500</v>
+      </c>
+      <c r="I33" s="5">
+        <v>47481</v>
+      </c>
+      <c r="J33" s="5">
+        <v>47481</v>
+      </c>
+      <c r="K33" s="5">
+        <v>47481</v>
+      </c>
+      <c r="L33" s="5">
+        <v>47481</v>
+      </c>
+      <c r="M33" s="5">
+        <v>47481</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R33" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F34" s="5">
+        <v>251001</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="5">
+        <v>441500</v>
+      </c>
+      <c r="I34" s="5">
+        <v>322115.99</v>
+      </c>
+      <c r="J34" s="5">
+        <v>322115.99</v>
+      </c>
+      <c r="K34" s="5">
+        <v>322115.99</v>
+      </c>
+      <c r="L34" s="5">
+        <v>322115.99</v>
+      </c>
+      <c r="M34" s="5">
+        <v>322115.99</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R34" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C35" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="5">
+        <v>252001</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="J35" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="K35" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="L35" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="M35" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R35" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F36" s="5">
+        <v>253001</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="5">
+        <v>21072</v>
+      </c>
+      <c r="I36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="J36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="K36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="L36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="M36" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R36" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C37" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F37" s="5">
+        <v>254001</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="5">
+        <v>40204</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R37" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C38" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F38" s="5">
+        <v>255001</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="5">
+        <v>104000</v>
+      </c>
+      <c r="I38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="J38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="K38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="L38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="M38" s="5">
+        <v>26230.379999999997</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R38" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C39" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F39" s="5">
+        <v>256001</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="5">
+        <v>18500</v>
+      </c>
+      <c r="I39" s="5">
+        <v>12497.609999999999</v>
+      </c>
+      <c r="J39" s="5">
+        <v>12497.609999999999</v>
+      </c>
+      <c r="K39" s="5">
+        <v>12497.609999999999</v>
+      </c>
+      <c r="L39" s="5">
+        <v>12497.609999999999</v>
+      </c>
+      <c r="M39" s="5">
+        <v>12497.609999999999</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R39" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B40" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C40" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F40" s="5">
+        <v>259001</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="J40" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="K40" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="L40" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="M40" s="5">
+        <v>499.99</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R40" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C41" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2600</v>
+      </c>
+      <c r="F41" s="5">
+        <v>261001</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="5">
+        <v>68000</v>
+      </c>
+      <c r="I41" s="5">
+        <v>6371.85</v>
+      </c>
+      <c r="J41" s="5">
+        <v>6371.85</v>
+      </c>
+      <c r="K41" s="5">
+        <v>6371.85</v>
+      </c>
+      <c r="L41" s="5">
+        <v>6371.85</v>
+      </c>
+      <c r="M41" s="5">
+        <v>6371.85</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R41" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B42" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C42" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2700</v>
+      </c>
+      <c r="F42" s="5">
+        <v>271001</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R42" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2700</v>
+      </c>
+      <c r="F43" s="5">
+        <v>274001</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R43" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="5">
+        <v>291001</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="5">
+        <v>8000</v>
+      </c>
+      <c r="I44" s="5">
+        <v>7499.56</v>
+      </c>
+      <c r="J44" s="5">
+        <v>7499.56</v>
+      </c>
+      <c r="K44" s="5">
+        <v>7499.56</v>
+      </c>
+      <c r="L44" s="5">
+        <v>7499.56</v>
+      </c>
+      <c r="M44" s="5">
+        <v>7499.56</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R44" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F45" s="5">
+        <v>292001</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I45" s="5">
+        <v>9878.7999999999993</v>
+      </c>
+      <c r="J45" s="5">
+        <v>9878.7999999999993</v>
+      </c>
+      <c r="K45" s="5">
+        <v>9878.7999999999993</v>
+      </c>
+      <c r="L45" s="5">
+        <v>9878.7999999999993</v>
+      </c>
+      <c r="M45" s="5">
+        <v>9878.7999999999993</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R45" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F46" s="5">
+        <v>293001</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="5">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1999.84</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R46" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C47" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="5">
+        <v>294001</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="5">
+        <v>93000</v>
+      </c>
+      <c r="I47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="J47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="K47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="L47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="M47" s="5">
+        <v>15169.02</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R47" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C48" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="5">
+        <v>295001</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="5">
+        <v>4000</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R48" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C49" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="5">
+        <v>296001</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="5">
+        <v>11500</v>
+      </c>
+      <c r="I49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="K49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="M49" s="5">
+        <v>2465.44</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R49" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C50" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F50" s="5">
+        <v>298001</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="5">
+        <v>9000</v>
+      </c>
+      <c r="I50" s="5">
+        <v>4990.5599999999995</v>
+      </c>
+      <c r="J50" s="5">
+        <v>4990.5599999999995</v>
+      </c>
+      <c r="K50" s="5">
+        <v>4990.5599999999995</v>
+      </c>
+      <c r="L50" s="5">
+        <v>4990.5599999999995</v>
+      </c>
+      <c r="M50" s="5">
+        <v>4990.5599999999995</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R50" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C51" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F51" s="5">
+        <v>311001</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1155500</v>
+      </c>
+      <c r="I51" s="5">
+        <v>715792</v>
+      </c>
+      <c r="J51" s="5">
+        <v>715792</v>
+      </c>
+      <c r="K51" s="5">
+        <v>715792</v>
+      </c>
+      <c r="L51" s="5">
+        <v>715792</v>
+      </c>
+      <c r="M51" s="5">
+        <v>715792</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R51" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C52" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="5">
+        <v>313001</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="5">
+        <v>63544</v>
+      </c>
+      <c r="I52" s="5">
+        <v>73898.290000000008</v>
+      </c>
+      <c r="J52" s="5">
+        <v>73898.290000000008</v>
+      </c>
+      <c r="K52" s="5">
+        <v>73898.290000000008</v>
+      </c>
+      <c r="L52" s="5">
+        <v>73898.290000000008</v>
+      </c>
+      <c r="M52" s="5">
+        <v>73898.290000000008</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R52" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C53" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F53" s="5">
+        <v>314001</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="5">
+        <v>662400</v>
+      </c>
+      <c r="I53" s="5">
+        <v>548475.43999999994</v>
+      </c>
+      <c r="J53" s="5">
+        <v>548475.43999999994</v>
+      </c>
+      <c r="K53" s="5">
+        <v>548475.43999999994</v>
+      </c>
+      <c r="L53" s="5">
+        <v>548475.43999999994</v>
+      </c>
+      <c r="M53" s="5">
+        <v>548475.43999999994</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R53" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C54" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="5">
+        <v>317001</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="5">
+        <v>30450</v>
+      </c>
+      <c r="I54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="J54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="K54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="L54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="M54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R54" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C55" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F55" s="5">
+        <v>318001</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="5">
+        <v>7570</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="K55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="L55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="M55" s="5">
+        <v>3184.2799999999997</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R55" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C56" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3200</v>
+      </c>
+      <c r="F56" s="5">
+        <v>322001</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="5">
+        <v>292320</v>
+      </c>
+      <c r="I56" s="5">
+        <v>167040</v>
+      </c>
+      <c r="J56" s="5">
+        <v>167040</v>
+      </c>
+      <c r="K56" s="5">
+        <v>167040</v>
+      </c>
+      <c r="L56" s="5">
+        <v>167040</v>
+      </c>
+      <c r="M56" s="5">
+        <v>167040</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R56" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C57" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="5">
+        <v>323002</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="5">
+        <v>33750</v>
+      </c>
+      <c r="I57" s="5">
+        <v>25570.880000000001</v>
+      </c>
+      <c r="J57" s="5">
+        <v>25570.880000000001</v>
+      </c>
+      <c r="K57" s="5">
+        <v>25570.880000000001</v>
+      </c>
+      <c r="L57" s="5">
+        <v>25570.880000000001</v>
+      </c>
+      <c r="M57" s="5">
+        <v>25570.880000000001</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R57" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C58" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="5">
+        <v>326001</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" s="5">
+        <v>46000</v>
+      </c>
+      <c r="I58" s="5">
+        <v>7000</v>
+      </c>
+      <c r="J58" s="5">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="5">
+        <v>7000</v>
+      </c>
+      <c r="L58" s="5">
+        <v>7000</v>
+      </c>
+      <c r="M58" s="5">
+        <v>7000</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R58" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C59" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="5">
+        <v>331002</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="5">
+        <v>405647</v>
+      </c>
+      <c r="I59" s="5">
+        <v>253680</v>
+      </c>
+      <c r="J59" s="5">
+        <v>253680</v>
+      </c>
+      <c r="K59" s="5">
+        <v>253680</v>
+      </c>
+      <c r="L59" s="5">
+        <v>253680</v>
+      </c>
+      <c r="M59" s="5">
+        <v>253680</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R59" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C60" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="5">
+        <v>331003</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="5">
+        <v>251160</v>
+      </c>
+      <c r="I60" s="5">
+        <v>158149.97999999998</v>
+      </c>
+      <c r="J60" s="5">
+        <v>158149.97999999998</v>
+      </c>
+      <c r="K60" s="5">
+        <v>158149.97999999998</v>
+      </c>
+      <c r="L60" s="5">
+        <v>158149.97999999998</v>
+      </c>
+      <c r="M60" s="5">
+        <v>158149.97999999998</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R60" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C61" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="5">
+        <v>332001</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>46607.8</v>
+      </c>
+      <c r="J61" s="5">
+        <v>46607.8</v>
+      </c>
+      <c r="K61" s="5">
+        <v>46607.8</v>
+      </c>
+      <c r="L61" s="5">
+        <v>46607.8</v>
+      </c>
+      <c r="M61" s="5">
+        <v>46607.8</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R61" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B62" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C62" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="5">
+        <v>334001</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="5">
+        <v>298316</v>
+      </c>
+      <c r="I62" s="5">
+        <v>169725.3</v>
+      </c>
+      <c r="J62" s="5">
+        <v>169725.3</v>
+      </c>
+      <c r="K62" s="5">
+        <v>169725.3</v>
+      </c>
+      <c r="L62" s="5">
+        <v>169725.3</v>
+      </c>
+      <c r="M62" s="5">
+        <v>169725.3</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R62" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C63" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F63" s="5">
+        <v>336001</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="5">
+        <v>187000</v>
+      </c>
+      <c r="I63" s="5">
+        <v>46946.400000000001</v>
+      </c>
+      <c r="J63" s="5">
+        <v>46946.400000000001</v>
+      </c>
+      <c r="K63" s="5">
+        <v>46946.400000000001</v>
+      </c>
+      <c r="L63" s="5">
+        <v>46946.400000000001</v>
+      </c>
+      <c r="M63" s="5">
+        <v>46946.400000000001</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R63" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C64" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3300</v>
+      </c>
+      <c r="F64" s="5">
+        <v>338001</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1064997</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1324352.32</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1324352.32</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1324352.32</v>
+      </c>
+      <c r="L64" s="5">
+        <v>1324352.32</v>
+      </c>
+      <c r="M64" s="5">
+        <v>1324352.32</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R64" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C65" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3400</v>
+      </c>
+      <c r="F65" s="5">
+        <v>341001</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="5">
+        <v>5400</v>
+      </c>
+      <c r="I65" s="5">
+        <v>11116.59</v>
+      </c>
+      <c r="J65" s="5">
+        <v>11116.59</v>
+      </c>
+      <c r="K65" s="5">
+        <v>11116.59</v>
+      </c>
+      <c r="L65" s="5">
+        <v>11116.59</v>
+      </c>
+      <c r="M65" s="5">
+        <v>11116.59</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R65" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C66" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="5">
+        <v>345001</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="5">
+        <v>415700</v>
+      </c>
+      <c r="I66" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="J66" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="K66" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="L66" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="M66" s="5">
+        <v>112641.07</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R66" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C67" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F67" s="5">
+        <v>351001</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="5">
+        <v>96500</v>
+      </c>
+      <c r="I67" s="5">
+        <v>210353.54</v>
+      </c>
+      <c r="J67" s="5">
+        <v>210353.54</v>
+      </c>
+      <c r="K67" s="5">
+        <v>210353.54</v>
+      </c>
+      <c r="L67" s="5">
+        <v>210353.54</v>
+      </c>
+      <c r="M67" s="5">
+        <v>210353.54</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R67" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C68" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F68" s="5">
+        <v>352001</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" s="5">
+        <v>64407</v>
+      </c>
+      <c r="I68" s="5">
+        <v>23999.22</v>
+      </c>
+      <c r="J68" s="5">
+        <v>23999.22</v>
+      </c>
+      <c r="K68" s="5">
+        <v>23999.22</v>
+      </c>
+      <c r="L68" s="5">
+        <v>23999.22</v>
+      </c>
+      <c r="M68" s="5">
+        <v>15999.48</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R68" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C69" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F69" s="5">
+        <v>353001</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H69" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I69" s="5">
+        <v>9781.6</v>
+      </c>
+      <c r="J69" s="5">
+        <v>9781.6</v>
+      </c>
+      <c r="K69" s="5">
+        <v>9781.6</v>
+      </c>
+      <c r="L69" s="5">
+        <v>9781.6</v>
+      </c>
+      <c r="M69" s="5">
+        <v>9781.6</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R69" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S69" s="5"/>
+    </row>
+    <row r="70" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C70" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F70" s="5">
+        <v>354001</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="5">
+        <v>35000</v>
+      </c>
+      <c r="I70" s="5">
+        <v>17456</v>
+      </c>
+      <c r="J70" s="5">
+        <v>17456</v>
+      </c>
+      <c r="K70" s="5">
+        <v>17456</v>
+      </c>
+      <c r="L70" s="5">
+        <v>17456</v>
+      </c>
+      <c r="M70" s="5">
+        <v>17456</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R70" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S70" s="5"/>
+    </row>
+    <row r="71" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B71" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C71" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F71" s="5">
+        <v>355001</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="5">
+        <v>80000</v>
+      </c>
+      <c r="I71" s="5">
+        <v>34072.58</v>
+      </c>
+      <c r="J71" s="5">
+        <v>34072.58</v>
+      </c>
+      <c r="K71" s="5">
+        <v>34072.58</v>
+      </c>
+      <c r="L71" s="5">
+        <v>34072.58</v>
+      </c>
+      <c r="M71" s="5">
+        <v>34072.58</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R71" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S71" s="5"/>
+    </row>
+    <row r="72" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B72" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C72" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F72" s="5">
+        <v>357001</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H72" s="5">
+        <v>33706</v>
+      </c>
+      <c r="I72" s="5">
+        <v>260051.84</v>
+      </c>
+      <c r="J72" s="5">
+        <v>260051.84</v>
+      </c>
+      <c r="K72" s="5">
+        <v>260051.84</v>
+      </c>
+      <c r="L72" s="5">
+        <v>260051.84</v>
+      </c>
+      <c r="M72" s="5">
+        <v>260051.84</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R72" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S72" s="5"/>
+    </row>
+    <row r="73" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B73" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C73" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F73" s="5">
+        <v>358001</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="5">
+        <v>900000</v>
+      </c>
+      <c r="I73" s="5">
+        <v>388665.19</v>
+      </c>
+      <c r="J73" s="5">
+        <v>388665.19</v>
+      </c>
+      <c r="K73" s="5">
+        <v>388665.19</v>
+      </c>
+      <c r="L73" s="5">
+        <v>388665.19</v>
+      </c>
+      <c r="M73" s="5">
+        <v>388665.19</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R73" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S73" s="5"/>
+    </row>
+    <row r="74" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C74" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E74" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F74" s="5">
+        <v>359001</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H74" s="5">
+        <v>28600</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+      <c r="M74" s="5">
+        <v>0</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R74" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S74" s="5"/>
+    </row>
+    <row r="75" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B75" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C75" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3600</v>
+      </c>
+      <c r="F75" s="5">
+        <v>361002</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I75" s="5">
+        <v>46807</v>
+      </c>
+      <c r="J75" s="5">
+        <v>46807</v>
+      </c>
+      <c r="K75" s="5">
+        <v>46807</v>
+      </c>
+      <c r="L75" s="5">
+        <v>46807</v>
+      </c>
+      <c r="M75" s="5">
+        <v>46807</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R75" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B76" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C76" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D76" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="5">
+        <v>3600</v>
+      </c>
+      <c r="F76" s="5">
+        <v>362001</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="5">
+        <v>7508</v>
+      </c>
+      <c r="I76" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="J76" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="K76" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="L76" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="M76" s="5">
+        <v>9237.56</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R76" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S76" s="5"/>
+    </row>
+    <row r="77" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B77" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C77" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D77" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3700</v>
+      </c>
+      <c r="F77" s="5">
+        <v>372001</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="5">
+        <v>38000</v>
+      </c>
+      <c r="I77" s="5">
+        <v>240</v>
+      </c>
+      <c r="J77" s="5">
+        <v>240</v>
+      </c>
+      <c r="K77" s="5">
+        <v>240</v>
+      </c>
+      <c r="L77" s="5">
+        <v>240</v>
+      </c>
+      <c r="M77" s="5">
+        <v>240</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R77" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S77" s="5"/>
+    </row>
+    <row r="78" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B78" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C78" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3700</v>
+      </c>
+      <c r="F78" s="5">
+        <v>375001</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H78" s="5">
+        <v>70000</v>
+      </c>
+      <c r="I78" s="5">
+        <v>18695.3</v>
+      </c>
+      <c r="J78" s="5">
+        <v>18695.3</v>
+      </c>
+      <c r="K78" s="5">
+        <v>18695.3</v>
+      </c>
+      <c r="L78" s="5">
+        <v>18695.3</v>
+      </c>
+      <c r="M78" s="5">
+        <v>18695.3</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R78" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S78" s="5"/>
+    </row>
+    <row r="79" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B79" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C79" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D79" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E79" s="5">
+        <v>3800</v>
+      </c>
+      <c r="F79" s="5">
+        <v>381001</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="5">
+        <v>135000</v>
+      </c>
+      <c r="I79" s="5">
+        <v>59982.16</v>
+      </c>
+      <c r="J79" s="5">
+        <v>59982.16</v>
+      </c>
+      <c r="K79" s="5">
+        <v>59982.16</v>
+      </c>
+      <c r="L79" s="5">
+        <v>59982.16</v>
+      </c>
+      <c r="M79" s="5">
+        <v>59982.16</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R79" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S79" s="5"/>
+    </row>
+    <row r="80" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B80" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C80" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D80" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E80" s="5">
+        <v>3800</v>
+      </c>
+      <c r="F80" s="5">
+        <v>382001</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" s="5">
+        <v>38000</v>
+      </c>
+      <c r="I80" s="5">
+        <v>42496.08</v>
+      </c>
+      <c r="J80" s="5">
+        <v>42496.08</v>
+      </c>
+      <c r="K80" s="5">
+        <v>42496.08</v>
+      </c>
+      <c r="L80" s="5">
+        <v>42496.08</v>
+      </c>
+      <c r="M80" s="5">
+        <v>42496.08</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R80" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B81" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C81" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3900</v>
+      </c>
+      <c r="F81" s="5">
+        <v>392001</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H81" s="5">
+        <v>43365</v>
+      </c>
+      <c r="I81" s="5">
+        <v>15732.879999999963</v>
+      </c>
+      <c r="J81" s="5">
+        <v>15732.879999999963</v>
+      </c>
+      <c r="K81" s="5">
+        <v>15732.879999999963</v>
+      </c>
+      <c r="L81" s="5">
+        <v>15732.879999999963</v>
+      </c>
+      <c r="M81" s="5">
+        <v>15732.879999999963</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R81" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B82" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C82" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E82" s="5">
+        <v>3900</v>
+      </c>
+      <c r="F82" s="5">
+        <v>392006</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" s="5">
+        <v>694600</v>
+      </c>
+      <c r="I82" s="5">
+        <v>592353.52</v>
+      </c>
+      <c r="J82" s="5">
+        <v>592353.52</v>
+      </c>
+      <c r="K82" s="5">
+        <v>592353.52</v>
+      </c>
+      <c r="L82" s="5">
+        <v>592353.52</v>
+      </c>
+      <c r="M82" s="5">
+        <v>592353.52</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O82" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R82" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B83" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C83" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3900</v>
+      </c>
+      <c r="F83" s="5">
+        <v>398001</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1912831</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1861088.0499999998</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1861088.0499999998</v>
+      </c>
+      <c r="K83" s="5">
+        <v>1861088.0499999998</v>
+      </c>
+      <c r="L83" s="5">
+        <v>1861088.0499999998</v>
+      </c>
+      <c r="M83" s="5">
+        <v>1861088.0499999998</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R83" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B84" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C84" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D84" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E84" s="5">
+        <v>4400</v>
+      </c>
+      <c r="F84" s="5">
+        <v>442001</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="5">
+        <v>84000</v>
+      </c>
+      <c r="I84" s="5">
+        <v>11194</v>
+      </c>
+      <c r="J84" s="5">
+        <v>11194</v>
+      </c>
+      <c r="K84" s="5">
+        <v>11194</v>
+      </c>
+      <c r="L84" s="5">
+        <v>11194</v>
+      </c>
+      <c r="M84" s="5">
+        <v>11194</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R84" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B85" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C85" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D85" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E85" s="5">
+        <v>5100</v>
+      </c>
+      <c r="F85" s="5">
+        <v>515001</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="5">
+        <v>40000</v>
+      </c>
+      <c r="I85" s="5">
+        <v>40000</v>
+      </c>
+      <c r="J85" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K85" s="5">
+        <v>40000</v>
+      </c>
+      <c r="L85" s="5">
+        <v>40000</v>
+      </c>
+      <c r="M85" s="5">
+        <v>40000</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R85" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B86" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C86" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D86" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E86" s="5">
+        <v>5600</v>
+      </c>
+      <c r="F86" s="5">
+        <v>569001</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" s="5">
+        <v>84000</v>
+      </c>
+      <c r="I86" s="5">
+        <v>28768</v>
+      </c>
+      <c r="J86" s="5">
+        <v>28768</v>
+      </c>
+      <c r="K86" s="5">
+        <v>28768</v>
+      </c>
+      <c r="L86" s="5">
+        <v>28768</v>
+      </c>
+      <c r="M86" s="5">
+        <v>28768</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R86" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B87" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C87" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D87" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E87" s="5">
+        <v>5900</v>
+      </c>
+      <c r="F87" s="5">
+        <v>597001</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H87" s="5">
+        <v>612000</v>
+      </c>
+      <c r="I87" s="5">
+        <v>130000</v>
+      </c>
+      <c r="J87" s="5">
+        <v>130000</v>
+      </c>
+      <c r="K87" s="5">
+        <v>130000</v>
+      </c>
+      <c r="L87" s="5">
+        <v>130000</v>
+      </c>
+      <c r="M87" s="5">
+        <v>130000</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>44480</v>
+      </c>
+      <c r="R87" s="6">
+        <v>44480</v>
+      </c>
+      <c r="S87" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -875,7 +5648,89 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1"/>
+    <hyperlink ref="O9" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O11" r:id="rId4"/>
+    <hyperlink ref="O12" r:id="rId5"/>
+    <hyperlink ref="O13" r:id="rId6"/>
+    <hyperlink ref="O14" r:id="rId7"/>
+    <hyperlink ref="O15" r:id="rId8"/>
+    <hyperlink ref="O16" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
+    <hyperlink ref="O18" r:id="rId11"/>
+    <hyperlink ref="O19" r:id="rId12"/>
+    <hyperlink ref="O20" r:id="rId13"/>
+    <hyperlink ref="O21" r:id="rId14"/>
+    <hyperlink ref="O22" r:id="rId15"/>
+    <hyperlink ref="O23" r:id="rId16"/>
+    <hyperlink ref="O24" r:id="rId17"/>
+    <hyperlink ref="O25" r:id="rId18"/>
+    <hyperlink ref="O26" r:id="rId19"/>
+    <hyperlink ref="O27" r:id="rId20"/>
+    <hyperlink ref="O28" r:id="rId21"/>
+    <hyperlink ref="O29" r:id="rId22"/>
+    <hyperlink ref="O30" r:id="rId23"/>
+    <hyperlink ref="O31" r:id="rId24"/>
+    <hyperlink ref="O32" r:id="rId25"/>
+    <hyperlink ref="O33" r:id="rId26"/>
+    <hyperlink ref="O34" r:id="rId27"/>
+    <hyperlink ref="O35" r:id="rId28"/>
+    <hyperlink ref="O36" r:id="rId29"/>
+    <hyperlink ref="O37" r:id="rId30"/>
+    <hyperlink ref="O38" r:id="rId31"/>
+    <hyperlink ref="O39" r:id="rId32"/>
+    <hyperlink ref="O40" r:id="rId33"/>
+    <hyperlink ref="O41" r:id="rId34"/>
+    <hyperlink ref="O42" r:id="rId35"/>
+    <hyperlink ref="O43" r:id="rId36"/>
+    <hyperlink ref="O44" r:id="rId37"/>
+    <hyperlink ref="O45" r:id="rId38"/>
+    <hyperlink ref="O46" r:id="rId39"/>
+    <hyperlink ref="O47" r:id="rId40"/>
+    <hyperlink ref="O48" r:id="rId41"/>
+    <hyperlink ref="O49" r:id="rId42"/>
+    <hyperlink ref="O50" r:id="rId43"/>
+    <hyperlink ref="O51" r:id="rId44"/>
+    <hyperlink ref="O52" r:id="rId45"/>
+    <hyperlink ref="O53" r:id="rId46"/>
+    <hyperlink ref="O54" r:id="rId47"/>
+    <hyperlink ref="O55" r:id="rId48"/>
+    <hyperlink ref="O56" r:id="rId49"/>
+    <hyperlink ref="O57" r:id="rId50"/>
+    <hyperlink ref="O58" r:id="rId51"/>
+    <hyperlink ref="O59" r:id="rId52"/>
+    <hyperlink ref="O60" r:id="rId53"/>
+    <hyperlink ref="O61" r:id="rId54"/>
+    <hyperlink ref="O62" r:id="rId55"/>
+    <hyperlink ref="O63" r:id="rId56"/>
+    <hyperlink ref="O64" r:id="rId57"/>
+    <hyperlink ref="O65" r:id="rId58"/>
+    <hyperlink ref="O66" r:id="rId59"/>
+    <hyperlink ref="O67" r:id="rId60"/>
+    <hyperlink ref="O68" r:id="rId61"/>
+    <hyperlink ref="O69" r:id="rId62"/>
+    <hyperlink ref="O70" r:id="rId63"/>
+    <hyperlink ref="O71" r:id="rId64"/>
+    <hyperlink ref="O72" r:id="rId65"/>
+    <hyperlink ref="O73" r:id="rId66"/>
+    <hyperlink ref="O74" r:id="rId67"/>
+    <hyperlink ref="O75" r:id="rId68"/>
+    <hyperlink ref="O76" r:id="rId69"/>
+    <hyperlink ref="O77" r:id="rId70"/>
+    <hyperlink ref="O78" r:id="rId71"/>
+    <hyperlink ref="O79" r:id="rId72"/>
+    <hyperlink ref="O80" r:id="rId73"/>
+    <hyperlink ref="O81" r:id="rId74"/>
+    <hyperlink ref="O82" r:id="rId75"/>
+    <hyperlink ref="O83" r:id="rId76"/>
+    <hyperlink ref="O84" r:id="rId77"/>
+    <hyperlink ref="O85" r:id="rId78"/>
+    <hyperlink ref="O86" r:id="rId79"/>
+    <hyperlink ref="O87" r:id="rId80"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="124">
   <si>
     <t>46622</t>
   </si>
@@ -180,17 +187,224 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Recalendarización del Presupuesto</t>
+  </si>
+  <si>
     <t>Subdirección de Planeacion y Presupesto (UPP)</t>
   </si>
   <si>
-    <t>Derivado del Cierre financiero - presupuestal que se trabaja de manera  coordinada entre planeación y administración para la entrega y preparación de información ante las diversas dependencias fiscalizadoras , en apego al artículo 15 de la ley de fiscalización superior y rendición de cuenta de estado de hidalgo,  correlativamente con la fracción V del artículo 28 de la misma ley se establecen como fecha de entrega  los siete días hábiles siguientes al cierre del trimestre.  Así también dentro del convenio especifico para la  asignación de recursos con carácter de apoyo solidario firmado entre la federación y el estado en su cláusula sexta fracción "f" donde obliga la entrega de los estados financieros dentro de los primeros diez días hábiles a la coordinación de universidades tecnológicas y politécnicas. Motivo por el cual estaremos entregando la información con cifras definitivas, el 28 de enero del año en curso.</t>
+    <t>Honorarios asimilables a salarios</t>
+  </si>
+  <si>
+    <t>Prima Vacacional y dominical</t>
+  </si>
+  <si>
+    <t>Gratificación Anual</t>
+  </si>
+  <si>
+    <t>Aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al Seguro de Cesantía en Edad Avanzada y Vejez</t>
+  </si>
+  <si>
+    <t>Aportaciones a FOVISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al SAR</t>
+  </si>
+  <si>
+    <t>Gastos de Oficina</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicinas y Productos Farmacéuticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicios de Conducción de Señales</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de edificios</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería y fumigación</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Licencias informáticas e intelectuales</t>
+  </si>
+  <si>
+    <t>Materiales y útiles consumibles para el procesamiento en equipos y bienes informáticos</t>
+  </si>
+  <si>
+    <t>Prendas de seguridad y protección personal</t>
+  </si>
+  <si>
+    <t>Artículos deportivos</t>
+  </si>
+  <si>
+    <t>Pasajes aéreos</t>
+  </si>
+  <si>
+    <t>Bienes informáticos</t>
+  </si>
+  <si>
+    <t>Transferencias internas otorgadas a entidades paraestatales no empresariales y no financieras</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_marzo_2022/04.estadopresupuestoegresos-cap-gto.pdf</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_marzo_2022/04.estadopresupuestoegresos-cap-gto.pdfV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,11 +417,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -228,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -251,11 +475,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -266,22 +500,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,11 +818,11 @@
     <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="83" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="81.140625" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -611,7 +847,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -622,11 +858,11 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -828,40 +1064,3808 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+        <v>44651</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>113001</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2">
+        <v>21038870</v>
+      </c>
+      <c r="I8" s="2">
+        <v>18403210.890000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>18403210.890000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>18403210.890000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>18403210.890000001</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18403210.890000001</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="P8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="R8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>44659</v>
+      </c>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="2">
+        <v>121001</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1295412</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1193033.01</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1193033.01</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1193033.01</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1193033.01</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1193033.01</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R9" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="2">
+        <v>132001</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20500</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2741.5299999999997</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2741.5299999999997</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2741.5299999999997</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2741.5299999999997</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2741.5299999999997</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R10" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="2">
+        <v>132002</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1404549</v>
+      </c>
+      <c r="I11" s="2">
+        <v>28642.889999999996</v>
+      </c>
+      <c r="J11" s="2">
+        <v>28642.889999999996</v>
+      </c>
+      <c r="K11" s="2">
+        <v>28642.889999999996</v>
+      </c>
+      <c r="L11" s="2">
+        <v>28642.889999999996</v>
+      </c>
+      <c r="M11" s="2">
+        <v>28642.889999999996</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R11" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="2">
+        <v>141001</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2072970</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1990390.71</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1990390.71</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1990390.71</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1990390.71</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1990390.71</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R12" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="2">
+        <v>141004</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2">
+        <v>660148</v>
+      </c>
+      <c r="I13" s="2">
+        <v>582273.65</v>
+      </c>
+      <c r="J13" s="2">
+        <v>582273.65</v>
+      </c>
+      <c r="K13" s="2">
+        <v>582273.65</v>
+      </c>
+      <c r="L13" s="2">
+        <v>582273.65</v>
+      </c>
+      <c r="M13" s="2">
+        <v>582273.65</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R13" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="2">
+        <v>142001</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1039604</v>
+      </c>
+      <c r="I14" s="2">
+        <v>916966.29</v>
+      </c>
+      <c r="J14" s="2">
+        <v>916966.29</v>
+      </c>
+      <c r="K14" s="2">
+        <v>916966.29</v>
+      </c>
+      <c r="L14" s="2">
+        <v>916966.29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>916966.29</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R14" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="2">
+        <v>143001</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2">
+        <v>455482</v>
+      </c>
+      <c r="I15" s="2">
+        <v>366785.52</v>
+      </c>
+      <c r="J15" s="2">
+        <v>366785.52</v>
+      </c>
+      <c r="K15" s="2">
+        <v>366785.52</v>
+      </c>
+      <c r="L15" s="2">
+        <v>366785.52</v>
+      </c>
+      <c r="M15" s="2">
+        <v>366785.52</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R15" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F16" s="2">
+        <v>211002</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1485.01</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1485.01</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1485.01</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1485.01</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1485.01</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R16" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>214001</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="2">
+        <v>11750</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R17" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="2">
+        <v>216001</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2">
+        <v>25000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>14917.599999999999</v>
+      </c>
+      <c r="J18" s="2">
+        <v>14917.599999999999</v>
+      </c>
+      <c r="K18" s="2">
+        <v>14917.599999999999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>14917.599999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>14917.599999999999</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R18" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2200</v>
+      </c>
+      <c r="F19" s="2">
+        <v>222001</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44840.6</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44840.6</v>
+      </c>
+      <c r="K19" s="2">
+        <v>44840.6</v>
+      </c>
+      <c r="L19" s="2">
+        <v>44840.6</v>
+      </c>
+      <c r="M19" s="2">
+        <v>44840.6</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R19" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="2">
+        <v>242001</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2">
+        <v>600</v>
+      </c>
+      <c r="I20" s="2">
+        <v>599.72</v>
+      </c>
+      <c r="J20" s="2">
+        <v>599.72</v>
+      </c>
+      <c r="K20" s="2">
+        <v>599.72</v>
+      </c>
+      <c r="L20" s="2">
+        <v>599.72</v>
+      </c>
+      <c r="M20" s="2">
+        <v>599.72</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R20" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F21" s="2">
+        <v>243001</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="J21" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="K21" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="L21" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="M21" s="2">
+        <v>999.98</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R21" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F22" s="2">
+        <v>244001</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="2">
+        <v>500</v>
+      </c>
+      <c r="I22" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="K22" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="L22" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="M22" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R22" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F23" s="2">
+        <v>246001</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="2">
+        <v>11000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9958.6</v>
+      </c>
+      <c r="J23" s="2">
+        <v>9958.6</v>
+      </c>
+      <c r="K23" s="2">
+        <v>9958.6</v>
+      </c>
+      <c r="L23" s="2">
+        <v>9958.6</v>
+      </c>
+      <c r="M23" s="2">
+        <v>9958.6</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R23" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="2">
+        <v>247001</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2">
+        <v>35520</v>
+      </c>
+      <c r="I24" s="2">
+        <v>35515.31</v>
+      </c>
+      <c r="J24" s="2">
+        <v>35515.31</v>
+      </c>
+      <c r="K24" s="2">
+        <v>35515.31</v>
+      </c>
+      <c r="L24" s="2">
+        <v>35515.31</v>
+      </c>
+      <c r="M24" s="2">
+        <v>35515.31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R24" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="2">
+        <v>249001</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="2">
+        <v>11200</v>
+      </c>
+      <c r="I25" s="2">
+        <v>11145.279999999999</v>
+      </c>
+      <c r="J25" s="2">
+        <v>11145.279999999999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>11145.279999999999</v>
+      </c>
+      <c r="L25" s="2">
+        <v>11145.279999999999</v>
+      </c>
+      <c r="M25" s="2">
+        <v>11145.279999999999</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R25" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="2">
+        <v>251001</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="2">
+        <v>90110</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R26" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="2">
+        <v>252001</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="2">
+        <v>500</v>
+      </c>
+      <c r="I27" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="J27" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="K27" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="L27" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="M27" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R27" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F28" s="2">
+        <v>253001</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="2">
+        <v>36500</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1481.32</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R28" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F29" s="2">
+        <v>254001</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="2">
+        <v>17500</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2499.8000000000002</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2499.8000000000002</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2499.8000000000002</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2499.8000000000002</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2499.8000000000002</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R29" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F30" s="2">
+        <v>256001</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="2">
+        <v>80000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R30" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F31" s="2">
+        <v>259001</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="2">
+        <v>500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>499.98</v>
+      </c>
+      <c r="J31" s="2">
+        <v>499.98</v>
+      </c>
+      <c r="K31" s="2">
+        <v>499.98</v>
+      </c>
+      <c r="L31" s="2">
+        <v>499.98</v>
+      </c>
+      <c r="M31" s="2">
+        <v>499.98</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R31" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2600</v>
+      </c>
+      <c r="F32" s="2">
+        <v>261001</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4116</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4116</v>
+      </c>
+      <c r="K32" s="2">
+        <v>4116</v>
+      </c>
+      <c r="L32" s="2">
+        <v>4116</v>
+      </c>
+      <c r="M32" s="2">
+        <v>4116</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R32" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F33" s="2">
+        <v>271001</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4000.03</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4000.03</v>
+      </c>
+      <c r="K33" s="2">
+        <v>4000.03</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4000.03</v>
+      </c>
+      <c r="M33" s="2">
+        <v>4000.03</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R33" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F34" s="2">
+        <v>272001</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3998.52</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3998.52</v>
+      </c>
+      <c r="K34" s="2">
+        <v>3998.52</v>
+      </c>
+      <c r="L34" s="2">
+        <v>3998.52</v>
+      </c>
+      <c r="M34" s="2">
+        <v>3998.52</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R34" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F35" s="2">
+        <v>273001</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="L35" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="M35" s="2">
+        <v>2992.8</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R35" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F36" s="2">
+        <v>291001</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1991.72</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R36" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F37" s="2">
+        <v>292001</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="2">
+        <v>500</v>
+      </c>
+      <c r="I37" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="J37" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="K37" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="L37" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="M37" s="2">
+        <v>498.8</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R37" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F38" s="2">
+        <v>294001</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="2">
+        <v>132200</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1997.99</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1997.99</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1997.99</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1997.99</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1997.99</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R38" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F39" s="2">
+        <v>295001</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>14987.2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>14987.2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>14987.2</v>
+      </c>
+      <c r="L39" s="2">
+        <v>14987.2</v>
+      </c>
+      <c r="M39" s="2">
+        <v>14987.2</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R39" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F40" s="2">
+        <v>296001</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="2">
+        <v>625.07999999999993</v>
+      </c>
+      <c r="J40" s="2">
+        <v>625.07999999999993</v>
+      </c>
+      <c r="K40" s="2">
+        <v>625.07999999999993</v>
+      </c>
+      <c r="L40" s="2">
+        <v>625.07999999999993</v>
+      </c>
+      <c r="M40" s="2">
+        <v>625.07999999999993</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R40" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F41" s="2">
+        <v>298001</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R41" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F42" s="2">
+        <v>311001</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="2">
+        <v>330000</v>
+      </c>
+      <c r="I42" s="2">
+        <v>338313</v>
+      </c>
+      <c r="J42" s="2">
+        <v>338313</v>
+      </c>
+      <c r="K42" s="2">
+        <v>338313</v>
+      </c>
+      <c r="L42" s="2">
+        <v>338313</v>
+      </c>
+      <c r="M42" s="2">
+        <v>338313</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R42" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F43" s="2">
+        <v>313001</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="2">
+        <v>21000</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8763.5300000000007</v>
+      </c>
+      <c r="J43" s="2">
+        <v>8763.5300000000007</v>
+      </c>
+      <c r="K43" s="2">
+        <v>8763.5300000000007</v>
+      </c>
+      <c r="L43" s="2">
+        <v>8763.5300000000007</v>
+      </c>
+      <c r="M43" s="2">
+        <v>8763.5300000000007</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R43" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F44" s="2">
+        <v>314001</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="2">
+        <v>182619</v>
+      </c>
+      <c r="I44" s="2">
+        <v>180972</v>
+      </c>
+      <c r="J44" s="2">
+        <v>180972</v>
+      </c>
+      <c r="K44" s="2">
+        <v>180972</v>
+      </c>
+      <c r="L44" s="2">
+        <v>180972</v>
+      </c>
+      <c r="M44" s="2">
+        <v>180972</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R44" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F45" s="2">
+        <v>317001</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="2">
+        <v>15250</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R45" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F46" s="2">
+        <v>318001</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R46" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F47" s="2">
+        <v>322001</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="2">
+        <v>60000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>37120</v>
+      </c>
+      <c r="J47" s="2">
+        <v>37120</v>
+      </c>
+      <c r="K47" s="2">
+        <v>37120</v>
+      </c>
+      <c r="L47" s="2">
+        <v>37120</v>
+      </c>
+      <c r="M47" s="2">
+        <v>37120</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R47" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F48" s="2">
+        <v>323002</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I48" s="2">
+        <v>5846.4</v>
+      </c>
+      <c r="J48" s="2">
+        <v>5846.4</v>
+      </c>
+      <c r="K48" s="2">
+        <v>5846.4</v>
+      </c>
+      <c r="L48" s="2">
+        <v>5846.4</v>
+      </c>
+      <c r="M48" s="2">
+        <v>5846.4</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R48" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F49" s="2">
+        <v>326001</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R49" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F50" s="2">
+        <v>331002</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="2">
+        <v>100500</v>
+      </c>
+      <c r="I50" s="2">
+        <v>38280</v>
+      </c>
+      <c r="J50" s="2">
+        <v>38280</v>
+      </c>
+      <c r="K50" s="2">
+        <v>38280</v>
+      </c>
+      <c r="L50" s="2">
+        <v>38280</v>
+      </c>
+      <c r="M50" s="2">
+        <v>38280</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R50" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F51" s="2">
+        <v>331003</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I51" s="2">
+        <v>30000</v>
+      </c>
+      <c r="J51" s="2">
+        <v>30000</v>
+      </c>
+      <c r="K51" s="2">
+        <v>30000</v>
+      </c>
+      <c r="L51" s="2">
+        <v>30000</v>
+      </c>
+      <c r="M51" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R51" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F52" s="2">
+        <v>336001</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="2">
+        <v>9000</v>
+      </c>
+      <c r="I52" s="2">
+        <v>7194.08</v>
+      </c>
+      <c r="J52" s="2">
+        <v>7194.08</v>
+      </c>
+      <c r="K52" s="2">
+        <v>7194.08</v>
+      </c>
+      <c r="L52" s="2">
+        <v>7194.08</v>
+      </c>
+      <c r="M52" s="2">
+        <v>7194.08</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R52" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F53" s="2">
+        <v>338001</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="2">
+        <v>465105</v>
+      </c>
+      <c r="I53" s="2">
+        <v>442955.53</v>
+      </c>
+      <c r="J53" s="2">
+        <v>442955.53</v>
+      </c>
+      <c r="K53" s="2">
+        <v>442955.53</v>
+      </c>
+      <c r="L53" s="2">
+        <v>442955.53</v>
+      </c>
+      <c r="M53" s="2">
+        <v>442955.53</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R53" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="2">
+        <v>341001</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I54" s="2">
+        <v>28988.399999999998</v>
+      </c>
+      <c r="J54" s="2">
+        <v>28988.399999999998</v>
+      </c>
+      <c r="K54" s="2">
+        <v>28988.399999999998</v>
+      </c>
+      <c r="L54" s="2">
+        <v>28988.399999999998</v>
+      </c>
+      <c r="M54" s="2">
+        <v>28988.399999999998</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R54" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F55" s="2">
+        <v>345001</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" s="2">
+        <v>205000</v>
+      </c>
+      <c r="I55" s="2">
+        <v>110815.01999999999</v>
+      </c>
+      <c r="J55" s="2">
+        <v>110815.01999999999</v>
+      </c>
+      <c r="K55" s="2">
+        <v>110815.01999999999</v>
+      </c>
+      <c r="L55" s="2">
+        <v>110815.01999999999</v>
+      </c>
+      <c r="M55" s="2">
+        <v>110815.01999999999</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R55" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F56" s="2">
+        <v>351001</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R56" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F57" s="2">
+        <v>352001</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2500</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R57" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F58" s="2">
+        <v>353001</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R58" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="2">
+        <v>354001</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R59" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="2">
+        <v>355001</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="2">
+        <v>15000</v>
+      </c>
+      <c r="I60" s="2">
+        <v>7878.74</v>
+      </c>
+      <c r="J60" s="2">
+        <v>7878.74</v>
+      </c>
+      <c r="K60" s="2">
+        <v>7878.74</v>
+      </c>
+      <c r="L60" s="2">
+        <v>7878.74</v>
+      </c>
+      <c r="M60" s="2">
+        <v>7878.74</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R60" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F61" s="2">
+        <v>357001</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R61" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F62" s="2">
+        <v>358001</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R62" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F63" s="2">
+        <v>359001</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R63" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3600</v>
+      </c>
+      <c r="F64" s="2">
+        <v>361002</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I64" s="2">
+        <v>25979</v>
+      </c>
+      <c r="J64" s="2">
+        <v>25979</v>
+      </c>
+      <c r="K64" s="2">
+        <v>25979</v>
+      </c>
+      <c r="L64" s="2">
+        <v>25979</v>
+      </c>
+      <c r="M64" s="2">
+        <v>25979</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R64" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F65" s="2">
+        <v>371001</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="2">
+        <v>7000</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R65" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F66" s="2">
+        <v>375001</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="2">
+        <v>3177</v>
+      </c>
+      <c r="J66" s="2">
+        <v>3177</v>
+      </c>
+      <c r="K66" s="2">
+        <v>3177</v>
+      </c>
+      <c r="L66" s="2">
+        <v>3177</v>
+      </c>
+      <c r="M66" s="2">
+        <v>3177</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R66" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F67" s="2">
+        <v>382001</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I67" s="2">
+        <v>30048.81</v>
+      </c>
+      <c r="J67" s="2">
+        <v>30048.81</v>
+      </c>
+      <c r="K67" s="2">
+        <v>30048.81</v>
+      </c>
+      <c r="L67" s="2">
+        <v>30048.81</v>
+      </c>
+      <c r="M67" s="2">
+        <v>30048.81</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R67" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F68" s="2">
+        <v>392001</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H68" s="2">
+        <v>14714</v>
+      </c>
+      <c r="I68" s="2">
+        <v>2388.94</v>
+      </c>
+      <c r="J68" s="2">
+        <v>2388.94</v>
+      </c>
+      <c r="K68" s="2">
+        <v>2388.94</v>
+      </c>
+      <c r="L68" s="2">
+        <v>2388.94</v>
+      </c>
+      <c r="M68" s="2">
+        <v>2388.94</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R68" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F69" s="2">
+        <v>392006</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="2">
+        <v>258275</v>
+      </c>
+      <c r="I69" s="2">
+        <v>150174.39999999999</v>
+      </c>
+      <c r="J69" s="2">
+        <v>150174.39999999999</v>
+      </c>
+      <c r="K69" s="2">
+        <v>150174.39999999999</v>
+      </c>
+      <c r="L69" s="2">
+        <v>150174.39999999999</v>
+      </c>
+      <c r="M69" s="2">
+        <v>150174.39999999999</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R69" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F70" s="2">
+        <v>398001</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="2">
+        <v>592563</v>
+      </c>
+      <c r="I70" s="2">
+        <v>547587.71</v>
+      </c>
+      <c r="J70" s="2">
+        <v>547587.71</v>
+      </c>
+      <c r="K70" s="2">
+        <v>547587.71</v>
+      </c>
+      <c r="L70" s="2">
+        <v>547587.71</v>
+      </c>
+      <c r="M70" s="2">
+        <v>547587.71</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R70" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E71" s="2">
+        <v>4100</v>
+      </c>
+      <c r="F71" s="2">
+        <v>415001</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1266483</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R71" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E72" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F72" s="2">
+        <v>442001</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" s="2">
+        <v>110000</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R72" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E73" s="2">
+        <v>5100</v>
+      </c>
+      <c r="F73" s="2">
+        <v>515001</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H73" s="2">
+        <v>220000</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R73" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D74" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>5900</v>
+      </c>
+      <c r="F74" s="2">
+        <v>597001</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="2">
+        <v>205330</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>44659</v>
+      </c>
+      <c r="R74" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S74" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -873,7 +4877,75 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1"/>
+    <hyperlink ref="O9" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O11" r:id="rId4"/>
+    <hyperlink ref="O12" r:id="rId5"/>
+    <hyperlink ref="O13" r:id="rId6"/>
+    <hyperlink ref="O14" r:id="rId7"/>
+    <hyperlink ref="O15" r:id="rId8"/>
+    <hyperlink ref="O16" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
+    <hyperlink ref="O18" r:id="rId11"/>
+    <hyperlink ref="O19" r:id="rId12"/>
+    <hyperlink ref="O20" r:id="rId13"/>
+    <hyperlink ref="O21" r:id="rId14"/>
+    <hyperlink ref="O22" r:id="rId15"/>
+    <hyperlink ref="O23" r:id="rId16"/>
+    <hyperlink ref="O24" r:id="rId17"/>
+    <hyperlink ref="O25" r:id="rId18"/>
+    <hyperlink ref="O26" r:id="rId19"/>
+    <hyperlink ref="O27" r:id="rId20"/>
+    <hyperlink ref="O28" r:id="rId21"/>
+    <hyperlink ref="O29" r:id="rId22"/>
+    <hyperlink ref="O30" r:id="rId23"/>
+    <hyperlink ref="O31" r:id="rId24"/>
+    <hyperlink ref="O32" r:id="rId25"/>
+    <hyperlink ref="O33" r:id="rId26"/>
+    <hyperlink ref="O34" r:id="rId27"/>
+    <hyperlink ref="O35" r:id="rId28"/>
+    <hyperlink ref="O36" r:id="rId29"/>
+    <hyperlink ref="O37" r:id="rId30"/>
+    <hyperlink ref="O38" r:id="rId31"/>
+    <hyperlink ref="O39" r:id="rId32"/>
+    <hyperlink ref="O40" r:id="rId33"/>
+    <hyperlink ref="O41" r:id="rId34"/>
+    <hyperlink ref="O42" r:id="rId35"/>
+    <hyperlink ref="O43" r:id="rId36"/>
+    <hyperlink ref="O44" r:id="rId37"/>
+    <hyperlink ref="O45" r:id="rId38"/>
+    <hyperlink ref="O46" r:id="rId39"/>
+    <hyperlink ref="O47" r:id="rId40"/>
+    <hyperlink ref="O48" r:id="rId41"/>
+    <hyperlink ref="O49" r:id="rId42"/>
+    <hyperlink ref="O50" r:id="rId43"/>
+    <hyperlink ref="O51" r:id="rId44"/>
+    <hyperlink ref="O52" r:id="rId45"/>
+    <hyperlink ref="O53" r:id="rId46"/>
+    <hyperlink ref="O54" r:id="rId47"/>
+    <hyperlink ref="O55" r:id="rId48"/>
+    <hyperlink ref="O56" r:id="rId49"/>
+    <hyperlink ref="O57" r:id="rId50"/>
+    <hyperlink ref="O58" r:id="rId51"/>
+    <hyperlink ref="O59" r:id="rId52"/>
+    <hyperlink ref="O60" r:id="rId53"/>
+    <hyperlink ref="O61" r:id="rId54"/>
+    <hyperlink ref="O62" r:id="rId55"/>
+    <hyperlink ref="O63" r:id="rId56"/>
+    <hyperlink ref="O64" r:id="rId57"/>
+    <hyperlink ref="O65" r:id="rId58"/>
+    <hyperlink ref="O66" r:id="rId59"/>
+    <hyperlink ref="O67" r:id="rId60"/>
+    <hyperlink ref="O68" r:id="rId61"/>
+    <hyperlink ref="O69" r:id="rId62"/>
+    <hyperlink ref="O70" r:id="rId63"/>
+    <hyperlink ref="O71" r:id="rId64"/>
+    <hyperlink ref="O72" r:id="rId65"/>
+    <hyperlink ref="O73" r:id="rId66"/>
+    <hyperlink ref="O74" r:id="rId67"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -298,7 +293,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +625,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="91" customWidth="1"/>
+    <col min="19" max="19" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -872,7 +867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2022</v>
       </c>

--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="139">
   <si>
     <t>46622</t>
   </si>
@@ -175,10 +192,262 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
-  </si>
-  <si>
-    <t>La información solicitada se entregará a más tardar el día 30 de julio del año en curso en terminos del art. 58 de la Ley General de Contabilidad Gubernamental.</t>
+    <t>Sueldos</t>
+  </si>
+  <si>
+    <t>Recalendarización del Presupuesto</t>
+  </si>
+  <si>
+    <t>Subdirección de Planeacion y Presupesto (UPP)</t>
+  </si>
+  <si>
+    <t>Honorarios asimilables a salarios</t>
+  </si>
+  <si>
+    <t>Prima Vacacional y dominical</t>
+  </si>
+  <si>
+    <t>Gratificación Anual</t>
+  </si>
+  <si>
+    <t>Aportaciones al ISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al Seguro de Cesantía en Edad Avanzada y Vejez</t>
+  </si>
+  <si>
+    <t>Aportaciones a FOVISSSTE</t>
+  </si>
+  <si>
+    <t>Aportaciones al SAR</t>
+  </si>
+  <si>
+    <t>Gastos de Oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles consumibles para el procesamiento en equipos y bienes informáticos</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicinas y Productos Farmacéuticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Prendas de seguridad y protección personal</t>
+  </si>
+  <si>
+    <t>Artículos deportivos</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicios de Conducción de Señales</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de edificios</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Servicios de jardinería y fumigación</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Pasajes aéreos</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Transferencias internas otorgadas a entidades paraestatales no empresariales y no financieras</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Bienes informáticos</t>
+  </si>
+  <si>
+    <t>Licencias informáticas e intelectuales</t>
+  </si>
+  <si>
+    <t>Material de Oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de impresión y reproducción</t>
+  </si>
+  <si>
+    <t>Material didáctico</t>
+  </si>
+  <si>
+    <t>Productos agrícolas</t>
+  </si>
+  <si>
+    <t>Productos minerales no metálicos</t>
+  </si>
+  <si>
+    <t>Vidrio y productos de vidrio</t>
+  </si>
+  <si>
+    <t>Material electrónico</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de mobiliario y equipo de administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Arrendamiento de activos intangibles</t>
+  </si>
+  <si>
+    <t>Servicios de diseño, arquitectuta, ingeniería y actividades relacionadas</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Difusión por radio, televisión y otros medios de mensajes comerciales para promover la venta de bienes o servicios</t>
+  </si>
+  <si>
+    <t>Pasajes terrestres</t>
+  </si>
+  <si>
+    <t>Gastos de ceremonial</t>
+  </si>
+  <si>
+    <t>Otros equipos</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_junio_2022/11.estadoanaliticopresupuestoegresos.pdf</t>
   </si>
 </sst>
 </file>
@@ -207,8 +476,9 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -255,25 +525,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -281,22 +542,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +655,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +878,7 @@
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" customWidth="1"/>
     <col min="8" max="8" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" bestFit="1" customWidth="1"/>
@@ -621,11 +886,11 @@
     <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="78.5703125" customWidth="1"/>
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -650,7 +915,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -867,40 +1132,4736 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="2" t="s">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="4">
+        <v>113001</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="R8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="H8" s="4">
+        <v>42967922</v>
+      </c>
+      <c r="I8" s="4">
+        <v>38302847.789999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>38302847.789999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>38302847.789999999</v>
+      </c>
+      <c r="L8" s="4">
+        <v>38302847.789999999</v>
+      </c>
+      <c r="M8" s="4">
+        <v>38302847.789999999</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R8" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="4">
+        <v>121001</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1295412</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1193033.01</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1193033.01</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1193033.01</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1193033.01</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1193033.01</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R9" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="4">
+        <v>132001</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="4">
+        <v>66500</v>
+      </c>
+      <c r="I10" s="4">
+        <v>57513.33</v>
+      </c>
+      <c r="J10" s="4">
+        <v>57513.33</v>
+      </c>
+      <c r="K10" s="4">
+        <v>57513.33</v>
+      </c>
+      <c r="L10" s="4">
+        <v>57513.33</v>
+      </c>
+      <c r="M10" s="4">
+        <v>57513.33</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R10" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="4">
+        <v>132002</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1547214</v>
+      </c>
+      <c r="I11" s="4">
+        <v>334682.20000000007</v>
+      </c>
+      <c r="J11" s="4">
+        <v>334682.20000000007</v>
+      </c>
+      <c r="K11" s="4">
+        <v>334682.20000000007</v>
+      </c>
+      <c r="L11" s="4">
+        <v>334682.20000000007</v>
+      </c>
+      <c r="M11" s="4">
+        <v>334682.20000000007</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R11" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="4">
+        <v>141001</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4926084</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4258733.49</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4258733.49</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4258733.49</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4258733.49</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4258733.49</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R12" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="4">
+        <v>141004</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1469868</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1171902.23</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1171902.23</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1171902.23</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1171902.23</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1171902.23</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R13" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="4">
+        <v>142001</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2314760</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1845515.19</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1845515.19</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1845515.19</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1845515.19</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1845515.19</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R14" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="4">
+        <v>143001</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1150612</v>
+      </c>
+      <c r="I15" s="4">
+        <v>738204.69</v>
+      </c>
+      <c r="J15" s="4">
+        <v>738204.69</v>
+      </c>
+      <c r="K15" s="4">
+        <v>738204.69</v>
+      </c>
+      <c r="L15" s="4">
+        <v>738204.69</v>
+      </c>
+      <c r="M15" s="4">
+        <v>738204.69</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R15" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F16" s="4">
+        <v>211001</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="4">
+        <v>152670</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R16" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="4">
+        <v>211002</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="4">
+        <v>11000</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7953.8499999999995</v>
+      </c>
+      <c r="J17" s="4">
+        <v>7953.8499999999995</v>
+      </c>
+      <c r="K17" s="4">
+        <v>7953.8499999999995</v>
+      </c>
+      <c r="L17" s="4">
+        <v>7953.8499999999995</v>
+      </c>
+      <c r="M17" s="4">
+        <v>7953.8499999999995</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R17" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="4">
+        <v>212001</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="4">
+        <v>19500</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9499.98</v>
+      </c>
+      <c r="J18" s="4">
+        <v>9499.98</v>
+      </c>
+      <c r="K18" s="4">
+        <v>9499.98</v>
+      </c>
+      <c r="L18" s="4">
+        <v>9499.98</v>
+      </c>
+      <c r="M18" s="4">
+        <v>9499.98</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R18" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F19" s="4">
+        <v>214001</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="4">
+        <v>75007</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R19" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="4">
+        <v>216001</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="4">
+        <v>56070</v>
+      </c>
+      <c r="I20" s="4">
+        <v>95691.82</v>
+      </c>
+      <c r="J20" s="4">
+        <v>95691.82</v>
+      </c>
+      <c r="K20" s="4">
+        <v>95691.82</v>
+      </c>
+      <c r="L20" s="4">
+        <v>95691.82</v>
+      </c>
+      <c r="M20" s="4">
+        <v>95691.82</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R20" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F21" s="4">
+        <v>217001</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="4">
+        <v>278200</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R21" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="4">
+        <v>222001</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="4">
+        <v>90000</v>
+      </c>
+      <c r="I22" s="4">
+        <v>89702.6</v>
+      </c>
+      <c r="J22" s="4">
+        <v>89702.6</v>
+      </c>
+      <c r="K22" s="4">
+        <v>89702.6</v>
+      </c>
+      <c r="L22" s="4">
+        <v>89702.6</v>
+      </c>
+      <c r="M22" s="4">
+        <v>89702.6</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R22" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2300</v>
+      </c>
+      <c r="F23" s="4">
+        <v>231001</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="4">
+        <v>12000</v>
+      </c>
+      <c r="I23" s="4">
+        <v>12000</v>
+      </c>
+      <c r="J23" s="4">
+        <v>12000</v>
+      </c>
+      <c r="K23" s="4">
+        <v>12000</v>
+      </c>
+      <c r="L23" s="4">
+        <v>12000</v>
+      </c>
+      <c r="M23" s="4">
+        <v>12000</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R23" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="4">
+        <v>241001</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R24" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F25" s="4">
+        <v>242001</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1200</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1199.44</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1199.44</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1199.44</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1199.44</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1199.44</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R25" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="4">
+        <v>243001</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1499.95</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1499.95</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1499.95</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1499.95</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1499.95</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R26" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="4">
+        <v>244001</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="4">
+        <v>500</v>
+      </c>
+      <c r="I27" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="J27" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="K27" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="L27" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="M27" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R27" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F28" s="4">
+        <v>245001</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="4">
+        <v>500</v>
+      </c>
+      <c r="I28" s="4">
+        <v>499.99</v>
+      </c>
+      <c r="J28" s="4">
+        <v>499.99</v>
+      </c>
+      <c r="K28" s="4">
+        <v>499.99</v>
+      </c>
+      <c r="L28" s="4">
+        <v>499.99</v>
+      </c>
+      <c r="M28" s="4">
+        <v>499.99</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R28" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F29" s="4">
+        <v>246001</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="4">
+        <v>48500</v>
+      </c>
+      <c r="I29" s="4">
+        <v>34437.040000000001</v>
+      </c>
+      <c r="J29" s="4">
+        <v>34437.040000000001</v>
+      </c>
+      <c r="K29" s="4">
+        <v>34437.040000000001</v>
+      </c>
+      <c r="L29" s="4">
+        <v>34437.040000000001</v>
+      </c>
+      <c r="M29" s="4">
+        <v>34437.040000000001</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R29" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F30" s="4">
+        <v>246002</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="4">
+        <v>98000</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R30" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F31" s="4">
+        <v>247001</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="4">
+        <v>63520</v>
+      </c>
+      <c r="I31" s="4">
+        <v>55316.509999999995</v>
+      </c>
+      <c r="J31" s="4">
+        <v>55316.509999999995</v>
+      </c>
+      <c r="K31" s="4">
+        <v>55316.509999999995</v>
+      </c>
+      <c r="L31" s="4">
+        <v>55316.509999999995</v>
+      </c>
+      <c r="M31" s="4">
+        <v>55316.509999999995</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R31" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="4">
+        <v>249001</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="4">
+        <v>31200</v>
+      </c>
+      <c r="I32" s="4">
+        <v>11145.28</v>
+      </c>
+      <c r="J32" s="4">
+        <v>11145.28</v>
+      </c>
+      <c r="K32" s="4">
+        <v>11145.28</v>
+      </c>
+      <c r="L32" s="4">
+        <v>11145.28</v>
+      </c>
+      <c r="M32" s="4">
+        <v>11145.28</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R32" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="4">
+        <v>251001</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="4">
+        <v>314220</v>
+      </c>
+      <c r="I33" s="4">
+        <v>36935.49</v>
+      </c>
+      <c r="J33" s="4">
+        <v>36935.49</v>
+      </c>
+      <c r="K33" s="4">
+        <v>36935.49</v>
+      </c>
+      <c r="L33" s="4">
+        <v>36935.49</v>
+      </c>
+      <c r="M33" s="4">
+        <v>36935.49</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R33" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F34" s="4">
+        <v>252001</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="4">
+        <v>500</v>
+      </c>
+      <c r="I34" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="J34" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="K34" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="L34" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="M34" s="4">
+        <v>498.8</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R34" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="4">
+        <v>253001</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="4">
+        <v>77500</v>
+      </c>
+      <c r="I35" s="4">
+        <v>11440.32</v>
+      </c>
+      <c r="J35" s="4">
+        <v>11440.32</v>
+      </c>
+      <c r="K35" s="4">
+        <v>11440.32</v>
+      </c>
+      <c r="L35" s="4">
+        <v>11440.32</v>
+      </c>
+      <c r="M35" s="4">
+        <v>11440.32</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R35" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F36" s="4">
+        <v>254001</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="4">
+        <v>95500</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2499.7999999999993</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2499.7999999999993</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2499.7999999999993</v>
+      </c>
+      <c r="L36" s="4">
+        <v>2499.7999999999993</v>
+      </c>
+      <c r="M36" s="4">
+        <v>2499.7999999999993</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R36" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F37" s="4">
+        <v>255001</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="4">
+        <v>129011</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R37" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F38" s="4">
+        <v>256001</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="4">
+        <v>109800</v>
+      </c>
+      <c r="I38" s="4">
+        <v>7999.36</v>
+      </c>
+      <c r="J38" s="4">
+        <v>7999.36</v>
+      </c>
+      <c r="K38" s="4">
+        <v>7999.36</v>
+      </c>
+      <c r="L38" s="4">
+        <v>7999.36</v>
+      </c>
+      <c r="M38" s="4">
+        <v>7999.36</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R38" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F39" s="4">
+        <v>259001</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="4">
+        <v>500</v>
+      </c>
+      <c r="I39" s="4">
+        <v>499.98</v>
+      </c>
+      <c r="J39" s="4">
+        <v>499.98</v>
+      </c>
+      <c r="K39" s="4">
+        <v>499.98</v>
+      </c>
+      <c r="L39" s="4">
+        <v>499.98</v>
+      </c>
+      <c r="M39" s="4">
+        <v>499.98</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R39" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2600</v>
+      </c>
+      <c r="F40" s="4">
+        <v>261001</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="4">
+        <v>57000</v>
+      </c>
+      <c r="I40" s="4">
+        <v>56177</v>
+      </c>
+      <c r="J40" s="4">
+        <v>56177</v>
+      </c>
+      <c r="K40" s="4">
+        <v>56177</v>
+      </c>
+      <c r="L40" s="4">
+        <v>56177</v>
+      </c>
+      <c r="M40" s="4">
+        <v>56177</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R40" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="4">
+        <v>271001</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I41" s="4">
+        <v>18349.23</v>
+      </c>
+      <c r="J41" s="4">
+        <v>18349.23</v>
+      </c>
+      <c r="K41" s="4">
+        <v>18349.23</v>
+      </c>
+      <c r="L41" s="4">
+        <v>18349.23</v>
+      </c>
+      <c r="M41" s="4">
+        <v>18349.23</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R41" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2700</v>
+      </c>
+      <c r="F42" s="4">
+        <v>272001</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="4">
+        <v>36000</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3998.5200000000004</v>
+      </c>
+      <c r="J42" s="4">
+        <v>3998.5200000000004</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3998.5200000000004</v>
+      </c>
+      <c r="L42" s="4">
+        <v>3998.5200000000004</v>
+      </c>
+      <c r="M42" s="4">
+        <v>3998.5200000000004</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R42" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2700</v>
+      </c>
+      <c r="F43" s="4">
+        <v>273001</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I43" s="4">
+        <v>5158.8</v>
+      </c>
+      <c r="J43" s="4">
+        <v>5158.8</v>
+      </c>
+      <c r="K43" s="4">
+        <v>5158.8</v>
+      </c>
+      <c r="L43" s="4">
+        <v>5158.8</v>
+      </c>
+      <c r="M43" s="4">
+        <v>5158.8</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R43" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="4">
+        <v>291001</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="4">
+        <v>20000</v>
+      </c>
+      <c r="I44" s="4">
+        <v>24099</v>
+      </c>
+      <c r="J44" s="4">
+        <v>24099</v>
+      </c>
+      <c r="K44" s="4">
+        <v>24099</v>
+      </c>
+      <c r="L44" s="4">
+        <v>24099</v>
+      </c>
+      <c r="M44" s="4">
+        <v>24099</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R44" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2900</v>
+      </c>
+      <c r="F45" s="4">
+        <v>292001</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1998.71</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1998.71</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1998.71</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1998.71</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1998.71</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R45" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2900</v>
+      </c>
+      <c r="F46" s="4">
+        <v>293001</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R46" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="4">
+        <v>294001</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="4">
+        <v>214070</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1997.9899999999907</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1997.9899999999907</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1997.9899999999907</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1997.9899999999907</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1997.9899999999907</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R47" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="4">
+        <v>295001</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="4">
+        <v>36000</v>
+      </c>
+      <c r="I48" s="4">
+        <v>14987.2</v>
+      </c>
+      <c r="J48" s="4">
+        <v>14987.2</v>
+      </c>
+      <c r="K48" s="4">
+        <v>14987.2</v>
+      </c>
+      <c r="L48" s="4">
+        <v>14987.2</v>
+      </c>
+      <c r="M48" s="4">
+        <v>14987.2</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R48" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S48" s="4"/>
+    </row>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="4">
+        <v>296001</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2500</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1403.62</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1403.62</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1403.62</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1403.62</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1403.62</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R49" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2900</v>
+      </c>
+      <c r="F50" s="4">
+        <v>298001</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="4">
+        <v>8500</v>
+      </c>
+      <c r="I50" s="4">
+        <v>6499.98</v>
+      </c>
+      <c r="J50" s="4">
+        <v>6499.98</v>
+      </c>
+      <c r="K50" s="4">
+        <v>6499.98</v>
+      </c>
+      <c r="L50" s="4">
+        <v>6499.98</v>
+      </c>
+      <c r="M50" s="4">
+        <v>6499.98</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R50" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3100</v>
+      </c>
+      <c r="F51" s="4">
+        <v>311001</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="4">
+        <v>660000</v>
+      </c>
+      <c r="I51" s="4">
+        <v>689676</v>
+      </c>
+      <c r="J51" s="4">
+        <v>689676</v>
+      </c>
+      <c r="K51" s="4">
+        <v>689676</v>
+      </c>
+      <c r="L51" s="4">
+        <v>689676</v>
+      </c>
+      <c r="M51" s="4">
+        <v>689676</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R51" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="4">
+        <v>313001</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="4">
+        <v>42000</v>
+      </c>
+      <c r="I52" s="4">
+        <v>33121.17</v>
+      </c>
+      <c r="J52" s="4">
+        <v>33121.17</v>
+      </c>
+      <c r="K52" s="4">
+        <v>33121.17</v>
+      </c>
+      <c r="L52" s="4">
+        <v>33121.17</v>
+      </c>
+      <c r="M52" s="4">
+        <v>33121.17</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R52" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3100</v>
+      </c>
+      <c r="F53" s="4">
+        <v>314001</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="4">
+        <v>365238</v>
+      </c>
+      <c r="I53" s="4">
+        <v>362493</v>
+      </c>
+      <c r="J53" s="4">
+        <v>362493</v>
+      </c>
+      <c r="K53" s="4">
+        <v>362493</v>
+      </c>
+      <c r="L53" s="4">
+        <v>362493</v>
+      </c>
+      <c r="M53" s="4">
+        <v>362493</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R53" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S53" s="4"/>
+    </row>
+    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D54" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="4">
+        <v>317001</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="4">
+        <v>36300</v>
+      </c>
+      <c r="I54" s="4">
+        <v>5800</v>
+      </c>
+      <c r="J54" s="4">
+        <v>5800</v>
+      </c>
+      <c r="K54" s="4">
+        <v>5800</v>
+      </c>
+      <c r="L54" s="4">
+        <v>5800</v>
+      </c>
+      <c r="M54" s="4">
+        <v>5800</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R54" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3100</v>
+      </c>
+      <c r="F55" s="4">
+        <v>318001</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="4">
+        <v>6000</v>
+      </c>
+      <c r="I55" s="4">
+        <v>286.13</v>
+      </c>
+      <c r="J55" s="4">
+        <v>286.13</v>
+      </c>
+      <c r="K55" s="4">
+        <v>286.13</v>
+      </c>
+      <c r="L55" s="4">
+        <v>286.13</v>
+      </c>
+      <c r="M55" s="4">
+        <v>286.13</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R55" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E56" s="4">
+        <v>3200</v>
+      </c>
+      <c r="F56" s="4">
+        <v>322001</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" s="4">
+        <v>120000</v>
+      </c>
+      <c r="I56" s="4">
+        <v>92800</v>
+      </c>
+      <c r="J56" s="4">
+        <v>92800</v>
+      </c>
+      <c r="K56" s="4">
+        <v>92800</v>
+      </c>
+      <c r="L56" s="4">
+        <v>92800</v>
+      </c>
+      <c r="M56" s="4">
+        <v>92800</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R56" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="4">
+        <v>323002</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" s="4">
+        <v>24000</v>
+      </c>
+      <c r="I57" s="4">
+        <v>17260.8</v>
+      </c>
+      <c r="J57" s="4">
+        <v>17260.8</v>
+      </c>
+      <c r="K57" s="4">
+        <v>17260.8</v>
+      </c>
+      <c r="L57" s="4">
+        <v>17260.8</v>
+      </c>
+      <c r="M57" s="4">
+        <v>17260.8</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R57" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="4">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="4">
+        <v>326001</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R58" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D59" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="4">
+        <v>3200</v>
+      </c>
+      <c r="F59" s="4">
+        <v>327001</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="4">
+        <v>410000</v>
+      </c>
+      <c r="I59" s="4">
+        <v>140000</v>
+      </c>
+      <c r="J59" s="4">
+        <v>140000</v>
+      </c>
+      <c r="K59" s="4">
+        <v>140000</v>
+      </c>
+      <c r="L59" s="4">
+        <v>140000</v>
+      </c>
+      <c r="M59" s="4">
+        <v>140000</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R59" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D60" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="4">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="4">
+        <v>331002</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="4">
+        <v>737720</v>
+      </c>
+      <c r="I60" s="4">
+        <v>364080</v>
+      </c>
+      <c r="J60" s="4">
+        <v>364080</v>
+      </c>
+      <c r="K60" s="4">
+        <v>364080</v>
+      </c>
+      <c r="L60" s="4">
+        <v>364080</v>
+      </c>
+      <c r="M60" s="4">
+        <v>364080</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R60" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E61" s="4">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="4">
+        <v>331003</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" s="4">
+        <v>163200</v>
+      </c>
+      <c r="I61" s="4">
+        <v>116373.98999999999</v>
+      </c>
+      <c r="J61" s="4">
+        <v>116373.98999999999</v>
+      </c>
+      <c r="K61" s="4">
+        <v>116373.98999999999</v>
+      </c>
+      <c r="L61" s="4">
+        <v>116373.98999999999</v>
+      </c>
+      <c r="M61" s="4">
+        <v>116373.98999999999</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R61" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D62" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="4">
+        <v>332001</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R62" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S62" s="4"/>
+    </row>
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3300</v>
+      </c>
+      <c r="F63" s="4">
+        <v>334001</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="4">
+        <v>184600</v>
+      </c>
+      <c r="I63" s="4">
+        <v>92702</v>
+      </c>
+      <c r="J63" s="4">
+        <v>92702</v>
+      </c>
+      <c r="K63" s="4">
+        <v>92702</v>
+      </c>
+      <c r="L63" s="4">
+        <v>92702</v>
+      </c>
+      <c r="M63" s="4">
+        <v>92702</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R63" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3300</v>
+      </c>
+      <c r="F64" s="4">
+        <v>336001</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H64" s="4">
+        <v>82799</v>
+      </c>
+      <c r="I64" s="4">
+        <v>90816.94</v>
+      </c>
+      <c r="J64" s="4">
+        <v>90816.94</v>
+      </c>
+      <c r="K64" s="4">
+        <v>90816.94</v>
+      </c>
+      <c r="L64" s="4">
+        <v>90816.94</v>
+      </c>
+      <c r="M64" s="4">
+        <v>90816.94</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R64" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S64" s="4"/>
+    </row>
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3300</v>
+      </c>
+      <c r="F65" s="4">
+        <v>338001</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" s="4">
+        <v>930210</v>
+      </c>
+      <c r="I65" s="4">
+        <v>885911.05</v>
+      </c>
+      <c r="J65" s="4">
+        <v>885911.05</v>
+      </c>
+      <c r="K65" s="4">
+        <v>885911.05</v>
+      </c>
+      <c r="L65" s="4">
+        <v>885911.05</v>
+      </c>
+      <c r="M65" s="4">
+        <v>885911.05</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R65" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D66" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="4">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="4">
+        <v>341001</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="4">
+        <v>3600</v>
+      </c>
+      <c r="I66" s="4">
+        <v>79169.819999999992</v>
+      </c>
+      <c r="J66" s="4">
+        <v>79169.819999999992</v>
+      </c>
+      <c r="K66" s="4">
+        <v>79169.819999999992</v>
+      </c>
+      <c r="L66" s="4">
+        <v>79169.819999999992</v>
+      </c>
+      <c r="M66" s="4">
+        <v>79169.819999999992</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R66" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S66" s="4"/>
+    </row>
+    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D67" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E67" s="4">
+        <v>3400</v>
+      </c>
+      <c r="F67" s="4">
+        <v>345001</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="4">
+        <v>325000</v>
+      </c>
+      <c r="I67" s="4">
+        <v>110815.02</v>
+      </c>
+      <c r="J67" s="4">
+        <v>110815.02</v>
+      </c>
+      <c r="K67" s="4">
+        <v>110815.02</v>
+      </c>
+      <c r="L67" s="4">
+        <v>110815.02</v>
+      </c>
+      <c r="M67" s="4">
+        <v>110815.02</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R67" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D68" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F68" s="4">
+        <v>351001</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="4">
+        <v>105000</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R68" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S68" s="4"/>
+    </row>
+    <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D69" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E69" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F69" s="4">
+        <v>352001</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H69" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R69" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F70" s="4">
+        <v>353001</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="4">
+        <v>2500</v>
+      </c>
+      <c r="I70" s="4">
+        <v>2500</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2500</v>
+      </c>
+      <c r="K70" s="4">
+        <v>2500</v>
+      </c>
+      <c r="L70" s="4">
+        <v>2500</v>
+      </c>
+      <c r="M70" s="4">
+        <v>2500</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R70" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S70" s="4"/>
+    </row>
+    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D71" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F71" s="4">
+        <v>354001</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="4">
+        <v>6000</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R71" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S71" s="4"/>
+    </row>
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D72" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E72" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F72" s="4">
+        <v>355001</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="4">
+        <v>37500</v>
+      </c>
+      <c r="I72" s="4">
+        <v>30209.82</v>
+      </c>
+      <c r="J72" s="4">
+        <v>30209.82</v>
+      </c>
+      <c r="K72" s="4">
+        <v>30209.82</v>
+      </c>
+      <c r="L72" s="4">
+        <v>30209.82</v>
+      </c>
+      <c r="M72" s="4">
+        <v>30209.82</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R72" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S72" s="4"/>
+    </row>
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D73" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F73" s="4">
+        <v>357001</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="4">
+        <v>97500</v>
+      </c>
+      <c r="I73" s="4">
+        <v>4416</v>
+      </c>
+      <c r="J73" s="4">
+        <v>4416</v>
+      </c>
+      <c r="K73" s="4">
+        <v>4416</v>
+      </c>
+      <c r="L73" s="4">
+        <v>4416</v>
+      </c>
+      <c r="M73" s="4">
+        <v>4416</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R73" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D74" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F74" s="4">
+        <v>358001</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="4">
+        <v>600000</v>
+      </c>
+      <c r="I74" s="4">
+        <v>450000</v>
+      </c>
+      <c r="J74" s="4">
+        <v>450000</v>
+      </c>
+      <c r="K74" s="4">
+        <v>450000</v>
+      </c>
+      <c r="L74" s="4">
+        <v>450000</v>
+      </c>
+      <c r="M74" s="4">
+        <v>450000</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R74" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D75" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E75" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F75" s="4">
+        <v>359001</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H75" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I75" s="4">
+        <v>8294</v>
+      </c>
+      <c r="J75" s="4">
+        <v>8294</v>
+      </c>
+      <c r="K75" s="4">
+        <v>8294</v>
+      </c>
+      <c r="L75" s="4">
+        <v>8294</v>
+      </c>
+      <c r="M75" s="4">
+        <v>8294</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R75" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D76" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3600</v>
+      </c>
+      <c r="F76" s="4">
+        <v>361002</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="4">
+        <v>50000</v>
+      </c>
+      <c r="I76" s="4">
+        <v>52422</v>
+      </c>
+      <c r="J76" s="4">
+        <v>52422</v>
+      </c>
+      <c r="K76" s="4">
+        <v>52422</v>
+      </c>
+      <c r="L76" s="4">
+        <v>52422</v>
+      </c>
+      <c r="M76" s="4">
+        <v>52422</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R76" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D77" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E77" s="4">
+        <v>3600</v>
+      </c>
+      <c r="F77" s="4">
+        <v>362001</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" s="4">
+        <v>28300</v>
+      </c>
+      <c r="I77" s="4">
+        <v>28550.41</v>
+      </c>
+      <c r="J77" s="4">
+        <v>28550.41</v>
+      </c>
+      <c r="K77" s="4">
+        <v>28550.41</v>
+      </c>
+      <c r="L77" s="4">
+        <v>28550.41</v>
+      </c>
+      <c r="M77" s="4">
+        <v>28550.41</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R77" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D78" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E78" s="4">
+        <v>3700</v>
+      </c>
+      <c r="F78" s="4">
+        <v>371001</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H78" s="4">
+        <v>14000</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R78" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D79" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E79" s="4">
+        <v>3700</v>
+      </c>
+      <c r="F79" s="4">
+        <v>372001</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="4">
+        <v>14000</v>
+      </c>
+      <c r="I79" s="4">
+        <v>2528</v>
+      </c>
+      <c r="J79" s="4">
+        <v>2528</v>
+      </c>
+      <c r="K79" s="4">
+        <v>2528</v>
+      </c>
+      <c r="L79" s="4">
+        <v>2528</v>
+      </c>
+      <c r="M79" s="4">
+        <v>2528</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R79" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S79" s="4"/>
+    </row>
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D80" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E80" s="4">
+        <v>3700</v>
+      </c>
+      <c r="F80" s="4">
+        <v>375001</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H80" s="4">
+        <v>14950</v>
+      </c>
+      <c r="I80" s="4">
+        <v>8850.01</v>
+      </c>
+      <c r="J80" s="4">
+        <v>8850.01</v>
+      </c>
+      <c r="K80" s="4">
+        <v>8850.01</v>
+      </c>
+      <c r="L80" s="4">
+        <v>8850.01</v>
+      </c>
+      <c r="M80" s="4">
+        <v>8850.01</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R80" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S80" s="4"/>
+    </row>
+    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D81" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="4">
+        <v>3800</v>
+      </c>
+      <c r="F81" s="4">
+        <v>381001</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="4">
+        <v>46000</v>
+      </c>
+      <c r="I81" s="4">
+        <v>18734.89</v>
+      </c>
+      <c r="J81" s="4">
+        <v>18734.89</v>
+      </c>
+      <c r="K81" s="4">
+        <v>18734.89</v>
+      </c>
+      <c r="L81" s="4">
+        <v>18734.89</v>
+      </c>
+      <c r="M81" s="4">
+        <v>18734.89</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R81" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S81" s="4"/>
+    </row>
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D82" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E82" s="4">
+        <v>3800</v>
+      </c>
+      <c r="F82" s="4">
+        <v>382001</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H82" s="4">
+        <v>44479</v>
+      </c>
+      <c r="I82" s="4">
+        <v>158441.34</v>
+      </c>
+      <c r="J82" s="4">
+        <v>158441.34</v>
+      </c>
+      <c r="K82" s="4">
+        <v>158441.34</v>
+      </c>
+      <c r="L82" s="4">
+        <v>158441.34</v>
+      </c>
+      <c r="M82" s="4">
+        <v>158441.34</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R82" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S82" s="4"/>
+    </row>
+    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3900</v>
+      </c>
+      <c r="F83" s="4">
+        <v>392001</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H83" s="4">
+        <v>44674</v>
+      </c>
+      <c r="I83" s="4">
+        <v>26993.82</v>
+      </c>
+      <c r="J83" s="4">
+        <v>26993.82</v>
+      </c>
+      <c r="K83" s="4">
+        <v>26993.82</v>
+      </c>
+      <c r="L83" s="4">
+        <v>26993.82</v>
+      </c>
+      <c r="M83" s="4">
+        <v>26993.82</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R83" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E84" s="4">
+        <v>3900</v>
+      </c>
+      <c r="F84" s="4">
+        <v>392006</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="4">
+        <v>689275</v>
+      </c>
+      <c r="I84" s="4">
+        <v>574740.23</v>
+      </c>
+      <c r="J84" s="4">
+        <v>574740.23</v>
+      </c>
+      <c r="K84" s="4">
+        <v>574740.23</v>
+      </c>
+      <c r="L84" s="4">
+        <v>574740.23</v>
+      </c>
+      <c r="M84" s="4">
+        <v>574740.23</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R84" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S84" s="4"/>
+    </row>
+    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3900</v>
+      </c>
+      <c r="F85" s="4">
+        <v>398001</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1189400</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1156483.4099999999</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1156483.4099999999</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1156483.4099999999</v>
+      </c>
+      <c r="L85" s="4">
+        <v>1156483.4099999999</v>
+      </c>
+      <c r="M85" s="4">
+        <v>1156483.4099999999</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R85" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S85" s="4"/>
+    </row>
+    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D86" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E86" s="4">
+        <v>4100</v>
+      </c>
+      <c r="F86" s="4">
+        <v>415001</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" s="4">
+        <v>2532966</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R86" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S86" s="4"/>
+    </row>
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D87" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4400</v>
+      </c>
+      <c r="F87" s="4">
+        <v>442001</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H87" s="4">
+        <v>300000</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R87" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S87" s="4"/>
+    </row>
+    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D88" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E88" s="4">
+        <v>5100</v>
+      </c>
+      <c r="F88" s="4">
+        <v>515001</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H88" s="4">
+        <v>220000</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R88" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S88" s="4"/>
+    </row>
+    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D89" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="4">
+        <v>5600</v>
+      </c>
+      <c r="F89" s="4">
+        <v>569001</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H89" s="4">
+        <v>480000</v>
+      </c>
+      <c r="I89" s="4">
+        <v>220000</v>
+      </c>
+      <c r="J89" s="4">
+        <v>220000</v>
+      </c>
+      <c r="K89" s="4">
+        <v>220000</v>
+      </c>
+      <c r="L89" s="4">
+        <v>220000</v>
+      </c>
+      <c r="M89" s="4">
+        <v>220000</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R89" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S89" s="4"/>
+    </row>
+    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44742</v>
+      </c>
+      <c r="D90" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E90" s="4">
+        <v>5900</v>
+      </c>
+      <c r="F90" s="4">
+        <v>597001</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H90" s="4">
+        <v>975330</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
+      </c>
+      <c r="L90" s="4">
+        <v>0</v>
+      </c>
+      <c r="M90" s="4">
+        <v>0</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>44753</v>
+      </c>
+      <c r="R90" s="2">
+        <v>44753</v>
+      </c>
+      <c r="S90" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -912,6 +5873,10 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1"/>
+    <hyperlink ref="O9:O90" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_junio_2022/11.estadoanaliticopresupuestoegresos.pdf"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f31_aUPPachuca.xlsx
+++ b/xlsx/a69_f31_aUPPachuca.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="124">
   <si>
     <t>46622</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Sueldos</t>
   </si>
   <si>
-    <t>Honorarios asimilables a salarios</t>
-  </si>
-  <si>
     <t>Prima Vacacional y dominical</t>
   </si>
   <si>
@@ -215,238 +212,193 @@
     <t>Aportaciones al SAR</t>
   </si>
   <si>
-    <t>Material de Oficina</t>
-  </si>
-  <si>
     <t>Gastos de Oficina</t>
   </si>
   <si>
-    <t>Materiales y útiles de impresión y reproducción</t>
-  </si>
-  <si>
     <t>Materiales y útiles consumibles para el procesamiento en equipos y bienes informáticos</t>
   </si>
   <si>
     <t>Material de Limpieza</t>
   </si>
   <si>
+    <t>Alimentación de Animales</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Material Eléctrico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Sustancias Químicas</t>
+  </si>
+  <si>
+    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Prendas de seguridad y protección personal</t>
+  </si>
+  <si>
+    <t>Artículos deportivos</t>
+  </si>
+  <si>
+    <t>Herramientas Menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Refacciones</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Servicio de Energía Eléctrica</t>
+  </si>
+  <si>
+    <t>Servicio de Agua</t>
+  </si>
+  <si>
+    <t>Servicio Telefónico Tradicional</t>
+  </si>
+  <si>
+    <t>Servicio Postal</t>
+  </si>
+  <si>
+    <t>Arrendamiento de Equipo de Fotocopiado</t>
+  </si>
+  <si>
+    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
+  </si>
+  <si>
+    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
+  </si>
+  <si>
+    <t>Servicios de consultoría y asesoría</t>
+  </si>
+  <si>
+    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
+  </si>
+  <si>
+    <t>Servicios de Vigilancia</t>
+  </si>
+  <si>
+    <t>Servicios financieros y bancarios</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Conservación y mantenimiento menor de inmuebles</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Vehículos</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Maquinaria y Equipo</t>
+  </si>
+  <si>
+    <t>Servicios de limpieza y manejo de desechos</t>
+  </si>
+  <si>
+    <t>Impresiones y Publicaciones Oficiales</t>
+  </si>
+  <si>
+    <t>Pasajes aéreos</t>
+  </si>
+  <si>
+    <t>Viáticos en el país</t>
+  </si>
+  <si>
+    <t>Gastos de orden social y cultural</t>
+  </si>
+  <si>
+    <t>Pago de ISR</t>
+  </si>
+  <si>
+    <t>Pago de derechos</t>
+  </si>
+  <si>
+    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
+  </si>
+  <si>
+    <t>Transferencias internas otorgadas a entidades paraestatales no empresariales y no financieras</t>
+  </si>
+  <si>
+    <t>Becas y otras ayudas para programas de capacitación</t>
+  </si>
+  <si>
+    <t>Material de oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de impresiín y reproducción</t>
+  </si>
+  <si>
     <t>Material didáctico</t>
   </si>
   <si>
-    <t>Alimentación de Animales</t>
-  </si>
-  <si>
-    <t>Productos agrícolas</t>
-  </si>
-  <si>
-    <t>Productos minerales no metálicos</t>
-  </si>
-  <si>
-    <t>Cemento y productos de concreto</t>
-  </si>
-  <si>
-    <t>Cal, yeso y productos de yeso</t>
-  </si>
-  <si>
-    <t>Madera y productos de madera</t>
-  </si>
-  <si>
-    <t>Vidrio y productos de vidrio</t>
-  </si>
-  <si>
-    <t>Material Eléctrico</t>
-  </si>
-  <si>
-    <t>Material electrónico</t>
-  </si>
-  <si>
-    <t>Artículos metálicos para la construcción</t>
-  </si>
-  <si>
-    <t>Otros materiales y artículos de construcción y reparación</t>
-  </si>
-  <si>
-    <t>Sustancias Químicas</t>
-  </si>
-  <si>
-    <t>Fertilizantes, Pesticidas y Otros Agroquímicos</t>
-  </si>
-  <si>
-    <t>Medicinas y Productos Farmacéuticos</t>
-  </si>
-  <si>
-    <t>Materiales, accesorios y suministros médicos</t>
-  </si>
-  <si>
-    <t>Materiales, accesorios y suministros de laboratorio</t>
-  </si>
-  <si>
-    <t>Fibras sintéticas, hules, plásticos y derivados</t>
-  </si>
-  <si>
-    <t>Otros productos químicos</t>
-  </si>
-  <si>
-    <t>Combustibles y Lubricantes para vehículos y equipos terrestres</t>
-  </si>
-  <si>
-    <t>Vestuario y uniformes</t>
-  </si>
-  <si>
-    <t>Prendas de seguridad y protección personal</t>
-  </si>
-  <si>
-    <t>Artículos deportivos</t>
-  </si>
-  <si>
-    <t>Herramientas Menores</t>
-  </si>
-  <si>
-    <t>Refacciones y accesorios menores de edificios</t>
-  </si>
-  <si>
-    <t>Refacciones y accesorios menores de mobiliario y equipo de administración, educacional y recreativo</t>
-  </si>
-  <si>
-    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
-  </si>
-  <si>
-    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
-  </si>
-  <si>
-    <t>Refacciones</t>
-  </si>
-  <si>
-    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
-  </si>
-  <si>
-    <t>Servicio de Energía Eléctrica</t>
-  </si>
-  <si>
-    <t>Servicio de Agua</t>
-  </si>
-  <si>
-    <t>Servicio Telefónico Tradicional</t>
-  </si>
-  <si>
-    <t>Servicios de Conducción de Señales</t>
-  </si>
-  <si>
-    <t>Servicio Postal</t>
-  </si>
-  <si>
-    <t>Arrendamiento de edificios</t>
-  </si>
-  <si>
-    <t>Arrendamiento de Equipo de Fotocopiado</t>
-  </si>
-  <si>
-    <t>Arrendamiento de maquinaria, otros equipos y herramientas</t>
-  </si>
-  <si>
     <t>Arrendamiento de activos intangibles</t>
   </si>
   <si>
-    <t>Servicios de contabilidad, auditoría y servicios relacionados</t>
-  </si>
-  <si>
-    <t>Servicios de consultoría y asesoría</t>
-  </si>
-  <si>
-    <t>Servicios de diseño, arquitectuta, ingeniería y actividades relacionadas</t>
-  </si>
-  <si>
-    <t>Capacitación</t>
-  </si>
-  <si>
-    <t>Servicios de apoyo administrativo, fotocopiado e impresión</t>
-  </si>
-  <si>
-    <t>Servicios de Vigilancia</t>
-  </si>
-  <si>
-    <t>Servicios financieros y bancarios</t>
-  </si>
-  <si>
-    <t>Seguros</t>
-  </si>
-  <si>
-    <t>Conservación y mantenimiento menor de inmuebles</t>
-  </si>
-  <si>
-    <t>Mantenimiento de Mobiliario y Equipo de Administración, educacional y recreativo</t>
-  </si>
-  <si>
-    <t>Instalación, reparación y mantenimiento de bienes informáticos</t>
-  </si>
-  <si>
-    <t>Instalación, reparación y mantenimiento de equipo e instrumental médico y de laboratorio</t>
-  </si>
-  <si>
-    <t>Mantenimiento de Vehículos</t>
-  </si>
-  <si>
-    <t>Mantenimiento de Maquinaria y Equipo</t>
-  </si>
-  <si>
-    <t>Servicios de limpieza y manejo de desechos</t>
-  </si>
-  <si>
-    <t>Servicios de jardinería y fumigación</t>
-  </si>
-  <si>
-    <t>Impresiones y Publicaciones Oficiales</t>
-  </si>
-  <si>
-    <t>Difusión por radio, televisión y otros medios de mensajes comerciales para promover la venta de bienes o servicios</t>
-  </si>
-  <si>
-    <t>Pasajes aéreos</t>
-  </si>
-  <si>
     <t>Pasajes terrestres</t>
   </si>
   <si>
-    <t>Viáticos en el país</t>
-  </si>
-  <si>
     <t>Gastos de ceremonial</t>
   </si>
   <si>
-    <t>Gastos de orden social y cultural</t>
-  </si>
-  <si>
-    <t>Pago de ISR</t>
-  </si>
-  <si>
-    <t>Pago de derechos</t>
-  </si>
-  <si>
-    <t>Impuesto sobre nóminas y otros que se deriven de una relación laboral</t>
-  </si>
-  <si>
-    <t>Transferencias internas otorgadas a entidades paraestatales no empresariales y no financieras</t>
-  </si>
-  <si>
-    <t>Becas y otras ayudas para programas de capacitación</t>
-  </si>
-  <si>
-    <t>Bienes informáticos</t>
-  </si>
-  <si>
-    <t>Otros equipos</t>
-  </si>
-  <si>
-    <t>Licencias informáticas e intelectuales</t>
-  </si>
-  <si>
-    <t>Estímulos</t>
-  </si>
-  <si>
-    <t>Adecuación compensada</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_diciembre_2022/11.estadoanaliticopresupuestoegresos.pdf</t>
+    <t>Recalendarización del Presupuesto</t>
+  </si>
+  <si>
+    <t>Incremento de demanda de ahorro solidario</t>
+  </si>
+  <si>
+    <t>Adquisición de garrafones para atender incremento de demanda de consumo</t>
+  </si>
+  <si>
+    <t>Para el pago de incremento en comisiones bancarias por ampliación de servicios</t>
+  </si>
+  <si>
+    <t>Pago de incremento de hojas de publicación de operación de Reglas de Becas Institucionales en el Periódico Oficial del Edo. de Hgo.</t>
+  </si>
+  <si>
+    <t>Atender necesidades derivadas del evento "Ciencia con Conciencia", evento "Foro informativo de la Ley de Humanidades, Ciencia, Tecnología e Innovación"</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_marzo_2023/04.estadoeresupuestoegresos-cap-gto.pdf</t>
   </si>
 </sst>
 </file>
@@ -564,16 +516,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -880,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +846,7 @@
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.7109375" bestFit="1" customWidth="1"/>
@@ -942,11 +894,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1148,15 +1100,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="5">
         <v>1000</v>
@@ -1171,106 +1123,106 @@
         <v>54</v>
       </c>
       <c r="H8" s="5">
-        <v>74465568</v>
+        <v>20222610</v>
       </c>
       <c r="I8" s="5">
-        <v>77479947.310000002</v>
+        <v>19679461.93</v>
       </c>
       <c r="J8" s="5">
-        <v>77479947.310000002</v>
+        <v>19679461.93</v>
       </c>
       <c r="K8" s="5">
-        <v>77479947.310000002</v>
+        <v>19679461.93</v>
       </c>
       <c r="L8" s="5">
-        <v>77479947.310000002</v>
+        <v>19679461.93</v>
       </c>
       <c r="M8" s="5">
-        <v>77479947.310000002</v>
+        <v>19679461.93</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C9" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
       </c>
       <c r="E9" s="5">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F9" s="5">
-        <v>121001</v>
+        <v>132001</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="5">
-        <v>4789464</v>
+        <v>27500</v>
       </c>
       <c r="I9" s="5">
-        <v>1193033.01</v>
+        <v>6736.1900000000005</v>
       </c>
       <c r="J9" s="5">
-        <v>1193033.01</v>
+        <v>6736.1900000000005</v>
       </c>
       <c r="K9" s="5">
-        <v>1193033.01</v>
+        <v>6736.1900000000005</v>
       </c>
       <c r="L9" s="5">
-        <v>1193033.01</v>
+        <v>6736.1900000000005</v>
       </c>
       <c r="M9" s="5">
-        <v>1193033.01</v>
+        <v>6736.1900000000005</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q9" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R9" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C10" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
@@ -1279,112 +1231,112 @@
         <v>1300</v>
       </c>
       <c r="F10" s="5">
-        <v>132001</v>
+        <v>132002</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="5">
-        <v>6381443</v>
+        <v>58500</v>
       </c>
       <c r="I10" s="5">
-        <v>5640705.9900000002</v>
+        <v>27093.689999999995</v>
       </c>
       <c r="J10" s="5">
-        <v>5640705.9900000002</v>
+        <v>27093.689999999995</v>
       </c>
       <c r="K10" s="5">
-        <v>5640705.9900000002</v>
+        <v>27093.689999999995</v>
       </c>
       <c r="L10" s="5">
-        <v>5640705.9900000002</v>
+        <v>27093.689999999995</v>
       </c>
       <c r="M10" s="5">
-        <v>5640705.9900000002</v>
+        <v>27093.689999999995</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q10" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R10" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C11" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D11" s="5">
         <v>1000</v>
       </c>
       <c r="E11" s="5">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F11" s="5">
-        <v>132002</v>
+        <v>141001</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="5">
-        <v>13202982</v>
+        <v>1922170</v>
       </c>
       <c r="I11" s="5">
-        <v>13104881.110000003</v>
+        <v>2127955.6500000004</v>
       </c>
       <c r="J11" s="5">
-        <v>13104881.110000003</v>
+        <v>2127955.6500000004</v>
       </c>
       <c r="K11" s="5">
-        <v>13104881.110000003</v>
+        <v>2127955.6500000004</v>
       </c>
       <c r="L11" s="5">
-        <v>13104881.110000003</v>
+        <v>2127955.6500000004</v>
       </c>
       <c r="M11" s="5">
-        <v>13104881.110000003</v>
+        <v>2127955.6500000004</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q11" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R11" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C12" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D12" s="5">
         <v>1000</v>
@@ -1393,55 +1345,55 @@
         <v>1400</v>
       </c>
       <c r="F12" s="5">
-        <v>141001</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>141004</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="5">
-        <v>7584346</v>
+        <v>612126</v>
       </c>
       <c r="I12" s="5">
-        <v>8303658.0999999996</v>
+        <v>600786.76</v>
       </c>
       <c r="J12" s="5">
-        <v>8303658.0999999996</v>
+        <v>600786.76</v>
       </c>
       <c r="K12" s="5">
-        <v>8303658.0999999996</v>
+        <v>600786.76</v>
       </c>
       <c r="L12" s="5">
-        <v>8303658.0999999996</v>
+        <v>600786.76</v>
       </c>
       <c r="M12" s="5">
-        <v>8303658.0999999996</v>
+        <v>600786.76</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q12" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R12" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B13" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C13" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D13" s="5">
         <v>1000</v>
@@ -1450,55 +1402,55 @@
         <v>1400</v>
       </c>
       <c r="F13" s="5">
-        <v>141004</v>
-      </c>
-      <c r="G13" s="10" t="s">
+        <v>142001</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="5">
-        <v>2342592</v>
+        <v>963978</v>
       </c>
       <c r="I13" s="5">
-        <v>2350112.02</v>
+        <v>946120.86999999988</v>
       </c>
       <c r="J13" s="5">
-        <v>2350112.02</v>
+        <v>946120.86999999988</v>
       </c>
       <c r="K13" s="5">
-        <v>2350112.02</v>
+        <v>946120.86999999988</v>
       </c>
       <c r="L13" s="5">
-        <v>2350112.02</v>
+        <v>946120.86999999988</v>
       </c>
       <c r="M13" s="5">
-        <v>2350112.02</v>
+        <v>946120.86999999988</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q13" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R13" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C14" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D14" s="5">
         <v>1000</v>
@@ -1507,169 +1459,167 @@
         <v>1400</v>
       </c>
       <c r="F14" s="5">
-        <v>142001</v>
+        <v>143001</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H14" s="5">
-        <v>3689122</v>
+        <v>560116</v>
       </c>
       <c r="I14" s="5">
-        <v>3700963.7</v>
+        <v>378448.35</v>
       </c>
       <c r="J14" s="5">
-        <v>3700963.7</v>
+        <v>378448.35</v>
       </c>
       <c r="K14" s="5">
-        <v>3700963.7</v>
+        <v>378448.35</v>
       </c>
       <c r="L14" s="5">
-        <v>3700963.7</v>
+        <v>378448.35</v>
       </c>
       <c r="M14" s="5">
-        <v>3700963.7</v>
+        <v>378448.35</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q14" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R14" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C15" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D15" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="5">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="F15" s="5">
-        <v>143001</v>
+        <v>211001</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="H15" s="5">
-        <v>1615332</v>
+        <v>342310</v>
       </c>
       <c r="I15" s="5">
-        <v>1480384.0899999999</v>
+        <v>8958.0499999999993</v>
       </c>
       <c r="J15" s="5">
-        <v>1480384.0899999999</v>
+        <v>8958.0499999999993</v>
       </c>
       <c r="K15" s="5">
-        <v>1480384.0899999999</v>
+        <v>8958.0499999999993</v>
       </c>
       <c r="L15" s="5">
-        <v>1480384.0899999999</v>
+        <v>8958.0499999999993</v>
       </c>
       <c r="M15" s="5">
-        <v>1480384.0899999999</v>
+        <v>8958.0499999999993</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q15" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R15" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C16" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D16" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E16" s="5">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="F16" s="5">
-        <v>171001</v>
+        <v>211002</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I16" s="5">
-        <v>4084712.44</v>
+        <v>1500</v>
       </c>
       <c r="J16" s="5">
-        <v>4084712.44</v>
+        <v>1500</v>
       </c>
       <c r="K16" s="5">
-        <v>4084712.44</v>
+        <v>1500</v>
       </c>
       <c r="L16" s="5">
-        <v>4084712.44</v>
+        <v>1500</v>
       </c>
       <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="N16" s="5"/>
       <c r="O16" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q16" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R16" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C17" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D17" s="5">
         <v>2000</v>
@@ -1678,55 +1628,55 @@
         <v>2100</v>
       </c>
       <c r="F17" s="5">
-        <v>211001</v>
+        <v>212001</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="H17" s="5">
-        <v>184510</v>
+        <v>11000</v>
       </c>
       <c r="I17" s="5">
-        <v>251185.45</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5">
-        <v>251185.45</v>
+        <v>0</v>
       </c>
       <c r="K17" s="5">
-        <v>251185.45</v>
+        <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>251185.45</v>
+        <v>0</v>
       </c>
       <c r="M17" s="5">
-        <v>183693.88999999998</v>
+        <v>0</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q17" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R17" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C18" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D18" s="5">
         <v>2000</v>
@@ -1735,55 +1685,55 @@
         <v>2100</v>
       </c>
       <c r="F18" s="5">
-        <v>211002</v>
+        <v>214001</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="5">
-        <v>26000</v>
+        <v>274357</v>
       </c>
       <c r="I18" s="5">
-        <v>22941.89</v>
+        <v>2992.8</v>
       </c>
       <c r="J18" s="5">
-        <v>22941.89</v>
+        <v>2992.8</v>
       </c>
       <c r="K18" s="5">
-        <v>22941.89</v>
+        <v>2992.8</v>
       </c>
       <c r="L18" s="5">
-        <v>22941.89</v>
+        <v>2992.8</v>
       </c>
       <c r="M18" s="5">
-        <v>22941.89</v>
+        <v>2992.8</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q18" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R18" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C19" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D19" s="5">
         <v>2000</v>
@@ -1792,55 +1742,55 @@
         <v>2100</v>
       </c>
       <c r="F19" s="5">
-        <v>212001</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>64</v>
+        <v>216001</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H19" s="5">
-        <v>43750</v>
+        <v>105000</v>
       </c>
       <c r="I19" s="5">
-        <v>38749.539999999994</v>
+        <v>104998.56</v>
       </c>
       <c r="J19" s="5">
-        <v>38749.539999999994</v>
+        <v>104998.56</v>
       </c>
       <c r="K19" s="5">
-        <v>38749.539999999994</v>
+        <v>104998.56</v>
       </c>
       <c r="L19" s="5">
-        <v>38749.539999999994</v>
+        <v>104998.56</v>
       </c>
       <c r="M19" s="5">
-        <v>38749.539999999994</v>
+        <v>104998.56</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q19" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R19" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B20" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C20" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D20" s="5">
         <v>2000</v>
@@ -1849,283 +1799,281 @@
         <v>2100</v>
       </c>
       <c r="F20" s="5">
-        <v>214001</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>65</v>
+        <v>217001</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="H20" s="5">
-        <v>101507</v>
+        <v>202200</v>
       </c>
       <c r="I20" s="5">
-        <v>182530.13999999998</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>182530.13999999998</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>182530.13999999998</v>
+        <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>182530.13999999998</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5">
-        <v>117530.23999999999</v>
+        <v>0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q20" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R20" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B21" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C21" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D21" s="5">
         <v>2000</v>
       </c>
       <c r="E21" s="5">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F21" s="5">
-        <v>216001</v>
+        <v>222001</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H21" s="5">
-        <v>84070</v>
+        <v>45000</v>
       </c>
       <c r="I21" s="5">
-        <v>416263.5</v>
+        <v>45000</v>
       </c>
       <c r="J21" s="5">
-        <v>416263.5</v>
+        <v>45000</v>
       </c>
       <c r="K21" s="5">
-        <v>416263.5</v>
+        <v>45000</v>
       </c>
       <c r="L21" s="5">
-        <v>416263.5</v>
+        <v>45000</v>
       </c>
       <c r="M21" s="5">
-        <v>303569.04000000004</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="N21" s="5"/>
       <c r="O21" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q21" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R21" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C22" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D22" s="5">
         <v>2000</v>
       </c>
       <c r="E22" s="5">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="5">
-        <v>217001</v>
+        <v>242001</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H22" s="5">
-        <v>278200</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="5">
-        <v>283996.49</v>
+        <v>910.6</v>
       </c>
       <c r="J22" s="5">
-        <v>283996.49</v>
+        <v>910.6</v>
       </c>
       <c r="K22" s="5">
-        <v>283996.49</v>
+        <v>910.6</v>
       </c>
       <c r="L22" s="5">
-        <v>283996.49</v>
+        <v>910.6</v>
       </c>
       <c r="M22" s="5">
-        <v>258684.99</v>
+        <v>0</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q22" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R22" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B23" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C23" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D23" s="5">
         <v>2000</v>
       </c>
       <c r="E23" s="5">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="F23" s="5">
-        <v>222001</v>
+        <v>243001</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="5">
-        <v>180000</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="5">
-        <v>179332.68</v>
+        <v>994.12</v>
       </c>
       <c r="J23" s="5">
-        <v>179332.68</v>
+        <v>994.12</v>
       </c>
       <c r="K23" s="5">
-        <v>179332.68</v>
+        <v>994.12</v>
       </c>
       <c r="L23" s="5">
-        <v>179332.68</v>
+        <v>994.12</v>
       </c>
       <c r="M23" s="5">
-        <v>179332.68</v>
+        <v>994.12</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q23" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R23" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B24" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C24" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D24" s="5">
         <v>2000</v>
       </c>
       <c r="E24" s="5">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F24" s="5">
-        <v>231001</v>
+        <v>244001</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="5">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="I24" s="5">
-        <v>12000</v>
+        <v>499.73</v>
       </c>
       <c r="J24" s="5">
-        <v>12000</v>
+        <v>499.73</v>
       </c>
       <c r="K24" s="5">
-        <v>12000</v>
+        <v>499.73</v>
       </c>
       <c r="L24" s="5">
-        <v>12000</v>
+        <v>499.73</v>
       </c>
       <c r="M24" s="5">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q24" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R24" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B25" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C25" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D25" s="5">
         <v>2000</v>
@@ -2134,55 +2082,55 @@
         <v>2400</v>
       </c>
       <c r="F25" s="5">
-        <v>241001</v>
+        <v>246001</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25" s="5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="I25" s="5">
-        <v>22890.339999999997</v>
+        <v>10429.560000000001</v>
       </c>
       <c r="J25" s="5">
-        <v>22890.339999999997</v>
+        <v>10429.560000000001</v>
       </c>
       <c r="K25" s="5">
-        <v>22890.339999999997</v>
+        <v>10429.560000000001</v>
       </c>
       <c r="L25" s="5">
-        <v>22890.339999999997</v>
+        <v>10429.560000000001</v>
       </c>
       <c r="M25" s="5">
-        <v>22890.339999999997</v>
+        <v>0</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q25" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R25" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B26" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C26" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D26" s="5">
         <v>2000</v>
@@ -2191,55 +2139,55 @@
         <v>2400</v>
       </c>
       <c r="F26" s="5">
-        <v>242001</v>
+        <v>247001</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" s="5">
-        <v>2400</v>
+        <v>15520</v>
       </c>
       <c r="I26" s="5">
-        <v>7309.43</v>
+        <v>15478.2</v>
       </c>
       <c r="J26" s="5">
-        <v>7309.43</v>
+        <v>15478.2</v>
       </c>
       <c r="K26" s="5">
-        <v>7309.43</v>
+        <v>15478.2</v>
       </c>
       <c r="L26" s="5">
-        <v>7309.43</v>
+        <v>15478.2</v>
       </c>
       <c r="M26" s="5">
-        <v>7309.43</v>
+        <v>4999.6000000000004</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q26" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R26" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B27" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C27" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D27" s="5">
         <v>2000</v>
@@ -2248,3693 +2196,2494 @@
         <v>2400</v>
       </c>
       <c r="F27" s="5">
-        <v>243001</v>
+        <v>249001</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H27" s="5">
-        <v>3000</v>
+        <v>11200</v>
       </c>
       <c r="I27" s="5">
-        <v>1499.95</v>
+        <v>10307.25</v>
       </c>
       <c r="J27" s="5">
-        <v>1499.95</v>
+        <v>10307.25</v>
       </c>
       <c r="K27" s="5">
-        <v>1499.95</v>
+        <v>10307.25</v>
       </c>
       <c r="L27" s="5">
-        <v>1499.95</v>
+        <v>10307.25</v>
       </c>
       <c r="M27" s="5">
-        <v>1499.95</v>
+        <v>0</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q27" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R27" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B28" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C28" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D28" s="5">
         <v>2000</v>
       </c>
       <c r="E28" s="5">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F28" s="5">
-        <v>244001</v>
+        <v>251001</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H28" s="5">
-        <v>1006</v>
+        <v>24000</v>
       </c>
       <c r="I28" s="5">
-        <v>154006</v>
+        <v>8000</v>
       </c>
       <c r="J28" s="5">
-        <v>154006</v>
+        <v>8000</v>
       </c>
       <c r="K28" s="5">
-        <v>154006</v>
+        <v>8000</v>
       </c>
       <c r="L28" s="5">
-        <v>154006</v>
+        <v>8000</v>
       </c>
       <c r="M28" s="5">
-        <v>3378.84</v>
+        <v>8000</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q28" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R28" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B29" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C29" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D29" s="5">
         <v>2000</v>
       </c>
       <c r="E29" s="5">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F29" s="5">
-        <v>245001</v>
+        <v>252001</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I29" s="5">
-        <v>499.99</v>
+        <v>377</v>
       </c>
       <c r="J29" s="5">
-        <v>499.99</v>
+        <v>377</v>
       </c>
       <c r="K29" s="5">
-        <v>499.99</v>
+        <v>377</v>
       </c>
       <c r="L29" s="5">
-        <v>499.99</v>
+        <v>377</v>
       </c>
       <c r="M29" s="5">
-        <v>499.99</v>
+        <v>0</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q29" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R29" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B30" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C30" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D30" s="5">
         <v>2000</v>
       </c>
       <c r="E30" s="5">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F30" s="5">
-        <v>246001</v>
+        <v>259001</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" s="5">
-        <v>63500</v>
+        <v>500</v>
       </c>
       <c r="I30" s="5">
-        <v>65224.119999999995</v>
+        <v>499.96</v>
       </c>
       <c r="J30" s="5">
-        <v>65224.119999999995</v>
+        <v>499.96</v>
       </c>
       <c r="K30" s="5">
-        <v>65224.119999999995</v>
+        <v>499.96</v>
       </c>
       <c r="L30" s="5">
-        <v>65224.119999999995</v>
+        <v>499.96</v>
       </c>
       <c r="M30" s="5">
-        <v>65224.119999999995</v>
+        <v>499.96</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q30" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R30" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B31" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C31" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D31" s="5">
         <v>2000</v>
       </c>
       <c r="E31" s="5">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F31" s="5">
-        <v>246002</v>
+        <v>261001</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H31" s="5">
-        <v>98000</v>
+        <v>366500</v>
       </c>
       <c r="I31" s="5">
-        <v>100172.45000000001</v>
+        <v>61006.53</v>
       </c>
       <c r="J31" s="5">
-        <v>100172.45000000001</v>
+        <v>61006.53</v>
       </c>
       <c r="K31" s="5">
-        <v>100172.45000000001</v>
+        <v>61006.53</v>
       </c>
       <c r="L31" s="5">
-        <v>100172.45000000001</v>
+        <v>61006.53</v>
       </c>
       <c r="M31" s="5">
-        <v>7018</v>
+        <v>61006.53</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q31" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R31" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B32" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C32" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D32" s="5">
         <v>2000</v>
       </c>
       <c r="E32" s="5">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F32" s="5">
-        <v>247001</v>
+        <v>271001</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H32" s="5">
-        <v>69520</v>
+        <v>60000</v>
       </c>
       <c r="I32" s="5">
-        <v>80766.009999999995</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5">
-        <v>80766.009999999995</v>
+        <v>0</v>
       </c>
       <c r="K32" s="5">
-        <v>80766.009999999995</v>
+        <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>80766.009999999995</v>
+        <v>0</v>
       </c>
       <c r="M32" s="5">
-        <v>80766.009999999995</v>
+        <v>0</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q32" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R32" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C33" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D33" s="5">
         <v>2000</v>
       </c>
       <c r="E33" s="5">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F33" s="5">
-        <v>249001</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>78</v>
+        <v>272001</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="H33" s="5">
-        <v>51200</v>
+        <v>3000</v>
       </c>
       <c r="I33" s="5">
-        <v>49127.31</v>
+        <v>2999.76</v>
       </c>
       <c r="J33" s="5">
-        <v>49127.31</v>
+        <v>2999.76</v>
       </c>
       <c r="K33" s="5">
-        <v>49127.31</v>
+        <v>2999.76</v>
       </c>
       <c r="L33" s="5">
-        <v>49127.31</v>
+        <v>2999.76</v>
       </c>
       <c r="M33" s="5">
-        <v>49127.31</v>
+        <v>2999.76</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q33" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R33" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B34" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C34" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D34" s="5">
         <v>2000</v>
       </c>
       <c r="E34" s="5">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="F34" s="5">
-        <v>251001</v>
+        <v>273001</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H34" s="5">
-        <v>489440</v>
+        <v>15000</v>
       </c>
       <c r="I34" s="5">
-        <v>146807.09</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>146807.09</v>
+        <v>0</v>
       </c>
       <c r="K34" s="5">
-        <v>146807.09</v>
+        <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>146807.09</v>
+        <v>0</v>
       </c>
       <c r="M34" s="5">
-        <v>119802.28999999998</v>
+        <v>0</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q34" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R34" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B35" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C35" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D35" s="5">
         <v>2000</v>
       </c>
       <c r="E35" s="5">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F35" s="5">
-        <v>252001</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>80</v>
+        <v>291001</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="H35" s="5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="I35" s="5">
-        <v>498.8</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5">
-        <v>498.8</v>
+        <v>0</v>
       </c>
       <c r="K35" s="5">
-        <v>498.8</v>
+        <v>0</v>
       </c>
       <c r="L35" s="5">
-        <v>498.8</v>
+        <v>0</v>
       </c>
       <c r="M35" s="5">
-        <v>498.8</v>
+        <v>0</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q35" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R35" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C36" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D36" s="5">
         <v>2000</v>
       </c>
       <c r="E36" s="5">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F36" s="5">
-        <v>253001</v>
+        <v>292001</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H36" s="5">
-        <v>117500</v>
+        <v>1500</v>
       </c>
       <c r="I36" s="5">
-        <v>127235.12</v>
+        <v>1500</v>
       </c>
       <c r="J36" s="5">
-        <v>127235.12</v>
+        <v>1500</v>
       </c>
       <c r="K36" s="5">
-        <v>127235.12</v>
+        <v>1500</v>
       </c>
       <c r="L36" s="5">
-        <v>127235.12</v>
+        <v>1500</v>
       </c>
       <c r="M36" s="5">
-        <v>115235.12</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N36" s="5"/>
       <c r="O36" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q36" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R36" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B37" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C37" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D37" s="5">
         <v>2000</v>
       </c>
       <c r="E37" s="5">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F37" s="5">
-        <v>254001</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>82</v>
+        <v>294001</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H37" s="5">
-        <v>105500</v>
+        <v>27900</v>
       </c>
       <c r="I37" s="5">
-        <v>118900.41</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5">
-        <v>118900.41</v>
+        <v>0</v>
       </c>
       <c r="K37" s="5">
-        <v>118900.41</v>
+        <v>0</v>
       </c>
       <c r="L37" s="5">
-        <v>118900.41</v>
+        <v>0</v>
       </c>
       <c r="M37" s="5">
-        <v>2499.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q37" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R37" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B38" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C38" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D38" s="5">
         <v>2000</v>
       </c>
       <c r="E38" s="5">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F38" s="5">
-        <v>255001</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>83</v>
+        <v>295001</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="H38" s="5">
-        <v>129011</v>
+        <v>25000</v>
       </c>
       <c r="I38" s="5">
-        <v>127372.48999999999</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5">
-        <v>127372.48999999999</v>
+        <v>0</v>
       </c>
       <c r="K38" s="5">
-        <v>127372.48999999999</v>
+        <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>127372.48999999999</v>
+        <v>0</v>
       </c>
       <c r="M38" s="5">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q38" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R38" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B39" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C39" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D39" s="5">
         <v>2000</v>
       </c>
       <c r="E39" s="5">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F39" s="5">
-        <v>256001</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>84</v>
+        <v>296001</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="H39" s="5">
-        <v>139800</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="5">
-        <v>236256.55000000002</v>
+        <v>371.40000000000003</v>
       </c>
       <c r="J39" s="5">
-        <v>236256.55000000002</v>
+        <v>371.40000000000003</v>
       </c>
       <c r="K39" s="5">
-        <v>236256.55000000002</v>
+        <v>371.40000000000003</v>
       </c>
       <c r="L39" s="5">
-        <v>236256.55000000002</v>
+        <v>371.40000000000003</v>
       </c>
       <c r="M39" s="5">
-        <v>85467.5</v>
+        <v>371.40000000000003</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q39" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R39" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B40" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C40" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D40" s="5">
         <v>2000</v>
       </c>
       <c r="E40" s="5">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F40" s="5">
-        <v>259001</v>
+        <v>298001</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H40" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I40" s="5">
-        <v>499.98</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5">
-        <v>499.98</v>
+        <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>499.98</v>
+        <v>0</v>
       </c>
       <c r="L40" s="5">
-        <v>499.98</v>
+        <v>0</v>
       </c>
       <c r="M40" s="5">
-        <v>499.98</v>
+        <v>0</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q40" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R40" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B41" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C41" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D41" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E41" s="5">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="F41" s="5">
-        <v>261001</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>86</v>
+        <v>311001</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="H41" s="5">
-        <v>166000</v>
+        <v>414000</v>
       </c>
       <c r="I41" s="5">
-        <v>186796.02999999997</v>
+        <v>376313</v>
       </c>
       <c r="J41" s="5">
-        <v>186796.02999999997</v>
+        <v>376313</v>
       </c>
       <c r="K41" s="5">
-        <v>186796.02999999997</v>
+        <v>376313</v>
       </c>
       <c r="L41" s="5">
-        <v>186796.02999999997</v>
+        <v>376313</v>
       </c>
       <c r="M41" s="5">
-        <v>186796.02999999997</v>
+        <v>376313</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q41" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R41" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S41" s="4"/>
     </row>
     <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B42" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C42" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D42" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="5">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="F42" s="5">
-        <v>271001</v>
+        <v>313001</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H42" s="5">
-        <v>38000</v>
+        <v>21000</v>
       </c>
       <c r="I42" s="5">
-        <v>68208.19</v>
+        <v>24910.01</v>
       </c>
       <c r="J42" s="5">
-        <v>68208.19</v>
+        <v>24910.01</v>
       </c>
       <c r="K42" s="5">
-        <v>68208.19</v>
+        <v>24910.01</v>
       </c>
       <c r="L42" s="5">
-        <v>68208.19</v>
+        <v>24910.01</v>
       </c>
       <c r="M42" s="5">
-        <v>28209.23</v>
+        <v>24910.01</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q42" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R42" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S42" s="4"/>
     </row>
     <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B43" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C43" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D43" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E43" s="5">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="F43" s="5">
-        <v>272001</v>
+        <v>314001</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H43" s="5">
-        <v>38000</v>
+        <v>189900</v>
       </c>
       <c r="I43" s="5">
-        <v>7998.2</v>
+        <v>180972</v>
       </c>
       <c r="J43" s="5">
-        <v>7998.2</v>
+        <v>180972</v>
       </c>
       <c r="K43" s="5">
-        <v>7998.2</v>
+        <v>180972</v>
       </c>
       <c r="L43" s="5">
-        <v>7998.2</v>
+        <v>180972</v>
       </c>
       <c r="M43" s="5">
-        <v>7998.2</v>
+        <v>180972</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q43" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R43" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S43" s="4"/>
     </row>
     <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B44" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C44" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D44" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F44" s="5">
+        <v>318001</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="5">
         <v>2000</v>
       </c>
-      <c r="E44" s="5">
-        <v>2700</v>
-      </c>
-      <c r="F44" s="5">
-        <v>273001</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H44" s="5">
-        <v>18000</v>
-      </c>
       <c r="I44" s="5">
-        <v>66964.759999999995</v>
+        <v>276.92</v>
       </c>
       <c r="J44" s="5">
-        <v>66964.759999999995</v>
+        <v>276.92</v>
       </c>
       <c r="K44" s="5">
-        <v>66964.759999999995</v>
+        <v>276.92</v>
       </c>
       <c r="L44" s="5">
-        <v>66964.759999999995</v>
+        <v>276.92</v>
       </c>
       <c r="M44" s="5">
-        <v>20156.439999999999</v>
+        <v>276.92</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q44" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R44" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S44" s="4"/>
     </row>
     <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B45" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C45" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D45" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="5">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="F45" s="5">
-        <v>291001</v>
+        <v>323002</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H45" s="5">
-        <v>24000</v>
+        <v>22800</v>
       </c>
       <c r="I45" s="5">
-        <v>24099</v>
+        <v>22550.400000000001</v>
       </c>
       <c r="J45" s="5">
-        <v>24099</v>
+        <v>22550.400000000001</v>
       </c>
       <c r="K45" s="5">
-        <v>24099</v>
+        <v>22550.400000000001</v>
       </c>
       <c r="L45" s="5">
-        <v>24099</v>
+        <v>22550.400000000001</v>
       </c>
       <c r="M45" s="5">
-        <v>24099</v>
+        <v>22550.400000000001</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q45" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R45" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S45" s="4"/>
     </row>
     <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B46" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C46" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D46" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E46" s="5">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="F46" s="5">
-        <v>292001</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>91</v>
+        <v>326001</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H46" s="5">
-        <v>4500</v>
+        <v>24000</v>
       </c>
       <c r="I46" s="5">
-        <v>1998.71</v>
+        <v>13920</v>
       </c>
       <c r="J46" s="5">
-        <v>1998.71</v>
+        <v>13920</v>
       </c>
       <c r="K46" s="5">
-        <v>1998.71</v>
+        <v>13920</v>
       </c>
       <c r="L46" s="5">
-        <v>1998.71</v>
+        <v>13920</v>
       </c>
       <c r="M46" s="5">
-        <v>1998.71</v>
+        <v>10440</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q46" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R46" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B47" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C47" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D47" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E47" s="5">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="F47" s="5">
-        <v>293001</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>92</v>
+        <v>327001</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="H47" s="5">
-        <v>4000</v>
+        <v>102665</v>
       </c>
       <c r="I47" s="5">
-        <v>980842.09</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5">
-        <v>980842.09</v>
+        <v>0</v>
       </c>
       <c r="K47" s="5">
-        <v>980842.09</v>
+        <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>980842.09</v>
+        <v>0</v>
       </c>
       <c r="M47" s="5">
-        <v>18187.72</v>
+        <v>0</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q47" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R47" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S47" s="4"/>
     </row>
     <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B48" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C48" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D48" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E48" s="5">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="F48" s="5">
-        <v>294001</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>93</v>
+        <v>331002</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="H48" s="5">
-        <v>219070</v>
+        <v>162720</v>
       </c>
       <c r="I48" s="5">
-        <v>774752.96</v>
+        <v>112133.33</v>
       </c>
       <c r="J48" s="5">
-        <v>774752.96</v>
+        <v>112133.33</v>
       </c>
       <c r="K48" s="5">
-        <v>774752.96</v>
+        <v>112133.33</v>
       </c>
       <c r="L48" s="5">
-        <v>774752.96</v>
+        <v>112133.33</v>
       </c>
       <c r="M48" s="5">
-        <v>51884.29</v>
+        <v>112133.33</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q48" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R48" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S48" s="4"/>
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B49" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C49" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D49" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E49" s="5">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="F49" s="5">
-        <v>295001</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>94</v>
+        <v>331003</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="H49" s="5">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="I49" s="5">
-        <v>192999.96</v>
+        <v>41338.239999999998</v>
       </c>
       <c r="J49" s="5">
-        <v>192999.96</v>
+        <v>41338.239999999998</v>
       </c>
       <c r="K49" s="5">
-        <v>192999.96</v>
+        <v>41338.239999999998</v>
       </c>
       <c r="L49" s="5">
-        <v>192999.96</v>
+        <v>41338.239999999998</v>
       </c>
       <c r="M49" s="5">
-        <v>14987.2</v>
+        <v>36338.639999999999</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q49" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R49" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S49" s="4"/>
     </row>
     <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B50" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C50" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D50" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E50" s="5">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="F50" s="5">
-        <v>296001</v>
+        <v>336001</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H50" s="5">
-        <v>4500</v>
+        <v>127200</v>
       </c>
       <c r="I50" s="5">
-        <v>4453.62</v>
+        <v>20751.129999999997</v>
       </c>
       <c r="J50" s="5">
-        <v>4453.62</v>
+        <v>20751.129999999997</v>
       </c>
       <c r="K50" s="5">
-        <v>4453.62</v>
+        <v>20751.129999999997</v>
       </c>
       <c r="L50" s="5">
-        <v>4453.62</v>
+        <v>20751.129999999997</v>
       </c>
       <c r="M50" s="5">
-        <v>4453.62</v>
+        <v>20751.129999999997</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q50" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R50" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S50" s="4"/>
     </row>
     <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B51" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C51" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D51" s="5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E51" s="5">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="F51" s="5">
-        <v>298001</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>96</v>
+        <v>338001</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H51" s="5">
-        <v>11500</v>
+        <v>483720</v>
       </c>
       <c r="I51" s="5">
-        <v>6499.98</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5">
-        <v>6499.98</v>
+        <v>0</v>
       </c>
       <c r="K51" s="5">
-        <v>6499.98</v>
+        <v>0</v>
       </c>
       <c r="L51" s="5">
-        <v>6499.98</v>
+        <v>0</v>
       </c>
       <c r="M51" s="5">
-        <v>6499.98</v>
+        <v>0</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q51" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R51" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S51" s="4"/>
     </row>
     <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B52" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C52" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D52" s="5">
         <v>3000</v>
       </c>
       <c r="E52" s="5">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="F52" s="5">
-        <v>311001</v>
+        <v>341001</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H52" s="5">
-        <v>1320000</v>
+        <v>32000</v>
       </c>
       <c r="I52" s="5">
-        <v>2366762</v>
+        <v>59081.170000000006</v>
       </c>
       <c r="J52" s="5">
-        <v>2366762</v>
+        <v>59081.170000000006</v>
       </c>
       <c r="K52" s="5">
-        <v>2366762</v>
+        <v>59081.170000000006</v>
       </c>
       <c r="L52" s="5">
-        <v>2366762</v>
+        <v>59081.170000000006</v>
       </c>
       <c r="M52" s="5">
-        <v>2278548</v>
+        <v>59081.170000000006</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q52" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R52" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S52" s="4"/>
     </row>
     <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B53" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C53" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D53" s="5">
         <v>3000</v>
       </c>
       <c r="E53" s="5">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="F53" s="5">
-        <v>313001</v>
+        <v>345001</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H53" s="5">
-        <v>84000</v>
+        <v>205000</v>
       </c>
       <c r="I53" s="5">
-        <v>79593.47</v>
+        <v>148851.20000000001</v>
       </c>
       <c r="J53" s="5">
-        <v>79593.47</v>
+        <v>148851.20000000001</v>
       </c>
       <c r="K53" s="5">
-        <v>79593.47</v>
+        <v>148851.20000000001</v>
       </c>
       <c r="L53" s="5">
-        <v>79593.47</v>
+        <v>148851.20000000001</v>
       </c>
       <c r="M53" s="5">
-        <v>79593.47</v>
+        <v>148851.20000000001</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q53" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R53" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S53" s="4"/>
     </row>
     <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B54" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C54" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D54" s="5">
         <v>3000</v>
       </c>
       <c r="E54" s="5">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="F54" s="5">
-        <v>314001</v>
+        <v>351001</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H54" s="5">
-        <v>730476</v>
+        <v>10000</v>
       </c>
       <c r="I54" s="5">
-        <v>724437</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5">
-        <v>724437</v>
+        <v>0</v>
       </c>
       <c r="K54" s="5">
-        <v>724437</v>
+        <v>0</v>
       </c>
       <c r="L54" s="5">
-        <v>724437</v>
+        <v>0</v>
       </c>
       <c r="M54" s="5">
-        <v>724437</v>
+        <v>0</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q54" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R54" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S54" s="4"/>
     </row>
     <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B55" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C55" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D55" s="5">
         <v>3000</v>
       </c>
       <c r="E55" s="5">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="F55" s="5">
-        <v>317001</v>
+        <v>352001</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H55" s="5">
-        <v>42100</v>
+        <v>3500</v>
       </c>
       <c r="I55" s="5">
-        <v>262640</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5">
-        <v>262640</v>
+        <v>0</v>
       </c>
       <c r="K55" s="5">
-        <v>262640</v>
+        <v>0</v>
       </c>
       <c r="L55" s="5">
-        <v>262640</v>
+        <v>0</v>
       </c>
       <c r="M55" s="5">
-        <v>62640</v>
+        <v>0</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q55" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R55" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S55" s="4"/>
     </row>
     <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B56" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C56" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D56" s="5">
         <v>3000</v>
       </c>
       <c r="E56" s="5">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="F56" s="5">
-        <v>318001</v>
+        <v>353001</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H56" s="5">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="I56" s="5">
-        <v>1044.02</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5">
-        <v>1044.02</v>
+        <v>0</v>
       </c>
       <c r="K56" s="5">
-        <v>1044.02</v>
+        <v>0</v>
       </c>
       <c r="L56" s="5">
-        <v>1044.02</v>
+        <v>0</v>
       </c>
       <c r="M56" s="5">
-        <v>1044.02</v>
+        <v>0</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q56" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R56" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S56" s="4"/>
     </row>
     <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B57" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C57" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D57" s="5">
         <v>3000</v>
       </c>
       <c r="E57" s="5">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="F57" s="5">
-        <v>322001</v>
+        <v>355001</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H57" s="5">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="I57" s="5">
-        <v>92800</v>
+        <v>2542.2600000000002</v>
       </c>
       <c r="J57" s="5">
-        <v>92800</v>
+        <v>2542.2600000000002</v>
       </c>
       <c r="K57" s="5">
-        <v>92800</v>
+        <v>2542.2600000000002</v>
       </c>
       <c r="L57" s="5">
-        <v>92800</v>
+        <v>2542.2600000000002</v>
       </c>
       <c r="M57" s="5">
-        <v>92800</v>
+        <v>2542.2600000000002</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q57" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R57" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S57" s="4"/>
     </row>
     <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B58" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C58" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D58" s="5">
         <v>3000</v>
       </c>
       <c r="E58" s="5">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="F58" s="5">
-        <v>323002</v>
+        <v>357001</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H58" s="5">
-        <v>48000</v>
+        <v>27000</v>
       </c>
       <c r="I58" s="5">
-        <v>62361.599999999999</v>
+        <v>1950</v>
       </c>
       <c r="J58" s="5">
-        <v>62361.599999999999</v>
+        <v>1950</v>
       </c>
       <c r="K58" s="5">
-        <v>62361.599999999999</v>
+        <v>1950</v>
       </c>
       <c r="L58" s="5">
-        <v>62361.599999999999</v>
+        <v>1950</v>
       </c>
       <c r="M58" s="5">
-        <v>62361.599999999999</v>
+        <v>0</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q58" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R58" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S58" s="4"/>
     </row>
     <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B59" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C59" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D59" s="5">
         <v>3000</v>
       </c>
       <c r="E59" s="5">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="F59" s="5">
-        <v>326001</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>104</v>
+        <v>358001</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="H59" s="5">
-        <v>20000</v>
+        <v>284097</v>
       </c>
       <c r="I59" s="5">
-        <v>39529.9</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5">
-        <v>39529.9</v>
+        <v>0</v>
       </c>
       <c r="K59" s="5">
-        <v>39529.9</v>
+        <v>0</v>
       </c>
       <c r="L59" s="5">
-        <v>39529.9</v>
+        <v>0</v>
       </c>
       <c r="M59" s="5">
-        <v>39529.9</v>
+        <v>0</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q59" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R59" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S59" s="4"/>
     </row>
     <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B60" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C60" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D60" s="5">
         <v>3000</v>
       </c>
       <c r="E60" s="5">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="F60" s="5">
-        <v>327001</v>
+        <v>361002</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H60" s="5">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="I60" s="5">
-        <v>1270613.5</v>
+        <v>37346</v>
       </c>
       <c r="J60" s="5">
-        <v>1270613.5</v>
+        <v>37346</v>
       </c>
       <c r="K60" s="5">
-        <v>1270613.5</v>
+        <v>37346</v>
       </c>
       <c r="L60" s="5">
-        <v>1270613.5</v>
+        <v>37346</v>
       </c>
       <c r="M60" s="5">
-        <v>852473.6</v>
+        <v>37346</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q60" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R60" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S60" s="4"/>
     </row>
     <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B61" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C61" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D61" s="5">
         <v>3000</v>
       </c>
       <c r="E61" s="5">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="F61" s="5">
-        <v>331002</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>106</v>
+        <v>371001</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="H61" s="5">
-        <v>955720</v>
+        <v>7000</v>
       </c>
       <c r="I61" s="5">
-        <v>780207.11</v>
+        <v>2674.75</v>
       </c>
       <c r="J61" s="5">
-        <v>780207.11</v>
+        <v>2674.75</v>
       </c>
       <c r="K61" s="5">
-        <v>780207.11</v>
+        <v>2674.75</v>
       </c>
       <c r="L61" s="5">
-        <v>780207.11</v>
+        <v>2674.75</v>
       </c>
       <c r="M61" s="5">
-        <v>624690</v>
+        <v>2674.75</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q61" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R61" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S61" s="4"/>
     </row>
     <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B62" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C62" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D62" s="5">
         <v>3000</v>
       </c>
       <c r="E62" s="5">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="5">
-        <v>331003</v>
+        <v>372001</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H62" s="5">
-        <v>1043506</v>
+        <v>56000</v>
       </c>
       <c r="I62" s="5">
-        <v>508793.99</v>
+        <v>575.25</v>
       </c>
       <c r="J62" s="5">
-        <v>508793.99</v>
+        <v>575.25</v>
       </c>
       <c r="K62" s="5">
-        <v>508793.99</v>
+        <v>575.25</v>
       </c>
       <c r="L62" s="5">
-        <v>508793.99</v>
+        <v>575.25</v>
       </c>
       <c r="M62" s="5">
-        <v>508793.99</v>
+        <v>575.25</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q62" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R62" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S62" s="4"/>
     </row>
     <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B63" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C63" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D63" s="5">
         <v>3000</v>
       </c>
       <c r="E63" s="5">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="F63" s="5">
-        <v>332001</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>108</v>
+        <v>375001</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="H63" s="5">
-        <v>10000</v>
+        <v>16950</v>
       </c>
       <c r="I63" s="5">
-        <v>0</v>
+        <v>15270</v>
       </c>
       <c r="J63" s="5">
-        <v>0</v>
+        <v>15270</v>
       </c>
       <c r="K63" s="5">
-        <v>0</v>
+        <v>15270</v>
       </c>
       <c r="L63" s="5">
-        <v>0</v>
+        <v>15270</v>
       </c>
       <c r="M63" s="5">
-        <v>0</v>
+        <v>15270</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q63" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R63" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S63" s="4"/>
     </row>
     <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B64" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C64" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D64" s="5">
         <v>3000</v>
       </c>
       <c r="E64" s="5">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="F64" s="5">
-        <v>334001</v>
+        <v>381001</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H64" s="5">
-        <v>274282</v>
+        <v>104000</v>
       </c>
       <c r="I64" s="5">
-        <v>178433.97999999998</v>
+        <v>74405.5</v>
       </c>
       <c r="J64" s="5">
-        <v>178433.97999999998</v>
+        <v>74405.5</v>
       </c>
       <c r="K64" s="5">
-        <v>178433.97999999998</v>
+        <v>74405.5</v>
       </c>
       <c r="L64" s="5">
-        <v>178433.97999999998</v>
+        <v>74405.5</v>
       </c>
       <c r="M64" s="5">
-        <v>178433.97999999998</v>
+        <v>69105.5</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q64" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R64" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S64" s="4"/>
     </row>
     <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B65" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C65" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D65" s="5">
         <v>3000</v>
       </c>
       <c r="E65" s="5">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="F65" s="5">
-        <v>336001</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>110</v>
+        <v>382001</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="H65" s="5">
-        <v>165799</v>
+        <v>18000</v>
       </c>
       <c r="I65" s="5">
-        <v>169756.79999999999</v>
+        <v>28423.46</v>
       </c>
       <c r="J65" s="5">
-        <v>169756.79999999999</v>
+        <v>28423.46</v>
       </c>
       <c r="K65" s="5">
-        <v>169756.79999999999</v>
+        <v>28423.46</v>
       </c>
       <c r="L65" s="5">
-        <v>169756.79999999999</v>
+        <v>28423.46</v>
       </c>
       <c r="M65" s="5">
-        <v>169756.79999999999</v>
+        <v>28423.46</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q65" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R65" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S65" s="4"/>
     </row>
     <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B66" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C66" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D66" s="5">
         <v>3000</v>
       </c>
       <c r="E66" s="5">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="F66" s="5">
-        <v>338001</v>
+        <v>392001</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H66" s="5">
-        <v>1860420</v>
+        <v>12286</v>
       </c>
       <c r="I66" s="5">
-        <v>1771822.09</v>
+        <v>1946.73</v>
       </c>
       <c r="J66" s="5">
-        <v>1771822.09</v>
+        <v>1946.73</v>
       </c>
       <c r="K66" s="5">
-        <v>1771822.09</v>
+        <v>1946.73</v>
       </c>
       <c r="L66" s="5">
-        <v>1771822.09</v>
+        <v>1946.73</v>
       </c>
       <c r="M66" s="5">
-        <v>1771822.09</v>
+        <v>1946.73</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q66" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R66" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S66" s="4"/>
     </row>
     <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B67" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C67" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D67" s="5">
         <v>3000</v>
       </c>
       <c r="E67" s="5">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="F67" s="5">
-        <v>341001</v>
+        <v>392006</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H67" s="5">
-        <v>7200</v>
+        <v>165590</v>
       </c>
       <c r="I67" s="5">
-        <v>145024.04999999999</v>
+        <v>46450.15</v>
       </c>
       <c r="J67" s="5">
-        <v>145024.04999999999</v>
+        <v>46450.15</v>
       </c>
       <c r="K67" s="5">
-        <v>145024.04999999999</v>
+        <v>46450.15</v>
       </c>
       <c r="L67" s="5">
-        <v>145024.04999999999</v>
+        <v>46450.15</v>
       </c>
       <c r="M67" s="5">
-        <v>145024.04999999999</v>
+        <v>46450.15</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q67" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R67" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S67" s="4"/>
     </row>
     <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B68" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C68" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D68" s="5">
         <v>3000</v>
       </c>
       <c r="E68" s="5">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="F68" s="5">
-        <v>345001</v>
+        <v>398001</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H68" s="5">
-        <v>325000</v>
+        <v>609258</v>
       </c>
       <c r="I68" s="5">
-        <v>541183.02</v>
+        <v>592198.63</v>
       </c>
       <c r="J68" s="5">
-        <v>541183.02</v>
+        <v>592198.63</v>
       </c>
       <c r="K68" s="5">
-        <v>541183.02</v>
+        <v>592198.63</v>
       </c>
       <c r="L68" s="5">
-        <v>541183.02</v>
+        <v>592198.63</v>
       </c>
       <c r="M68" s="5">
-        <v>122759.47999999998</v>
+        <v>592198.63</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q68" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R68" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S68" s="4"/>
     </row>
     <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B69" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C69" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D69" s="5">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E69" s="5">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="F69" s="5">
-        <v>351001</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>114</v>
+        <v>415001</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="H69" s="5">
-        <v>145000</v>
+        <v>1266483</v>
       </c>
       <c r="I69" s="5">
-        <v>1293194.8399999999</v>
+        <v>0</v>
       </c>
       <c r="J69" s="5">
-        <v>1293194.8399999999</v>
+        <v>0</v>
       </c>
       <c r="K69" s="5">
-        <v>1293194.8399999999</v>
+        <v>0</v>
       </c>
       <c r="L69" s="5">
-        <v>1293194.8399999999</v>
+        <v>0</v>
       </c>
       <c r="M69" s="5">
-        <v>38200.01</v>
+        <v>0</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q69" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R69" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S69" s="4"/>
     </row>
     <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B70" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C70" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D70" s="5">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E70" s="5">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="F70" s="5">
-        <v>352001</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>115</v>
+        <v>442001</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H70" s="5">
-        <v>22500</v>
+        <v>70000</v>
       </c>
       <c r="I70" s="5">
-        <v>8323</v>
+        <v>1700</v>
       </c>
       <c r="J70" s="5">
-        <v>8323</v>
+        <v>1700</v>
       </c>
       <c r="K70" s="5">
-        <v>8323</v>
+        <v>1700</v>
       </c>
       <c r="L70" s="5">
-        <v>8323</v>
+        <v>1700</v>
       </c>
       <c r="M70" s="5">
-        <v>8323</v>
+        <v>1700</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q70" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R70" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B71" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C71" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D71" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E71" s="5">
-        <v>3500</v>
-      </c>
-      <c r="F71" s="5">
-        <v>353001</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="5">
-        <v>6500</v>
-      </c>
-      <c r="I71" s="5">
-        <v>2500</v>
-      </c>
-      <c r="J71" s="5">
-        <v>2500</v>
-      </c>
-      <c r="K71" s="5">
-        <v>2500</v>
-      </c>
-      <c r="L71" s="5">
-        <v>2500</v>
-      </c>
-      <c r="M71" s="5">
-        <v>2500</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R71" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B72" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C72" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D72" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E72" s="5">
-        <v>3500</v>
-      </c>
-      <c r="F72" s="5">
-        <v>354001</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H72" s="5">
-        <v>10000</v>
-      </c>
-      <c r="I72" s="5">
-        <v>161356</v>
-      </c>
-      <c r="J72" s="5">
-        <v>161356</v>
-      </c>
-      <c r="K72" s="5">
-        <v>161356</v>
-      </c>
-      <c r="L72" s="5">
-        <v>161356</v>
-      </c>
-      <c r="M72" s="5">
-        <v>0</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R72" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B73" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C73" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D73" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E73" s="5">
-        <v>3500</v>
-      </c>
-      <c r="F73" s="5">
-        <v>355001</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" s="5">
-        <v>75000</v>
-      </c>
-      <c r="I73" s="5">
-        <v>60808.5</v>
-      </c>
-      <c r="J73" s="5">
-        <v>60808.5</v>
-      </c>
-      <c r="K73" s="5">
-        <v>60808.5</v>
-      </c>
-      <c r="L73" s="5">
-        <v>60808.5</v>
-      </c>
-      <c r="M73" s="5">
-        <v>60808.5</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O73" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R73" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B74" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C74" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D74" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E74" s="5">
-        <v>3500</v>
-      </c>
-      <c r="F74" s="5">
-        <v>357001</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H74" s="5">
-        <v>108500</v>
-      </c>
-      <c r="I74" s="5">
-        <v>35445.599999999999</v>
-      </c>
-      <c r="J74" s="5">
-        <v>35445.599999999999</v>
-      </c>
-      <c r="K74" s="5">
-        <v>35445.599999999999</v>
-      </c>
-      <c r="L74" s="5">
-        <v>35445.599999999999</v>
-      </c>
-      <c r="M74" s="5">
-        <v>35445.599999999999</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O74" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R74" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B75" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C75" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D75" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E75" s="5">
-        <v>3500</v>
-      </c>
-      <c r="F75" s="5">
-        <v>358001</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H75" s="5">
-        <v>1200000</v>
-      </c>
-      <c r="I75" s="5">
-        <v>900000</v>
-      </c>
-      <c r="J75" s="5">
-        <v>900000</v>
-      </c>
-      <c r="K75" s="5">
-        <v>900000</v>
-      </c>
-      <c r="L75" s="5">
-        <v>900000</v>
-      </c>
-      <c r="M75" s="5">
-        <v>525000</v>
-      </c>
-      <c r="N75" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O75" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R75" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B76" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C76" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D76" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E76" s="5">
-        <v>3500</v>
-      </c>
-      <c r="F76" s="5">
-        <v>359001</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H76" s="5">
-        <v>20000</v>
-      </c>
-      <c r="I76" s="5">
-        <v>24882</v>
-      </c>
-      <c r="J76" s="5">
-        <v>24882</v>
-      </c>
-      <c r="K76" s="5">
-        <v>24882</v>
-      </c>
-      <c r="L76" s="5">
-        <v>24882</v>
-      </c>
-      <c r="M76" s="5">
-        <v>24882</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O76" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R76" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B77" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C77" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D77" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E77" s="5">
-        <v>3600</v>
-      </c>
-      <c r="F77" s="5">
-        <v>361002</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H77" s="5">
-        <v>141000</v>
-      </c>
-      <c r="I77" s="5">
-        <v>115262.10999999999</v>
-      </c>
-      <c r="J77" s="5">
-        <v>115262.10999999999</v>
-      </c>
-      <c r="K77" s="5">
-        <v>115262.10999999999</v>
-      </c>
-      <c r="L77" s="5">
-        <v>115262.10999999999</v>
-      </c>
-      <c r="M77" s="5">
-        <v>115262.10999999999</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R77" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B78" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C78" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D78" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E78" s="5">
-        <v>3600</v>
-      </c>
-      <c r="F78" s="5">
-        <v>362001</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H78" s="5">
-        <v>53300</v>
-      </c>
-      <c r="I78" s="5">
-        <v>93548.81</v>
-      </c>
-      <c r="J78" s="5">
-        <v>93548.81</v>
-      </c>
-      <c r="K78" s="5">
-        <v>93548.81</v>
-      </c>
-      <c r="L78" s="5">
-        <v>93548.81</v>
-      </c>
-      <c r="M78" s="5">
-        <v>28550.41</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R78" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B79" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C79" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D79" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E79" s="5">
-        <v>3700</v>
-      </c>
-      <c r="F79" s="5">
-        <v>371001</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H79" s="5">
-        <v>21000</v>
-      </c>
-      <c r="I79" s="5">
-        <v>0</v>
-      </c>
-      <c r="J79" s="5">
-        <v>0</v>
-      </c>
-      <c r="K79" s="5">
-        <v>0</v>
-      </c>
-      <c r="L79" s="5">
-        <v>0</v>
-      </c>
-      <c r="M79" s="5">
-        <v>0</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R79" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B80" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C80" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D80" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E80" s="5">
-        <v>3700</v>
-      </c>
-      <c r="F80" s="5">
-        <v>372001</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H80" s="5">
-        <v>23000</v>
-      </c>
-      <c r="I80" s="5">
-        <v>10586</v>
-      </c>
-      <c r="J80" s="5">
-        <v>10586</v>
-      </c>
-      <c r="K80" s="5">
-        <v>10586</v>
-      </c>
-      <c r="L80" s="5">
-        <v>10586</v>
-      </c>
-      <c r="M80" s="5">
-        <v>6686</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R80" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B81" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C81" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D81" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E81" s="5">
-        <v>3700</v>
-      </c>
-      <c r="F81" s="5">
-        <v>375001</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H81" s="5">
-        <v>30850</v>
-      </c>
-      <c r="I81" s="5">
-        <v>24331.781999999999</v>
-      </c>
-      <c r="J81" s="5">
-        <v>24331.781999999999</v>
-      </c>
-      <c r="K81" s="5">
-        <v>24331.781999999999</v>
-      </c>
-      <c r="L81" s="5">
-        <v>24331.781999999999</v>
-      </c>
-      <c r="M81" s="5">
-        <v>24226.311999999998</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R81" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B82" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C82" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E82" s="5">
-        <v>3800</v>
-      </c>
-      <c r="F82" s="5">
-        <v>381001</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H82" s="5">
-        <v>137000</v>
-      </c>
-      <c r="I82" s="5">
-        <v>327315.48</v>
-      </c>
-      <c r="J82" s="5">
-        <v>327315.48</v>
-      </c>
-      <c r="K82" s="5">
-        <v>327315.48</v>
-      </c>
-      <c r="L82" s="5">
-        <v>327315.48</v>
-      </c>
-      <c r="M82" s="5">
-        <v>293881.38</v>
-      </c>
-      <c r="N82" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O82" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R82" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B83" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C83" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D83" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E83" s="5">
-        <v>3800</v>
-      </c>
-      <c r="F83" s="5">
-        <v>382001</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H83" s="5">
-        <v>69479</v>
-      </c>
-      <c r="I83" s="5">
-        <v>487883.75</v>
-      </c>
-      <c r="J83" s="5">
-        <v>487883.75</v>
-      </c>
-      <c r="K83" s="5">
-        <v>487883.75</v>
-      </c>
-      <c r="L83" s="5">
-        <v>487883.75</v>
-      </c>
-      <c r="M83" s="5">
-        <v>478750.75</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R83" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B84" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C84" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D84" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E84" s="5">
-        <v>3900</v>
-      </c>
-      <c r="F84" s="5">
-        <v>392001</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H84" s="5">
-        <v>3444903</v>
-      </c>
-      <c r="I84" s="5">
-        <v>3282072.3200000003</v>
-      </c>
-      <c r="J84" s="5">
-        <v>3282072.3200000003</v>
-      </c>
-      <c r="K84" s="5">
-        <v>3282072.3200000003</v>
-      </c>
-      <c r="L84" s="5">
-        <v>3282072.3200000003</v>
-      </c>
-      <c r="M84" s="5">
-        <v>3282072.3200000003</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R84" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S84" s="4"/>
-    </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B85" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C85" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D85" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E85" s="5">
-        <v>3900</v>
-      </c>
-      <c r="F85" s="5">
-        <v>392006</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H85" s="5">
-        <v>950525</v>
-      </c>
-      <c r="I85" s="5">
-        <v>1166303.94</v>
-      </c>
-      <c r="J85" s="5">
-        <v>1166303.94</v>
-      </c>
-      <c r="K85" s="5">
-        <v>1166303.94</v>
-      </c>
-      <c r="L85" s="5">
-        <v>1166303.94</v>
-      </c>
-      <c r="M85" s="5">
-        <v>796303.94</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O85" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R85" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S85" s="4"/>
-    </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B86" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C86" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D86" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E86" s="5">
-        <v>3900</v>
-      </c>
-      <c r="F86" s="5">
-        <v>398001</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H86" s="5">
-        <v>2965184</v>
-      </c>
-      <c r="I86" s="5">
-        <v>3147481.91</v>
-      </c>
-      <c r="J86" s="5">
-        <v>3147481.91</v>
-      </c>
-      <c r="K86" s="5">
-        <v>3147481.91</v>
-      </c>
-      <c r="L86" s="5">
-        <v>3147481.91</v>
-      </c>
-      <c r="M86" s="5">
-        <v>3147481.91</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O86" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R86" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S86" s="4"/>
-    </row>
-    <row r="87" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B87" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C87" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D87" s="5">
-        <v>4000</v>
-      </c>
-      <c r="E87" s="5">
-        <v>4100</v>
-      </c>
-      <c r="F87" s="5">
-        <v>415001</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H87" s="5">
-        <v>1711058.58</v>
-      </c>
-      <c r="I87" s="5">
-        <v>1706464.98</v>
-      </c>
-      <c r="J87" s="5">
-        <v>1706464.98</v>
-      </c>
-      <c r="K87" s="5">
-        <v>1706464.98</v>
-      </c>
-      <c r="L87" s="5">
-        <v>1706464.98</v>
-      </c>
-      <c r="M87" s="5">
-        <v>1706464.98</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O87" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R87" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S87" s="4"/>
-    </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B88" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C88" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D88" s="5">
-        <v>4000</v>
-      </c>
-      <c r="E88" s="5">
-        <v>4400</v>
-      </c>
-      <c r="F88" s="5">
-        <v>442001</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H88" s="5">
-        <v>625000</v>
-      </c>
-      <c r="I88" s="5">
-        <v>83252</v>
-      </c>
-      <c r="J88" s="5">
-        <v>83252</v>
-      </c>
-      <c r="K88" s="5">
-        <v>83252</v>
-      </c>
-      <c r="L88" s="5">
-        <v>83252</v>
-      </c>
-      <c r="M88" s="5">
-        <v>83252</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O88" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R88" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B89" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C89" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D89" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E89" s="5">
-        <v>5100</v>
-      </c>
-      <c r="F89" s="5">
-        <v>515001</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H89" s="5">
-        <v>220000</v>
-      </c>
-      <c r="I89" s="5">
-        <v>219995.17</v>
-      </c>
-      <c r="J89" s="5">
-        <v>219995.17</v>
-      </c>
-      <c r="K89" s="5">
-        <v>219995.17</v>
-      </c>
-      <c r="L89" s="5">
-        <v>219995.17</v>
-      </c>
-      <c r="M89" s="5">
-        <v>219995.17</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O89" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R89" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B90" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C90" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D90" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E90" s="5">
-        <v>5600</v>
-      </c>
-      <c r="F90" s="5">
-        <v>569001</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H90" s="5">
-        <v>480000</v>
-      </c>
-      <c r="I90" s="5">
-        <v>768969.26</v>
-      </c>
-      <c r="J90" s="5">
-        <v>768969.26</v>
-      </c>
-      <c r="K90" s="5">
-        <v>768969.26</v>
-      </c>
-      <c r="L90" s="5">
-        <v>768969.26</v>
-      </c>
-      <c r="M90" s="5">
-        <v>286700</v>
-      </c>
-      <c r="N90" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O90" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R90" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S90" s="4"/>
-    </row>
-    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B91" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C91" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D91" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E91" s="5">
-        <v>5900</v>
-      </c>
-      <c r="F91" s="5">
-        <v>597001</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H91" s="5">
-        <v>975330</v>
-      </c>
-      <c r="I91" s="5">
-        <v>0</v>
-      </c>
-      <c r="J91" s="5">
-        <v>0</v>
-      </c>
-      <c r="K91" s="5">
-        <v>0</v>
-      </c>
-      <c r="L91" s="5">
-        <v>0</v>
-      </c>
-      <c r="M91" s="5">
-        <v>0</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O91" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>44936</v>
-      </c>
-      <c r="R91" s="3">
-        <v>44936</v>
-      </c>
-      <c r="S91" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5948,7 +4697,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O8" r:id="rId1"/>
-    <hyperlink ref="O9:O91" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2022/a_diciembre_2022/11.estadoanaliticopresupuestoegresos.pdf"/>
+    <hyperlink ref="O9:O70" r:id="rId2" display="https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_marzo_2023/04.estadoeresupuestoegresos-cap-gto.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
